--- a/BackTest/2019-11-12 BackTest HDAC.xlsx
+++ b/BackTest/2019-11-12 BackTest HDAC.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.3000000000000043</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L12" t="n">
         <v>34.47000000000001</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.3000000000000043</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L13" t="n">
         <v>34.48</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.3000000000000043</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L14" t="n">
         <v>34.49000000000001</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>0.3000000000000043</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L15" t="n">
         <v>34.50000000000001</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>0.4000000000000057</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L16" t="n">
         <v>34.52000000000002</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>0.5000000000000071</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
       <c r="L17" t="n">
         <v>34.52000000000002</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>0.6000000000000085</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-50</v>
+      </c>
       <c r="L18" t="n">
         <v>34.51000000000001</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>0.6000000000000085</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L19" t="n">
         <v>34.49000000000001</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>0.6000000000000085</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L20" t="n">
         <v>34.48</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>0.6000000000000085</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L21" t="n">
         <v>34.47000000000001</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>0.6000000000000085</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L22" t="n">
         <v>34.46</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>0.6000000000000085</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L23" t="n">
         <v>34.45</v>
@@ -1466,7 +1488,7 @@
         <v>0.6000000000000085</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L24" t="n">
         <v>34.44</v>
@@ -1515,7 +1537,7 @@
         <v>0.6000000000000085</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L25" t="n">
         <v>34.42999999999999</v>
@@ -1564,7 +1586,7 @@
         <v>0.6000000000000085</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L26" t="n">
         <v>34.40999999999999</v>
@@ -1613,7 +1635,7 @@
         <v>0.7000000000000099</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L27" t="n">
         <v>34.40999999999999</v>
@@ -1662,7 +1684,7 @@
         <v>0.8000000000000114</v>
       </c>
       <c r="K28" t="n">
-        <v>14.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L28" t="n">
         <v>34.42999999999999</v>
@@ -1711,7 +1733,7 @@
         <v>0.9000000000000128</v>
       </c>
       <c r="K29" t="n">
-        <v>14.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L29" t="n">
         <v>34.45999999999999</v>
@@ -1760,7 +1782,7 @@
         <v>0.9000000000000128</v>
       </c>
       <c r="K30" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L30" t="n">
         <v>34.48999999999999</v>
@@ -1809,7 +1831,7 @@
         <v>0.9000000000000128</v>
       </c>
       <c r="K31" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L31" t="n">
         <v>34.52</v>
@@ -1860,7 +1882,7 @@
         <v>1.000000000000014</v>
       </c>
       <c r="K32" t="n">
-        <v>14.28571428571428</v>
+        <v>50</v>
       </c>
       <c r="L32" t="n">
         <v>34.54000000000001</v>
@@ -1911,7 +1933,7 @@
         <v>1.200000000000017</v>
       </c>
       <c r="K33" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>34.54000000000001</v>
@@ -1962,7 +1984,7 @@
         <v>1.300000000000018</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L34" t="n">
         <v>34.55</v>
@@ -2013,7 +2035,7 @@
         <v>1.40000000000002</v>
       </c>
       <c r="K35" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>34.55</v>
@@ -2064,7 +2086,7 @@
         <v>1.700000000000024</v>
       </c>
       <c r="K36" t="n">
-        <v>7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L36" t="n">
         <v>34.58000000000001</v>
@@ -2115,7 +2137,7 @@
         <v>2.000000000000028</v>
       </c>
       <c r="K37" t="n">
-        <v>-6.666666666666667</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L37" t="n">
         <v>34.57000000000001</v>
@@ -2166,7 +2188,7 @@
         <v>2.200000000000031</v>
       </c>
       <c r="K38" t="n">
-        <v>12.5</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L38" t="n">
         <v>34.57000000000001</v>
@@ -2217,7 +2239,7 @@
         <v>2.300000000000033</v>
       </c>
       <c r="K39" t="n">
-        <v>5.88235294117647</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L39" t="n">
         <v>34.55</v>
@@ -2268,7 +2290,7 @@
         <v>2.400000000000034</v>
       </c>
       <c r="K40" t="n">
-        <v>11.11111111111111</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L40" t="n">
         <v>34.54000000000001</v>
@@ -2319,7 +2341,7 @@
         <v>2.500000000000036</v>
       </c>
       <c r="K41" t="n">
-        <v>5.263157894736842</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L41" t="n">
         <v>34.52000000000001</v>
@@ -2370,7 +2392,7 @@
         <v>2.500000000000036</v>
       </c>
       <c r="K42" t="n">
-        <v>5.263157894736842</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L42" t="n">
         <v>34.51000000000001</v>
@@ -2421,7 +2443,7 @@
         <v>2.500000000000036</v>
       </c>
       <c r="K43" t="n">
-        <v>5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>34.52000000000001</v>
@@ -2472,7 +2494,7 @@
         <v>2.600000000000037</v>
       </c>
       <c r="K44" t="n">
-        <v>10</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L44" t="n">
         <v>34.53000000000002</v>
@@ -2523,7 +2545,7 @@
         <v>2.600000000000037</v>
       </c>
       <c r="K45" t="n">
-        <v>10</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L45" t="n">
         <v>34.55000000000002</v>
@@ -2574,7 +2596,7 @@
         <v>2.700000000000038</v>
       </c>
       <c r="K46" t="n">
-        <v>14.28571428571428</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L46" t="n">
         <v>34.55000000000002</v>
@@ -2625,7 +2647,7 @@
         <v>2.800000000000033</v>
       </c>
       <c r="K47" t="n">
-        <v>14.285714285714</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L47" t="n">
         <v>34.59000000000002</v>
@@ -2676,7 +2698,7 @@
         <v>2.900000000000027</v>
       </c>
       <c r="K48" t="n">
-        <v>4.761904761904794</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L48" t="n">
         <v>34.60000000000002</v>
@@ -2727,7 +2749,7 @@
         <v>3.000000000000021</v>
       </c>
       <c r="K49" t="n">
-        <v>4.761904761904471</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L49" t="n">
         <v>34.63000000000002</v>
@@ -2778,7 +2800,7 @@
         <v>3.200000000000017</v>
       </c>
       <c r="K50" t="n">
-        <v>-4.347826086956576</v>
+        <v>14.28571428571487</v>
       </c>
       <c r="L50" t="n">
         <v>34.63000000000002</v>
@@ -2829,7 +2851,7 @@
         <v>3.400000000000013</v>
       </c>
       <c r="K51" t="n">
-        <v>3.999999999999773</v>
+        <v>33.33333333333386</v>
       </c>
       <c r="L51" t="n">
         <v>34.66000000000002</v>
@@ -2880,7 +2902,7 @@
         <v>3.400000000000013</v>
       </c>
       <c r="K52" t="n">
-        <v>8.333333333333162</v>
+        <v>33.33333333333386</v>
       </c>
       <c r="L52" t="n">
         <v>34.69000000000002</v>
@@ -2931,7 +2953,7 @@
         <v>3.400000000000013</v>
       </c>
       <c r="K53" t="n">
-        <v>18.18181818181815</v>
+        <v>25.00000000000022</v>
       </c>
       <c r="L53" t="n">
         <v>34.72000000000002</v>
@@ -2982,7 +3004,7 @@
         <v>3.400000000000013</v>
       </c>
       <c r="K54" t="n">
-        <v>14.28571428571419</v>
+        <v>25.00000000000022</v>
       </c>
       <c r="L54" t="n">
         <v>34.74000000000002</v>
@@ -3033,7 +3055,7 @@
         <v>3.400000000000013</v>
       </c>
       <c r="K55" t="n">
-        <v>20</v>
+        <v>14.285714285714</v>
       </c>
       <c r="L55" t="n">
         <v>34.76000000000002</v>
@@ -3084,7 +3106,7 @@
         <v>3.400000000000013</v>
       </c>
       <c r="K56" t="n">
-        <v>5.882352941176175</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
         <v>34.77000000000002</v>
@@ -3135,7 +3157,7 @@
         <v>3.400000000000013</v>
       </c>
       <c r="K57" t="n">
-        <v>28.57142857142879</v>
+        <v>19.99999999999943</v>
       </c>
       <c r="L57" t="n">
         <v>34.77000000000002</v>
@@ -3186,7 +3208,7 @@
         <v>3.400000000000013</v>
       </c>
       <c r="K58" t="n">
-        <v>16.66666666666657</v>
+        <v>0</v>
       </c>
       <c r="L58" t="n">
         <v>34.78000000000002</v>
@@ -3237,7 +3259,7 @@
         <v>3.400000000000013</v>
       </c>
       <c r="K59" t="n">
-        <v>27.27272727272751</v>
+        <v>100</v>
       </c>
       <c r="L59" t="n">
         <v>34.78000000000002</v>
@@ -3287,9 +3309,7 @@
       <c r="J60" t="n">
         <v>3.400000000000013</v>
       </c>
-      <c r="K60" t="n">
-        <v>20</v>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>34.80000000000003</v>
       </c>
@@ -3338,9 +3358,7 @@
       <c r="J61" t="n">
         <v>3.400000000000013</v>
       </c>
-      <c r="K61" t="n">
-        <v>33.33333333333386</v>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>34.80000000000003</v>
       </c>
@@ -3390,7 +3408,7 @@
         <v>3.500000000000007</v>
       </c>
       <c r="K62" t="n">
-        <v>20.00000000000085</v>
+        <v>-100</v>
       </c>
       <c r="L62" t="n">
         <v>34.79000000000002</v>
@@ -3441,7 +3459,7 @@
         <v>3.600000000000009</v>
       </c>
       <c r="K63" t="n">
-        <v>9.090909090909443</v>
+        <v>-100</v>
       </c>
       <c r="L63" t="n">
         <v>34.77000000000002</v>
@@ -3492,7 +3510,7 @@
         <v>3.70000000000001</v>
       </c>
       <c r="K64" t="n">
-        <v>9.090909090909443</v>
+        <v>-33.33333333333176</v>
       </c>
       <c r="L64" t="n">
         <v>34.76000000000002</v>
@@ -3543,7 +3561,7 @@
         <v>3.70000000000001</v>
       </c>
       <c r="K65" t="n">
-        <v>9.090909090909443</v>
+        <v>-33.33333333333176</v>
       </c>
       <c r="L65" t="n">
         <v>34.75000000000001</v>
@@ -3594,7 +3612,7 @@
         <v>3.800000000000004</v>
       </c>
       <c r="K66" t="n">
-        <v>9.090909090908857</v>
+        <v>0</v>
       </c>
       <c r="L66" t="n">
         <v>34.75000000000001</v>
@@ -3645,7 +3663,7 @@
         <v>4</v>
       </c>
       <c r="K67" t="n">
-        <v>-16.66666666666677</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L67" t="n">
         <v>34.73000000000002</v>
@@ -3696,7 +3714,7 @@
         <v>4.100000000000001</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>-14.28571428571371</v>
       </c>
       <c r="L68" t="n">
         <v>34.72000000000001</v>
@@ -3798,7 +3816,7 @@
         <v>4.199999999999996</v>
       </c>
       <c r="K70" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L70" t="n">
         <v>34.72000000000001</v>
@@ -3849,7 +3867,7 @@
         <v>4.299999999999997</v>
       </c>
       <c r="K71" t="n">
-        <v>11.11111111111146</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="L71" t="n">
         <v>34.73000000000001</v>
@@ -3900,7 +3918,7 @@
         <v>4.399999999999999</v>
       </c>
       <c r="K72" t="n">
-        <v>0</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="L72" t="n">
         <v>34.74000000000002</v>
@@ -3951,7 +3969,7 @@
         <v>4.5</v>
       </c>
       <c r="K73" t="n">
-        <v>9.090909090909326</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="L73" t="n">
         <v>34.77000000000001</v>
@@ -4002,7 +4020,7 @@
         <v>4.5</v>
       </c>
       <c r="K74" t="n">
-        <v>9.090909090909326</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="L74" t="n">
         <v>34.79000000000001</v>
@@ -4053,7 +4071,7 @@
         <v>4.5</v>
       </c>
       <c r="K75" t="n">
-        <v>9.090909090909326</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L75" t="n">
         <v>34.81000000000001</v>
@@ -4104,7 +4122,7 @@
         <v>4.5</v>
       </c>
       <c r="K76" t="n">
-        <v>9.090909090909326</v>
+        <v>59.99999999999943</v>
       </c>
       <c r="L76" t="n">
         <v>34.82000000000001</v>
@@ -4155,7 +4173,7 @@
         <v>4.5</v>
       </c>
       <c r="K77" t="n">
-        <v>9.090909090909326</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L77" t="n">
         <v>34.85</v>
@@ -4206,7 +4224,7 @@
         <v>4.600000000000001</v>
       </c>
       <c r="K78" t="n">
-        <v>16.66666666666706</v>
+        <v>50</v>
       </c>
       <c r="L78" t="n">
         <v>34.88</v>
@@ -4257,7 +4275,7 @@
         <v>4.600000000000001</v>
       </c>
       <c r="K79" t="n">
-        <v>16.66666666666706</v>
+        <v>50</v>
       </c>
       <c r="L79" t="n">
         <v>34.9</v>
@@ -4308,7 +4326,7 @@
         <v>4.600000000000001</v>
       </c>
       <c r="K80" t="n">
-        <v>16.66666666666706</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L80" t="n">
         <v>34.92</v>
@@ -4359,7 +4377,7 @@
         <v>4.600000000000001</v>
       </c>
       <c r="K81" t="n">
-        <v>16.66666666666706</v>
+        <v>100</v>
       </c>
       <c r="L81" t="n">
         <v>34.93</v>
@@ -4410,7 +4428,7 @@
         <v>4.700000000000003</v>
       </c>
       <c r="K82" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L82" t="n">
         <v>34.96</v>
@@ -4461,7 +4479,7 @@
         <v>4.700000000000003</v>
       </c>
       <c r="K83" t="n">
-        <v>45.45454545454569</v>
+        <v>100</v>
       </c>
       <c r="L83" t="n">
         <v>34.98</v>
@@ -4512,7 +4530,7 @@
         <v>4.800000000000004</v>
       </c>
       <c r="K84" t="n">
-        <v>45.45454545454569</v>
+        <v>100</v>
       </c>
       <c r="L84" t="n">
         <v>35.01000000000001</v>
@@ -4563,7 +4581,7 @@
         <v>4.899999999999999</v>
       </c>
       <c r="K85" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L85" t="n">
         <v>35.05000000000001</v>
@@ -4614,7 +4632,7 @@
         <v>4.899999999999999</v>
       </c>
       <c r="K86" t="n">
-        <v>45.45454545454569</v>
+        <v>100</v>
       </c>
       <c r="L86" t="n">
         <v>35.09000000000002</v>
@@ -4665,7 +4683,7 @@
         <v>4.899999999999999</v>
       </c>
       <c r="K87" t="n">
-        <v>77.77777777777743</v>
+        <v>100</v>
       </c>
       <c r="L87" t="n">
         <v>35.13000000000002</v>
@@ -4716,7 +4734,7 @@
         <v>4.899999999999999</v>
       </c>
       <c r="K88" t="n">
-        <v>74.99999999999956</v>
+        <v>100</v>
       </c>
       <c r="L88" t="n">
         <v>35.16000000000002</v>
@@ -4767,7 +4785,7 @@
         <v>5.099999999999994</v>
       </c>
       <c r="K89" t="n">
-        <v>33.33333333333386</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L89" t="n">
         <v>35.17000000000002</v>
@@ -4818,7 +4836,7 @@
         <v>5.399999999999991</v>
       </c>
       <c r="K90" t="n">
-        <v>50.0000000000003</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L90" t="n">
         <v>35.21000000000002</v>
@@ -4869,7 +4887,7 @@
         <v>5.699999999999989</v>
       </c>
       <c r="K91" t="n">
-        <v>14.28571428571458</v>
+        <v>0</v>
       </c>
       <c r="L91" t="n">
         <v>35.22000000000002</v>
@@ -4920,7 +4938,7 @@
         <v>5.79999999999999</v>
       </c>
       <c r="K92" t="n">
-        <v>14.28571428571458</v>
+        <v>-9.090909090909326</v>
       </c>
       <c r="L92" t="n">
         <v>35.21000000000002</v>
@@ -4971,7 +4989,7 @@
         <v>6.199999999999989</v>
       </c>
       <c r="K93" t="n">
-        <v>29.41176470588255</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="L93" t="n">
         <v>35.24000000000002</v>
@@ -5022,7 +5040,7 @@
         <v>6.199999999999989</v>
       </c>
       <c r="K94" t="n">
-        <v>29.41176470588255</v>
+        <v>7.69230769230786</v>
       </c>
       <c r="L94" t="n">
         <v>35.26000000000001</v>
@@ -5073,7 +5091,7 @@
         <v>6.29999999999999</v>
       </c>
       <c r="K95" t="n">
-        <v>33.3333333333336</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L95" t="n">
         <v>35.28000000000002</v>
@@ -5124,7 +5142,7 @@
         <v>6.29999999999999</v>
       </c>
       <c r="K96" t="n">
-        <v>33.3333333333336</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L96" t="n">
         <v>35.30000000000001</v>
@@ -5175,7 +5193,7 @@
         <v>6.29999999999999</v>
       </c>
       <c r="K97" t="n">
-        <v>33.3333333333336</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L97" t="n">
         <v>35.32000000000001</v>
@@ -5226,7 +5244,7 @@
         <v>6.29999999999999</v>
       </c>
       <c r="K98" t="n">
-        <v>29.41176470588255</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L98" t="n">
         <v>35.34000000000001</v>
@@ -5277,7 +5295,7 @@
         <v>6.29999999999999</v>
       </c>
       <c r="K99" t="n">
-        <v>29.41176470588255</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L99" t="n">
         <v>35.38000000000001</v>
@@ -5328,7 +5346,7 @@
         <v>6.29999999999999</v>
       </c>
       <c r="K100" t="n">
-        <v>29.41176470588255</v>
+        <v>66.66666666666627</v>
       </c>
       <c r="L100" t="n">
         <v>35.39000000000001</v>
@@ -5379,7 +5397,7 @@
         <v>6.599999999999987</v>
       </c>
       <c r="K101" t="n">
-        <v>10.00000000000021</v>
+        <v>25.00000000000044</v>
       </c>
       <c r="L101" t="n">
         <v>35.40000000000001</v>
@@ -5430,7 +5448,7 @@
         <v>6.799999999999983</v>
       </c>
       <c r="K102" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L102" t="n">
         <v>35.44</v>
@@ -5481,7 +5499,7 @@
         <v>6.899999999999984</v>
       </c>
       <c r="K103" t="n">
-        <v>18.18181818181827</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L103" t="n">
         <v>35.45</v>
@@ -5532,7 +5550,7 @@
         <v>6.999999999999986</v>
       </c>
       <c r="K104" t="n">
-        <v>9.090909090908973</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L104" t="n">
         <v>35.45</v>
@@ -5583,7 +5601,7 @@
         <v>6.999999999999986</v>
       </c>
       <c r="K105" t="n">
-        <v>4.761904761904859</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L105" t="n">
         <v>35.44</v>
@@ -5634,7 +5652,7 @@
         <v>6.999999999999986</v>
       </c>
       <c r="K106" t="n">
-        <v>4.761904761904859</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L106" t="n">
         <v>35.43</v>
@@ -5685,7 +5703,7 @@
         <v>6.999999999999986</v>
       </c>
       <c r="K107" t="n">
-        <v>4.761904761904859</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L107" t="n">
         <v>35.42</v>
@@ -5736,7 +5754,7 @@
         <v>6.999999999999986</v>
       </c>
       <c r="K108" t="n">
-        <v>4.761904761904859</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L108" t="n">
         <v>35.41</v>
@@ -5787,7 +5805,7 @@
         <v>6.999999999999986</v>
       </c>
       <c r="K109" t="n">
-        <v>15.78947368421045</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L109" t="n">
         <v>35.39999999999999</v>
@@ -5838,7 +5856,7 @@
         <v>6.999999999999986</v>
       </c>
       <c r="K110" t="n">
-        <v>0</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L110" t="n">
         <v>35.38999999999999</v>
@@ -5889,7 +5907,7 @@
         <v>6.999999999999986</v>
       </c>
       <c r="K111" t="n">
-        <v>23.07692307692291</v>
+        <v>0</v>
       </c>
       <c r="L111" t="n">
         <v>35.40999999999999</v>
@@ -5940,7 +5958,7 @@
         <v>6.999999999999986</v>
       </c>
       <c r="K112" t="n">
-        <v>33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L112" t="n">
         <v>35.40999999999999</v>
@@ -5990,9 +6008,7 @@
       <c r="J113" t="n">
         <v>6.999999999999986</v>
       </c>
-      <c r="K113" t="n">
-        <v>0</v>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>35.39999999999999</v>
       </c>
@@ -6041,9 +6057,7 @@
       <c r="J114" t="n">
         <v>6.999999999999986</v>
       </c>
-      <c r="K114" t="n">
-        <v>0</v>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>35.39999999999999</v>
       </c>
@@ -6092,9 +6106,7 @@
       <c r="J115" t="n">
         <v>6.999999999999986</v>
       </c>
-      <c r="K115" t="n">
-        <v>-14.28571428571458</v>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>35.39999999999999</v>
       </c>
@@ -6143,9 +6155,7 @@
       <c r="J116" t="n">
         <v>6.999999999999986</v>
       </c>
-      <c r="K116" t="n">
-        <v>-14.28571428571458</v>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>35.39999999999999</v>
       </c>
@@ -6194,9 +6204,7 @@
       <c r="J117" t="n">
         <v>6.999999999999986</v>
       </c>
-      <c r="K117" t="n">
-        <v>-14.28571428571458</v>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>35.39999999999999</v>
       </c>
@@ -6246,7 +6254,7 @@
         <v>7.099999999999987</v>
       </c>
       <c r="K118" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L118" t="n">
         <v>35.40999999999999</v>
@@ -6297,7 +6305,7 @@
         <v>7.099999999999987</v>
       </c>
       <c r="K119" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L119" t="n">
         <v>35.41999999999999</v>
@@ -6348,7 +6356,7 @@
         <v>7.29999999999999</v>
       </c>
       <c r="K120" t="n">
-        <v>-20.00000000000028</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L120" t="n">
         <v>35.41</v>
@@ -6399,7 +6407,7 @@
         <v>7.399999999999984</v>
       </c>
       <c r="K121" t="n">
-        <v>0</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L121" t="n">
         <v>35.39</v>
@@ -6450,7 +6458,7 @@
         <v>7.399999999999984</v>
       </c>
       <c r="K122" t="n">
-        <v>-33.33333333333254</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L122" t="n">
         <v>35.37</v>
@@ -6501,7 +6509,7 @@
         <v>7.399999999999984</v>
       </c>
       <c r="K123" t="n">
-        <v>-59.99999999999943</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L123" t="n">
         <v>35.35</v>
@@ -6705,7 +6713,7 @@
         <v>7.999999999999986</v>
       </c>
       <c r="K127" t="n">
-        <v>0</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L127" t="n">
         <v>35.24000000000001</v>
@@ -6756,7 +6764,7 @@
         <v>7.999999999999986</v>
       </c>
       <c r="K128" t="n">
-        <v>0</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L128" t="n">
         <v>35.23</v>
@@ -6807,7 +6815,7 @@
         <v>8.099999999999987</v>
       </c>
       <c r="K129" t="n">
-        <v>9.090909090909207</v>
+        <v>25.00000000000044</v>
       </c>
       <c r="L129" t="n">
         <v>35.23</v>
@@ -6858,7 +6866,7 @@
         <v>8.099999999999987</v>
       </c>
       <c r="K130" t="n">
-        <v>9.090909090909207</v>
+        <v>42.85714285714228</v>
       </c>
       <c r="L130" t="n">
         <v>35.25000000000001</v>
@@ -6909,7 +6917,7 @@
         <v>8.099999999999987</v>
       </c>
       <c r="K131" t="n">
-        <v>9.090909090909207</v>
+        <v>42.85714285714228</v>
       </c>
       <c r="L131" t="n">
         <v>35.28000000000001</v>
@@ -6960,7 +6968,7 @@
         <v>8.099999999999987</v>
       </c>
       <c r="K132" t="n">
-        <v>9.090909090909207</v>
+        <v>42.85714285714228</v>
       </c>
       <c r="L132" t="n">
         <v>35.31000000000001</v>
@@ -7011,7 +7019,7 @@
         <v>8.79999999999999</v>
       </c>
       <c r="K133" t="n">
-        <v>-33.33333333333333</v>
+        <v>-23.07692307692333</v>
       </c>
       <c r="L133" t="n">
         <v>35.27000000000001</v>
@@ -7062,7 +7070,7 @@
         <v>9.499999999999993</v>
       </c>
       <c r="K134" t="n">
-        <v>4.000000000000045</v>
+        <v>26.31578947368413</v>
       </c>
       <c r="L134" t="n">
         <v>35.31000000000001</v>
@@ -7113,7 +7121,7 @@
         <v>10.09999999999999</v>
       </c>
       <c r="K135" t="n">
-        <v>-16.12903225806447</v>
+        <v>-4.000000000000045</v>
       </c>
       <c r="L135" t="n">
         <v>35.3</v>
@@ -7164,7 +7172,7 @@
         <v>10.09999999999999</v>
       </c>
       <c r="K136" t="n">
-        <v>-16.12903225806447</v>
+        <v>-23.80952380952371</v>
       </c>
       <c r="L136" t="n">
         <v>35.29000000000001</v>
@@ -7215,7 +7223,7 @@
         <v>10.09999999999999</v>
       </c>
       <c r="K137" t="n">
-        <v>-16.12903225806447</v>
+        <v>-23.80952380952371</v>
       </c>
       <c r="L137" t="n">
         <v>35.24</v>
@@ -7266,7 +7274,7 @@
         <v>10.2</v>
       </c>
       <c r="K138" t="n">
-        <v>-16.12903225806447</v>
+        <v>-23.80952380952371</v>
       </c>
       <c r="L138" t="n">
         <v>35.2</v>
@@ -7317,7 +7325,7 @@
         <v>10.2</v>
       </c>
       <c r="K139" t="n">
-        <v>-16.12903225806447</v>
+        <v>-23.80952380952371</v>
       </c>
       <c r="L139" t="n">
         <v>35.15000000000001</v>
@@ -7368,7 +7376,7 @@
         <v>10.3</v>
       </c>
       <c r="K140" t="n">
-        <v>-13.33333333333326</v>
+        <v>-27.27272727272722</v>
       </c>
       <c r="L140" t="n">
         <v>35.09</v>
@@ -7419,7 +7427,7 @@
         <v>10.3</v>
       </c>
       <c r="K141" t="n">
-        <v>-10.344827586207</v>
+        <v>-27.27272727272722</v>
       </c>
       <c r="L141" t="n">
         <v>35.03</v>
@@ -7470,7 +7478,7 @@
         <v>10.3</v>
       </c>
       <c r="K142" t="n">
-        <v>-10.344827586207</v>
+        <v>6.66666666666673</v>
       </c>
       <c r="L142" t="n">
         <v>34.97</v>
@@ -7521,7 +7529,7 @@
         <v>10.4</v>
       </c>
       <c r="K143" t="n">
-        <v>-6.66666666666673</v>
+        <v>-55.5555555555552</v>
       </c>
       <c r="L143" t="n">
         <v>34.98999999999999</v>
@@ -7572,7 +7580,7 @@
         <v>10.5</v>
       </c>
       <c r="K144" t="n">
-        <v>-6.66666666666673</v>
+        <v>0</v>
       </c>
       <c r="L144" t="n">
         <v>34.92999999999999</v>
@@ -7623,7 +7631,7 @@
         <v>10.5</v>
       </c>
       <c r="K145" t="n">
-        <v>-3.448275862068999</v>
+        <v>0</v>
       </c>
       <c r="L145" t="n">
         <v>34.92999999999999</v>
@@ -7674,7 +7682,7 @@
         <v>10.5</v>
       </c>
       <c r="K146" t="n">
-        <v>-3.448275862068999</v>
+        <v>0</v>
       </c>
       <c r="L146" t="n">
         <v>34.92999999999999</v>
@@ -7725,7 +7733,7 @@
         <v>10.5</v>
       </c>
       <c r="K147" t="n">
-        <v>-19.99999999999989</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L147" t="n">
         <v>34.92999999999999</v>
@@ -7776,7 +7784,7 @@
         <v>10.5</v>
       </c>
       <c r="K148" t="n">
-        <v>-19.99999999999989</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L148" t="n">
         <v>34.91999999999999</v>
@@ -7827,7 +7835,7 @@
         <v>10.5</v>
       </c>
       <c r="K149" t="n">
-        <v>-24.99999999999993</v>
+        <v>0</v>
       </c>
       <c r="L149" t="n">
         <v>34.90999999999999</v>
@@ -7878,7 +7886,7 @@
         <v>10.6</v>
       </c>
       <c r="K150" t="n">
-        <v>-19.99999999999989</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L150" t="n">
         <v>34.91999999999999</v>
@@ -7929,7 +7937,7 @@
         <v>10.7</v>
       </c>
       <c r="K151" t="n">
-        <v>-23.07692307692299</v>
+        <v>0</v>
       </c>
       <c r="L151" t="n">
         <v>34.91999999999999</v>
@@ -7980,7 +7988,7 @@
         <v>10.8</v>
       </c>
       <c r="K152" t="n">
-        <v>-25.92592592592587</v>
+        <v>-50</v>
       </c>
       <c r="L152" t="n">
         <v>34.91</v>
@@ -8031,7 +8039,7 @@
         <v>10.8</v>
       </c>
       <c r="K153" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L153" t="n">
         <v>34.89</v>
@@ -8082,7 +8090,7 @@
         <v>10.8</v>
       </c>
       <c r="K154" t="n">
-        <v>-53.8461538461536</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L154" t="n">
         <v>34.88</v>
@@ -8133,7 +8141,7 @@
         <v>10.9</v>
       </c>
       <c r="K155" t="n">
-        <v>-24.99999999999933</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L155" t="n">
         <v>34.86</v>
@@ -8184,7 +8192,7 @@
         <v>10.9</v>
       </c>
       <c r="K156" t="n">
-        <v>-24.99999999999933</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L156" t="n">
         <v>34.84</v>
@@ -8235,7 +8243,7 @@
         <v>10.9</v>
       </c>
       <c r="K157" t="n">
-        <v>-24.99999999999933</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L157" t="n">
         <v>34.82000000000001</v>
@@ -8286,7 +8294,7 @@
         <v>11.09999999999999</v>
       </c>
       <c r="K158" t="n">
-        <v>-11.11111111111129</v>
+        <v>0</v>
       </c>
       <c r="L158" t="n">
         <v>34.82000000000001</v>
@@ -8337,7 +8345,7 @@
         <v>11.29999999999999</v>
       </c>
       <c r="K159" t="n">
-        <v>-27.27272727272715</v>
+        <v>-42.85714285714315</v>
       </c>
       <c r="L159" t="n">
         <v>34.8</v>
@@ -8388,7 +8396,7 @@
         <v>11.29999999999999</v>
       </c>
       <c r="K160" t="n">
-        <v>-19.99999999999972</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L160" t="n">
         <v>34.77</v>
@@ -8439,7 +8447,7 @@
         <v>11.29999999999999</v>
       </c>
       <c r="K161" t="n">
-        <v>-19.99999999999972</v>
+        <v>-19.99999999999943</v>
       </c>
       <c r="L161" t="n">
         <v>34.75000000000001</v>
@@ -8490,7 +8498,7 @@
         <v>11.29999999999999</v>
       </c>
       <c r="K162" t="n">
-        <v>-19.99999999999972</v>
+        <v>-19.99999999999943</v>
       </c>
       <c r="L162" t="n">
         <v>34.74</v>
@@ -8541,7 +8549,7 @@
         <v>11.29999999999999</v>
       </c>
       <c r="K163" t="n">
-        <v>-33.33333333333333</v>
+        <v>-19.99999999999943</v>
       </c>
       <c r="L163" t="n">
         <v>34.73</v>
@@ -8592,7 +8600,7 @@
         <v>11.49999999999999</v>
       </c>
       <c r="K164" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L164" t="n">
         <v>34.73999999999999</v>
@@ -8643,7 +8651,7 @@
         <v>11.59999999999999</v>
       </c>
       <c r="K165" t="n">
-        <v>-9.090909090909326</v>
+        <v>14.28571428571371</v>
       </c>
       <c r="L165" t="n">
         <v>34.75</v>
@@ -8694,7 +8702,7 @@
         <v>11.59999999999999</v>
       </c>
       <c r="K166" t="n">
-        <v>-9.090909090909326</v>
+        <v>14.28571428571371</v>
       </c>
       <c r="L166" t="n">
         <v>34.76000000000001</v>
@@ -8745,7 +8753,7 @@
         <v>11.79999999999999</v>
       </c>
       <c r="K167" t="n">
-        <v>7.69230769230786</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L167" t="n">
         <v>34.79000000000001</v>
@@ -8796,7 +8804,7 @@
         <v>12.09999999999999</v>
       </c>
       <c r="K168" t="n">
-        <v>25.00000000000011</v>
+        <v>74.99999999999956</v>
       </c>
       <c r="L168" t="n">
         <v>34.83000000000001</v>
@@ -8847,7 +8855,7 @@
         <v>12.29999999999999</v>
       </c>
       <c r="K169" t="n">
-        <v>33.3333333333336</v>
+        <v>79.99999999999972</v>
       </c>
       <c r="L169" t="n">
         <v>34.91000000000001</v>
@@ -8898,7 +8906,7 @@
         <v>12.39999999999999</v>
       </c>
       <c r="K170" t="n">
-        <v>33.3333333333336</v>
+        <v>81.81818181818159</v>
       </c>
       <c r="L170" t="n">
         <v>35.00000000000001</v>
@@ -8949,7 +8957,7 @@
         <v>12.49999999999999</v>
       </c>
       <c r="K171" t="n">
-        <v>44.44444444444493</v>
+        <v>83.33333333333314</v>
       </c>
       <c r="L171" t="n">
         <v>35.10000000000001</v>
@@ -9000,7 +9008,7 @@
         <v>12.49999999999999</v>
       </c>
       <c r="K172" t="n">
-        <v>52.94117647058892</v>
+        <v>83.33333333333314</v>
       </c>
       <c r="L172" t="n">
         <v>35.20000000000001</v>
@@ -9051,7 +9059,7 @@
         <v>12.59999999999999</v>
       </c>
       <c r="K173" t="n">
-        <v>55.55555555555608</v>
+        <v>81.81818181818159</v>
       </c>
       <c r="L173" t="n">
         <v>35.31000000000002</v>
@@ -9102,7 +9110,7 @@
         <v>12.59999999999999</v>
       </c>
       <c r="K174" t="n">
-        <v>55.55555555555608</v>
+        <v>100</v>
       </c>
       <c r="L174" t="n">
         <v>35.40000000000002</v>
@@ -9153,7 +9161,7 @@
         <v>12.59999999999999</v>
       </c>
       <c r="K175" t="n">
-        <v>64.70588235294127</v>
+        <v>100</v>
       </c>
       <c r="L175" t="n">
         <v>35.50000000000001</v>
@@ -9204,7 +9212,7 @@
         <v>12.69999999999999</v>
       </c>
       <c r="K176" t="n">
-        <v>66.6666666666668</v>
+        <v>100</v>
       </c>
       <c r="L176" t="n">
         <v>35.61000000000001</v>
@@ -9255,7 +9263,7 @@
         <v>12.69999999999999</v>
       </c>
       <c r="K177" t="n">
-        <v>66.6666666666668</v>
+        <v>100</v>
       </c>
       <c r="L177" t="n">
         <v>35.70000000000001</v>
@@ -9306,7 +9314,7 @@
         <v>12.89999999999999</v>
       </c>
       <c r="K178" t="n">
-        <v>66.66666666666693</v>
+        <v>100</v>
       </c>
       <c r="L178" t="n">
         <v>35.78000000000002</v>
@@ -9357,7 +9365,7 @@
         <v>12.99999999999999</v>
       </c>
       <c r="K179" t="n">
-        <v>88.23529411764692</v>
+        <v>100</v>
       </c>
       <c r="L179" t="n">
         <v>35.85000000000001</v>
@@ -9408,7 +9416,7 @@
         <v>12.99999999999999</v>
       </c>
       <c r="K180" t="n">
-        <v>88.23529411764692</v>
+        <v>100</v>
       </c>
       <c r="L180" t="n">
         <v>35.91000000000001</v>
@@ -9459,7 +9467,7 @@
         <v>13.19999999999999</v>
       </c>
       <c r="K181" t="n">
-        <v>89.47368421052616</v>
+        <v>100</v>
       </c>
       <c r="L181" t="n">
         <v>35.98</v>
@@ -9510,7 +9518,7 @@
         <v>13.49999999999999</v>
       </c>
       <c r="K182" t="n">
-        <v>90.90909090909079</v>
+        <v>100</v>
       </c>
       <c r="L182" t="n">
         <v>36.08000000000001</v>
@@ -9561,7 +9569,7 @@
         <v>13.49999999999999</v>
       </c>
       <c r="K183" t="n">
-        <v>90.90909090909079</v>
+        <v>100</v>
       </c>
       <c r="L183" t="n">
         <v>36.17</v>
@@ -9612,7 +9620,7 @@
         <v>13.8</v>
       </c>
       <c r="K184" t="n">
-        <v>65.2173913043475</v>
+        <v>49.99999999999971</v>
       </c>
       <c r="L184" t="n">
         <v>36.23</v>
@@ -9663,7 +9671,7 @@
         <v>13.99999999999999</v>
       </c>
       <c r="K185" t="n">
-        <v>58.33333333333344</v>
+        <v>23.07692307692333</v>
       </c>
       <c r="L185" t="n">
         <v>36.27</v>
@@ -9714,7 +9722,7 @@
         <v>14.39999999999999</v>
       </c>
       <c r="K186" t="n">
-        <v>64.28571428571433</v>
+        <v>41.17647058823539</v>
       </c>
       <c r="L186" t="n">
         <v>36.34</v>
@@ -9765,7 +9773,7 @@
         <v>14.59999999999999</v>
       </c>
       <c r="K187" t="n">
-        <v>64.28571428571425</v>
+        <v>41.17647058823515</v>
       </c>
       <c r="L187" t="n">
         <v>36.43000000000001</v>
@@ -9816,7 +9824,7 @@
         <v>14.89999999999999</v>
       </c>
       <c r="K188" t="n">
-        <v>64.28571428571433</v>
+        <v>47.36842105263154</v>
       </c>
       <c r="L188" t="n">
         <v>36.53000000000001</v>
@@ -9867,7 +9875,7 @@
         <v>15.09999999999999</v>
       </c>
       <c r="K189" t="n">
-        <v>49.99999999999987</v>
+        <v>33.33333333333311</v>
       </c>
       <c r="L189" t="n">
         <v>36.60000000000001</v>
@@ -9918,7 +9926,7 @@
         <v>15.09999999999999</v>
       </c>
       <c r="K190" t="n">
-        <v>48.14814814814799</v>
+        <v>26.31578947368413</v>
       </c>
       <c r="L190" t="n">
         <v>36.67</v>
@@ -9969,7 +9977,7 @@
         <v>15.29999999999999</v>
       </c>
       <c r="K191" t="n">
-        <v>35.71428571428575</v>
+        <v>0</v>
       </c>
       <c r="L191" t="n">
         <v>36.7</v>
@@ -10020,7 +10028,7 @@
         <v>15.49999999999999</v>
       </c>
       <c r="K192" t="n">
-        <v>39.99999999999995</v>
+        <v>9.999999999999822</v>
       </c>
       <c r="L192" t="n">
         <v>36.72000000000001</v>
@@ -10071,7 +10079,7 @@
         <v>15.59999999999999</v>
       </c>
       <c r="K193" t="n">
-        <v>33.33333333333333</v>
+        <v>22.22222222222226</v>
       </c>
       <c r="L193" t="n">
         <v>36.73</v>
@@ -10122,7 +10130,7 @@
         <v>15.79999999999999</v>
       </c>
       <c r="K194" t="n">
-        <v>37.50000000000006</v>
+        <v>44.44444444444436</v>
       </c>
       <c r="L194" t="n">
         <v>36.79000000000001</v>
@@ -10173,7 +10181,7 @@
         <v>16.19999999999999</v>
       </c>
       <c r="K195" t="n">
-        <v>44.44444444444446</v>
+        <v>44.44444444444436</v>
       </c>
       <c r="L195" t="n">
         <v>36.91000000000001</v>
@@ -10224,7 +10232,7 @@
         <v>16.49999999999999</v>
       </c>
       <c r="K196" t="n">
-        <v>47.36842105263164</v>
+        <v>47.36842105263174</v>
       </c>
       <c r="L196" t="n">
         <v>37.02</v>
@@ -10275,7 +10283,7 @@
         <v>16.59999999999999</v>
       </c>
       <c r="K197" t="n">
-        <v>48.7179487179487</v>
+        <v>41.17647058823515</v>
       </c>
       <c r="L197" t="n">
         <v>37.12</v>
@@ -10326,7 +10334,7 @@
         <v>17.09999999999999</v>
       </c>
       <c r="K198" t="n">
-        <v>28.5714285714285</v>
+        <v>20</v>
       </c>
       <c r="L198" t="n">
         <v>37.14</v>
@@ -10377,7 +10385,7 @@
         <v>17.09999999999999</v>
       </c>
       <c r="K199" t="n">
-        <v>26.82926829268282</v>
+        <v>20</v>
       </c>
       <c r="L199" t="n">
         <v>37.18000000000001</v>
@@ -10428,7 +10436,7 @@
         <v>17.29999999999999</v>
       </c>
       <c r="K200" t="n">
-        <v>30.23255813953484</v>
+        <v>39.99999999999986</v>
       </c>
       <c r="L200" t="n">
         <v>37.24000000000001</v>
@@ -10479,7 +10487,7 @@
         <v>17.39999999999999</v>
       </c>
       <c r="K201" t="n">
-        <v>28.57142857142862</v>
+        <v>36.84210526315793</v>
       </c>
       <c r="L201" t="n">
         <v>37.33000000000001</v>
@@ -10530,7 +10538,7 @@
         <v>17.49999999999999</v>
       </c>
       <c r="K202" t="n">
-        <v>25</v>
+        <v>47.36842105263174</v>
       </c>
       <c r="L202" t="n">
         <v>37.41000000000001</v>
@@ -10581,7 +10589,7 @@
         <v>17.99999999999999</v>
       </c>
       <c r="K203" t="n">
-        <v>11.11111111111111</v>
+        <v>9.090909090909207</v>
       </c>
       <c r="L203" t="n">
         <v>37.45000000000001</v>
@@ -10632,7 +10640,7 @@
         <v>18.39999999999999</v>
       </c>
       <c r="K204" t="n">
-        <v>26.08695652173922</v>
+        <v>9.090909090909207</v>
       </c>
       <c r="L204" t="n">
         <v>37.51000000000001</v>
@@ -10683,7 +10691,7 @@
         <v>18.49999999999999</v>
       </c>
       <c r="K205" t="n">
-        <v>28.88888888888883</v>
+        <v>-10.00000000000014</v>
       </c>
       <c r="L205" t="n">
         <v>37.52000000000002</v>
@@ -10734,7 +10742,7 @@
         <v>19.39999999999999</v>
       </c>
       <c r="K206" t="n">
-        <v>0</v>
+        <v>-42.85714285714264</v>
       </c>
       <c r="L206" t="n">
         <v>37.41000000000002</v>
@@ -10785,7 +10793,7 @@
         <v>19.89999999999999</v>
       </c>
       <c r="K207" t="n">
-        <v>5.660377358490642</v>
+        <v>-7.14285714285698</v>
       </c>
       <c r="L207" t="n">
         <v>37.34000000000002</v>
@@ -10836,7 +10844,7 @@
         <v>20.39999999999999</v>
       </c>
       <c r="K208" t="n">
-        <v>-9.090909090909092</v>
+        <v>-21.21212121212105</v>
       </c>
       <c r="L208" t="n">
         <v>37.27000000000002</v>
@@ -10887,7 +10895,7 @@
         <v>20.69999999999999</v>
       </c>
       <c r="K209" t="n">
-        <v>0</v>
+        <v>-17.64705882352946</v>
       </c>
       <c r="L209" t="n">
         <v>37.23000000000002</v>
@@ -10938,7 +10946,7 @@
         <v>20.79999999999999</v>
       </c>
       <c r="K210" t="n">
-        <v>-1.754385964912307</v>
+        <v>-23.52941176470602</v>
       </c>
       <c r="L210" t="n">
         <v>37.16000000000002</v>
@@ -10989,7 +10997,7 @@
         <v>20.99999999999999</v>
       </c>
       <c r="K211" t="n">
-        <v>-1.754385964912307</v>
+        <v>-31.42857142857153</v>
       </c>
       <c r="L211" t="n">
         <v>37.06000000000002</v>
@@ -11040,7 +11048,7 @@
         <v>20.99999999999999</v>
       </c>
       <c r="K212" t="n">
-        <v>-5.454545454545403</v>
+        <v>-20.0000000000001</v>
       </c>
       <c r="L212" t="n">
         <v>36.95000000000002</v>
@@ -11091,7 +11099,7 @@
         <v>20.99999999999999</v>
       </c>
       <c r="K213" t="n">
-        <v>-3.703703703703626</v>
+        <v>-38.46153846153855</v>
       </c>
       <c r="L213" t="n">
         <v>36.89000000000003</v>
@@ -11142,7 +11150,7 @@
         <v>21.19999999999998</v>
       </c>
       <c r="K214" t="n">
-        <v>-3.703703703703762</v>
+        <v>-25.92592592592614</v>
       </c>
       <c r="L214" t="n">
         <v>36.81000000000002</v>
@@ -11193,7 +11201,7 @@
         <v>21.19999999999998</v>
       </c>
       <c r="K215" t="n">
-        <v>-12.00000000000005</v>
+        <v>11.11111111111093</v>
       </c>
       <c r="L215" t="n">
         <v>36.74000000000002</v>
@@ -11244,7 +11252,7 @@
         <v>21.89999999999998</v>
       </c>
       <c r="K216" t="n">
-        <v>-29.62962962962974</v>
+        <v>-50.00000000000036</v>
       </c>
       <c r="L216" t="n">
         <v>36.69000000000003</v>
@@ -11295,7 +11303,7 @@
         <v>21.89999999999998</v>
       </c>
       <c r="K217" t="n">
-        <v>-32.07547169811319</v>
+        <v>-33.33333333333365</v>
       </c>
       <c r="L217" t="n">
         <v>36.59000000000002</v>
@@ -11346,7 +11354,7 @@
         <v>21.99999999999998</v>
       </c>
       <c r="K218" t="n">
-        <v>-26.53061224489795</v>
+        <v>-69.23076923076965</v>
       </c>
       <c r="L218" t="n">
         <v>36.53000000000002</v>
@@ -11397,7 +11405,7 @@
         <v>22.49999999999998</v>
       </c>
       <c r="K219" t="n">
-        <v>-14.81481481481479</v>
+        <v>-17.64705882352936</v>
       </c>
       <c r="L219" t="n">
         <v>36.49000000000002</v>
@@ -11448,7 +11456,7 @@
         <v>22.49999999999998</v>
       </c>
       <c r="K220" t="n">
-        <v>-19.23076923076927</v>
+        <v>-6.666666666666793</v>
       </c>
       <c r="L220" t="n">
         <v>36.46000000000002</v>
@@ -11499,7 +11507,7 @@
         <v>22.49999999999998</v>
       </c>
       <c r="K221" t="n">
-        <v>-21.56862745098048</v>
+        <v>-6.666666666666793</v>
       </c>
       <c r="L221" t="n">
         <v>36.45000000000002</v>
@@ -11550,7 +11558,7 @@
         <v>22.49999999999998</v>
       </c>
       <c r="K222" t="n">
-        <v>-24.00000000000012</v>
+        <v>-6.666666666666793</v>
       </c>
       <c r="L222" t="n">
         <v>36.44000000000002</v>
@@ -11601,7 +11609,7 @@
         <v>22.59999999999998</v>
       </c>
       <c r="K223" t="n">
-        <v>-17.39130434782623</v>
+        <v>-28.5714285714285</v>
       </c>
       <c r="L223" t="n">
         <v>36.42000000000002</v>
@@ -11652,7 +11660,7 @@
         <v>22.69999999999998</v>
       </c>
       <c r="K224" t="n">
-        <v>-25.5813953488373</v>
+        <v>-19.99999999999981</v>
       </c>
       <c r="L224" t="n">
         <v>36.39000000000001</v>
@@ -11703,7 +11711,7 @@
         <v>22.89999999999998</v>
       </c>
       <c r="K225" t="n">
-        <v>-27.27272727272739</v>
+        <v>19.99999999999943</v>
       </c>
       <c r="L225" t="n">
         <v>36.34000000000002</v>
@@ -11754,7 +11762,7 @@
         <v>22.99999999999998</v>
       </c>
       <c r="K226" t="n">
-        <v>-11.11111111111111</v>
+        <v>9.090909090909207</v>
       </c>
       <c r="L226" t="n">
         <v>36.35000000000001</v>
@@ -11805,7 +11813,7 @@
         <v>22.99999999999998</v>
       </c>
       <c r="K227" t="n">
-        <v>-29.0322580645162</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L227" t="n">
         <v>36.36000000000001</v>
@@ -11856,7 +11864,7 @@
         <v>23.19999999999997</v>
       </c>
       <c r="K228" t="n">
-        <v>-7.142857142857288</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L228" t="n">
         <v>36.40000000000001</v>
@@ -11907,7 +11915,7 @@
         <v>23.49999999999997</v>
       </c>
       <c r="K229" t="n">
-        <v>-28.57142857142864</v>
+        <v>-40.00000000000014</v>
       </c>
       <c r="L229" t="n">
         <v>36.36000000000001</v>
@@ -11958,7 +11966,7 @@
         <v>23.49999999999997</v>
       </c>
       <c r="K230" t="n">
-        <v>-25.92592592592595</v>
+        <v>-40.00000000000014</v>
       </c>
       <c r="L230" t="n">
         <v>36.32000000000001</v>
@@ -12009,7 +12017,7 @@
         <v>23.79999999999997</v>
       </c>
       <c r="K231" t="n">
-        <v>-7.142857142857288</v>
+        <v>-7.69230769230786</v>
       </c>
       <c r="L231" t="n">
         <v>36.31000000000001</v>
@@ -12060,7 +12068,7 @@
         <v>23.79999999999997</v>
       </c>
       <c r="K232" t="n">
-        <v>-7.142857142857288</v>
+        <v>0</v>
       </c>
       <c r="L232" t="n">
         <v>36.3</v>
@@ -12111,7 +12119,7 @@
         <v>23.79999999999997</v>
       </c>
       <c r="K233" t="n">
-        <v>-7.142857142857288</v>
+        <v>-9.090909090909326</v>
       </c>
       <c r="L233" t="n">
         <v>36.3</v>
@@ -12162,7 +12170,7 @@
         <v>24.19999999999997</v>
       </c>
       <c r="K234" t="n">
-        <v>-26.6666666666667</v>
+        <v>-23.07692307692316</v>
       </c>
       <c r="L234" t="n">
         <v>36.25000000000001</v>
@@ -12213,7 +12221,7 @@
         <v>24.39999999999997</v>
       </c>
       <c r="K235" t="n">
-        <v>-18.74999999999989</v>
+        <v>0</v>
       </c>
       <c r="L235" t="n">
         <v>36.24</v>
@@ -12264,7 +12272,7 @@
         <v>24.49999999999996</v>
       </c>
       <c r="K236" t="n">
-        <v>7.692307692307566</v>
+        <v>6.666666666666352</v>
       </c>
       <c r="L236" t="n">
         <v>36.25000000000001</v>
@@ -12315,7 +12323,7 @@
         <v>24.59999999999997</v>
       </c>
       <c r="K237" t="n">
-        <v>11.11111111111105</v>
+        <v>0</v>
       </c>
       <c r="L237" t="n">
         <v>36.27</v>
@@ -12366,7 +12374,7 @@
         <v>24.69999999999997</v>
       </c>
       <c r="K238" t="n">
-        <v>11.11111111111105</v>
+        <v>16.66666666666637</v>
       </c>
       <c r="L238" t="n">
         <v>36.26000000000001</v>
@@ -12417,7 +12425,7 @@
         <v>24.79999999999996</v>
       </c>
       <c r="K239" t="n">
-        <v>-13.04347826086954</v>
+        <v>7.69230769230786</v>
       </c>
       <c r="L239" t="n">
         <v>36.27</v>
@@ -12468,7 +12476,7 @@
         <v>24.99999999999996</v>
       </c>
       <c r="K240" t="n">
-        <v>-4.000000000000091</v>
+        <v>0</v>
       </c>
       <c r="L240" t="n">
         <v>36.3</v>
@@ -12519,7 +12527,7 @@
         <v>25.19999999999995</v>
       </c>
       <c r="K241" t="n">
-        <v>-11.11111111111111</v>
+        <v>-14.28571428571414</v>
       </c>
       <c r="L241" t="n">
         <v>36.28</v>
@@ -12570,7 +12578,7 @@
         <v>25.69999999999995</v>
       </c>
       <c r="K242" t="n">
-        <v>6.250000000000139</v>
+        <v>15.78947368421088</v>
       </c>
       <c r="L242" t="n">
         <v>36.31</v>
@@ -12621,7 +12629,7 @@
         <v>26.09999999999996</v>
       </c>
       <c r="K243" t="n">
-        <v>-2.857142857142915</v>
+        <v>15.78947368421045</v>
       </c>
       <c r="L243" t="n">
         <v>36.3</v>
@@ -12672,7 +12680,7 @@
         <v>26.39999999999996</v>
       </c>
       <c r="K244" t="n">
-        <v>2.702702702702755</v>
+        <v>20</v>
       </c>
       <c r="L244" t="n">
         <v>36.36000000000001</v>
@@ -12723,7 +12731,7 @@
         <v>26.59999999999996</v>
       </c>
       <c r="K245" t="n">
-        <v>13.51351351351361</v>
+        <v>23.80952380952387</v>
       </c>
       <c r="L245" t="n">
         <v>36.42000000000001</v>
@@ -12774,7 +12782,7 @@
         <v>26.69999999999995</v>
       </c>
       <c r="K246" t="n">
-        <v>13.51351351351361</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L246" t="n">
         <v>36.46000000000001</v>
@@ -12825,7 +12833,7 @@
         <v>26.69999999999995</v>
       </c>
       <c r="K247" t="n">
-        <v>13.51351351351361</v>
+        <v>20.00000000000043</v>
       </c>
       <c r="L247" t="n">
         <v>36.49000000000001</v>
@@ -12876,7 +12884,7 @@
         <v>26.69999999999995</v>
       </c>
       <c r="K248" t="n">
-        <v>8.571428571428745</v>
+        <v>26.31578947368433</v>
       </c>
       <c r="L248" t="n">
         <v>36.53000000000001</v>
@@ -12927,7 +12935,7 @@
         <v>26.79999999999995</v>
       </c>
       <c r="K249" t="n">
-        <v>21.21212121212124</v>
+        <v>22.22222222222226</v>
       </c>
       <c r="L249" t="n">
         <v>36.59000000000001</v>
@@ -12978,7 +12986,7 @@
         <v>26.79999999999995</v>
       </c>
       <c r="K250" t="n">
-        <v>21.21212121212124</v>
+        <v>37.49999999999978</v>
       </c>
       <c r="L250" t="n">
         <v>36.63000000000001</v>
@@ -13029,7 +13037,7 @@
         <v>26.89999999999994</v>
       </c>
       <c r="K251" t="n">
-        <v>9.677419354838932</v>
+        <v>0</v>
       </c>
       <c r="L251" t="n">
         <v>36.68000000000001</v>
@@ -13080,7 +13088,7 @@
         <v>27.09999999999994</v>
       </c>
       <c r="K252" t="n">
-        <v>3.030303030303096</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L252" t="n">
         <v>36.66000000000001</v>
@@ -13131,7 +13139,7 @@
         <v>27.29999999999995</v>
       </c>
       <c r="K253" t="n">
-        <v>-2.857142857142915</v>
+        <v>-33.33333333333439</v>
       </c>
       <c r="L253" t="n">
         <v>36.66000000000001</v>
@@ -13182,7 +13190,7 @@
         <v>27.29999999999995</v>
       </c>
       <c r="K254" t="n">
-        <v>9.67741935483868</v>
+        <v>-71.42857142857258</v>
       </c>
       <c r="L254" t="n">
         <v>36.63000000000001</v>
@@ -13233,7 +13241,7 @@
         <v>27.29999999999995</v>
       </c>
       <c r="K255" t="n">
-        <v>3.448275862068797</v>
+        <v>-66.66666666666825</v>
       </c>
       <c r="L255" t="n">
         <v>36.58000000000001</v>
@@ -13284,7 +13292,7 @@
         <v>27.29999999999995</v>
       </c>
       <c r="K256" t="n">
-        <v>0</v>
+        <v>-66.66666666666825</v>
       </c>
       <c r="L256" t="n">
         <v>36.54000000000001</v>
@@ -13335,7 +13343,7 @@
         <v>27.29999999999995</v>
       </c>
       <c r="K257" t="n">
-        <v>-3.703703703703782</v>
+        <v>-66.66666666666825</v>
       </c>
       <c r="L257" t="n">
         <v>36.50000000000001</v>
@@ -13386,7 +13394,7 @@
         <v>27.29999999999995</v>
       </c>
       <c r="K258" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L258" t="n">
         <v>36.46000000000002</v>
@@ -13437,7 +13445,7 @@
         <v>27.39999999999994</v>
       </c>
       <c r="K259" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L259" t="n">
         <v>36.40000000000002</v>
@@ -13488,7 +13496,7 @@
         <v>27.39999999999994</v>
       </c>
       <c r="K260" t="n">
-        <v>-8.33333333333321</v>
+        <v>-100</v>
       </c>
       <c r="L260" t="n">
         <v>36.34000000000002</v>
@@ -13539,7 +13547,7 @@
         <v>27.39999999999994</v>
       </c>
       <c r="K261" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L261" t="n">
         <v>36.29000000000001</v>
@@ -13590,7 +13598,7 @@
         <v>27.39999999999994</v>
       </c>
       <c r="K262" t="n">
-        <v>-29.41176470588255</v>
+        <v>-100</v>
       </c>
       <c r="L262" t="n">
         <v>36.26000000000001</v>
@@ -13692,7 +13700,7 @@
         <v>27.59999999999993</v>
       </c>
       <c r="K264" t="n">
-        <v>-33.33333333333412</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L264" t="n">
         <v>36.25000000000001</v>
@@ -13743,7 +13751,7 @@
         <v>27.59999999999993</v>
       </c>
       <c r="K265" t="n">
-        <v>-60.00000000000114</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L265" t="n">
         <v>36.24000000000001</v>
@@ -13794,7 +13802,7 @@
         <v>27.99999999999993</v>
       </c>
       <c r="K266" t="n">
-        <v>-7.692307692307944</v>
+        <v>42.85714285714459</v>
       </c>
       <c r="L266" t="n">
         <v>36.27000000000001</v>
@@ -13845,7 +13853,7 @@
         <v>28.29999999999993</v>
       </c>
       <c r="K267" t="n">
-        <v>-25.00000000000067</v>
+        <v>0</v>
       </c>
       <c r="L267" t="n">
         <v>36.27000000000001</v>
@@ -13896,7 +13904,7 @@
         <v>28.69999999999994</v>
       </c>
       <c r="K268" t="n">
-        <v>0</v>
+        <v>38.46153846153855</v>
       </c>
       <c r="L268" t="n">
         <v>36.31000000000001</v>
@@ -13947,7 +13955,7 @@
         <v>28.69999999999994</v>
       </c>
       <c r="K269" t="n">
-        <v>-5.263157894736566</v>
+        <v>38.46153846153855</v>
       </c>
       <c r="L269" t="n">
         <v>36.36000000000001</v>
@@ -13998,7 +14006,7 @@
         <v>28.79999999999993</v>
       </c>
       <c r="K270" t="n">
-        <v>0</v>
+        <v>42.85714285714271</v>
       </c>
       <c r="L270" t="n">
         <v>36.42000000000001</v>
@@ -14049,7 +14057,7 @@
         <v>28.89999999999993</v>
       </c>
       <c r="K271" t="n">
-        <v>0</v>
+        <v>33.33333333333365</v>
       </c>
       <c r="L271" t="n">
         <v>36.47000000000001</v>
@@ -14100,7 +14108,7 @@
         <v>29.09999999999992</v>
       </c>
       <c r="K272" t="n">
-        <v>20.00000000000014</v>
+        <v>37.50000000000039</v>
       </c>
       <c r="L272" t="n">
         <v>36.54000000000001</v>
@@ -14151,7 +14159,7 @@
         <v>29.09999999999992</v>
       </c>
       <c r="K273" t="n">
-        <v>33.33333333333386</v>
+        <v>46.6666666666666</v>
       </c>
       <c r="L273" t="n">
         <v>36.60000000000001</v>
@@ -14202,7 +14210,7 @@
         <v>29.19999999999992</v>
       </c>
       <c r="K274" t="n">
-        <v>26.31578947368453</v>
+        <v>37.49999999999978</v>
       </c>
       <c r="L274" t="n">
         <v>36.66000000000001</v>
@@ -14253,7 +14261,7 @@
         <v>29.29999999999993</v>
       </c>
       <c r="K275" t="n">
-        <v>30.00000000000039</v>
+        <v>23.07692307692291</v>
       </c>
       <c r="L275" t="n">
         <v>36.73</v>
@@ -14304,7 +14312,7 @@
         <v>29.49999999999992</v>
       </c>
       <c r="K276" t="n">
-        <v>18.18181818181865</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L276" t="n">
         <v>36.74</v>
@@ -14355,7 +14363,7 @@
         <v>29.49999999999992</v>
       </c>
       <c r="K277" t="n">
-        <v>18.18181818181865</v>
+        <v>0</v>
       </c>
       <c r="L277" t="n">
         <v>36.78</v>
@@ -14406,7 +14414,7 @@
         <v>29.49999999999992</v>
       </c>
       <c r="K278" t="n">
-        <v>18.18181818181865</v>
+        <v>0</v>
       </c>
       <c r="L278" t="n">
         <v>36.78</v>
@@ -14457,7 +14465,7 @@
         <v>29.49999999999992</v>
       </c>
       <c r="K279" t="n">
-        <v>23.80952380952404</v>
+        <v>-14.28571428571371</v>
       </c>
       <c r="L279" t="n">
         <v>36.78</v>
@@ -14508,7 +14516,7 @@
         <v>29.69999999999992</v>
       </c>
       <c r="K280" t="n">
-        <v>30.43478260869579</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="L280" t="n">
         <v>36.79</v>
@@ -14559,7 +14567,7 @@
         <v>29.89999999999991</v>
       </c>
       <c r="K281" t="n">
-        <v>20.00000000000023</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L281" t="n">
         <v>36.79</v>
@@ -14610,7 +14618,7 @@
         <v>29.89999999999991</v>
       </c>
       <c r="K282" t="n">
-        <v>20.00000000000023</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L282" t="n">
         <v>36.77</v>
@@ -14661,7 +14669,7 @@
         <v>30.09999999999991</v>
       </c>
       <c r="K283" t="n">
-        <v>23.07692307692337</v>
+        <v>11.11111111111146</v>
       </c>
       <c r="L283" t="n">
         <v>36.77</v>
@@ -14712,7 +14720,7 @@
         <v>30.09999999999991</v>
       </c>
       <c r="K284" t="n">
-        <v>28.00000000000007</v>
+        <v>0</v>
       </c>
       <c r="L284" t="n">
         <v>36.77999999999999</v>
@@ -14763,7 +14771,7 @@
         <v>30.2999999999999</v>
       </c>
       <c r="K285" t="n">
-        <v>18.5185185185187</v>
+        <v>0</v>
       </c>
       <c r="L285" t="n">
         <v>36.76</v>
@@ -14814,7 +14822,7 @@
         <v>30.3999999999999</v>
       </c>
       <c r="K286" t="n">
-        <v>8.333333333333259</v>
+        <v>11.11111111111076</v>
       </c>
       <c r="L286" t="n">
         <v>36.77</v>
@@ -14865,7 +14873,7 @@
         <v>30.3999999999999</v>
       </c>
       <c r="K287" t="n">
-        <v>23.8095238095242</v>
+        <v>11.11111111111076</v>
       </c>
       <c r="L287" t="n">
         <v>36.78</v>
@@ -14916,7 +14924,7 @@
         <v>30.4999999999999</v>
       </c>
       <c r="K288" t="n">
-        <v>11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L288" t="n">
         <v>36.8</v>
@@ -14967,7 +14975,7 @@
         <v>30.5999999999999</v>
       </c>
       <c r="K289" t="n">
-        <v>15.78947368421068</v>
+        <v>11.11111111111146</v>
       </c>
       <c r="L289" t="n">
         <v>36.83</v>
@@ -15018,7 +15026,7 @@
         <v>30.5999999999999</v>
       </c>
       <c r="K290" t="n">
-        <v>11.11111111111146</v>
+        <v>42.85714285714315</v>
       </c>
       <c r="L290" t="n">
         <v>36.84</v>
@@ -15069,7 +15077,7 @@
         <v>30.7999999999999</v>
       </c>
       <c r="K291" t="n">
-        <v>5.263157894736606</v>
+        <v>11.11111111111058</v>
       </c>
       <c r="L291" t="n">
         <v>36.85000000000001</v>
@@ -15120,7 +15128,7 @@
         <v>30.7999999999999</v>
       </c>
       <c r="K292" t="n">
-        <v>-5.882352941176618</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L292" t="n">
         <v>36.86000000000001</v>
@@ -15171,7 +15179,7 @@
         <v>30.8999999999999</v>
       </c>
       <c r="K293" t="n">
-        <v>-11.11111111111102</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L293" t="n">
         <v>36.84000000000001</v>
@@ -15222,7 +15230,7 @@
         <v>30.8999999999999</v>
       </c>
       <c r="K294" t="n">
-        <v>-5.882352941176225</v>
+        <v>0</v>
       </c>
       <c r="L294" t="n">
         <v>36.82000000000001</v>
@@ -15273,7 +15281,7 @@
         <v>31.09999999999989</v>
       </c>
       <c r="K295" t="n">
-        <v>0</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L295" t="n">
         <v>36.84000000000001</v>
@@ -15324,7 +15332,7 @@
         <v>31.29999999999989</v>
       </c>
       <c r="K296" t="n">
-        <v>0</v>
+        <v>-11.11111111111058</v>
       </c>
       <c r="L296" t="n">
         <v>36.83000000000001</v>
@@ -15375,7 +15383,7 @@
         <v>31.39999999999988</v>
       </c>
       <c r="K297" t="n">
-        <v>5.263157894736645</v>
+        <v>-11.11111111111146</v>
       </c>
       <c r="L297" t="n">
         <v>36.83000000000001</v>
@@ -15426,7 +15434,7 @@
         <v>31.49999999999988</v>
       </c>
       <c r="K298" t="n">
-        <v>0</v>
+        <v>-33.33333333333386</v>
       </c>
       <c r="L298" t="n">
         <v>36.81000000000001</v>
@@ -15477,7 +15485,7 @@
         <v>31.49999999999988</v>
       </c>
       <c r="K299" t="n">
-        <v>0</v>
+        <v>-33.33333333333386</v>
       </c>
       <c r="L299" t="n">
         <v>36.78000000000001</v>
@@ -15528,7 +15536,7 @@
         <v>31.69999999999987</v>
       </c>
       <c r="K300" t="n">
-        <v>0</v>
+        <v>11.11111111111164</v>
       </c>
       <c r="L300" t="n">
         <v>36.77</v>
@@ -15579,7 +15587,7 @@
         <v>32.09999999999987</v>
       </c>
       <c r="K301" t="n">
-        <v>-9.090909090909385</v>
+        <v>-23.07692307692341</v>
       </c>
       <c r="L301" t="n">
         <v>36.74</v>
@@ -15630,7 +15638,7 @@
         <v>32.19999999999987</v>
       </c>
       <c r="K302" t="n">
-        <v>-4.347826086956657</v>
+        <v>-7.692307692307944</v>
       </c>
       <c r="L302" t="n">
         <v>36.72000000000001</v>
@@ -15681,7 +15689,7 @@
         <v>32.59999999999987</v>
       </c>
       <c r="K303" t="n">
-        <v>4.000000000000114</v>
+        <v>17.64705882352951</v>
       </c>
       <c r="L303" t="n">
         <v>36.75000000000001</v>
@@ -15783,7 +15791,7 @@
         <v>32.79999999999988</v>
       </c>
       <c r="K305" t="n">
-        <v>3.999999999999818</v>
+        <v>6.666666666666352</v>
       </c>
       <c r="L305" t="n">
         <v>36.76000000000001</v>
@@ -15834,7 +15842,7 @@
         <v>32.99999999999988</v>
       </c>
       <c r="K306" t="n">
-        <v>7.69230769230786</v>
+        <v>12.50000000000022</v>
       </c>
       <c r="L306" t="n">
         <v>36.79000000000001</v>
@@ -15885,7 +15893,7 @@
         <v>33.29999999999988</v>
       </c>
       <c r="K307" t="n">
-        <v>-3.448275862068797</v>
+        <v>0</v>
       </c>
       <c r="L307" t="n">
         <v>36.78000000000001</v>
@@ -15936,7 +15944,7 @@
         <v>33.59999999999987</v>
       </c>
       <c r="K308" t="n">
-        <v>3.225806451612977</v>
+        <v>14.28571428571419</v>
       </c>
       <c r="L308" t="n">
         <v>36.81000000000001</v>
@@ -15987,7 +15995,7 @@
         <v>33.89999999999987</v>
       </c>
       <c r="K309" t="n">
-        <v>-9.090909090909092</v>
+        <v>-9.090909090908914</v>
       </c>
       <c r="L309" t="n">
         <v>36.81000000000001</v>
@@ -16038,7 +16046,7 @@
         <v>33.89999999999987</v>
       </c>
       <c r="K310" t="n">
-        <v>-9.090909090909092</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L310" t="n">
         <v>36.79000000000001</v>
@@ -16089,7 +16097,7 @@
         <v>34.09999999999987</v>
       </c>
       <c r="K311" t="n">
-        <v>3.030303030303108</v>
+        <v>15.78947368421045</v>
       </c>
       <c r="L311" t="n">
         <v>36.83000000000001</v>
@@ -16140,7 +16148,7 @@
         <v>34.29999999999986</v>
       </c>
       <c r="K312" t="n">
-        <v>-2.857142857142729</v>
+        <v>-17.64705882352936</v>
       </c>
       <c r="L312" t="n">
         <v>36.84</v>
@@ -16191,7 +16199,7 @@
         <v>34.49999999999986</v>
       </c>
       <c r="K313" t="n">
-        <v>-5.555555555555687</v>
+        <v>-22.22222222222226</v>
       </c>
       <c r="L313" t="n">
         <v>36.79000000000001</v>
@@ -16242,7 +16250,7 @@
         <v>34.69999999999987</v>
       </c>
       <c r="K314" t="n">
-        <v>0</v>
+        <v>-5.263157894736566</v>
       </c>
       <c r="L314" t="n">
         <v>36.77</v>
@@ -16293,7 +16301,7 @@
         <v>34.79999999999987</v>
       </c>
       <c r="K315" t="n">
-        <v>-8.108108108108087</v>
+        <v>-22.22222222222226</v>
       </c>
       <c r="L315" t="n">
         <v>36.75000000000001</v>
@@ -16344,7 +16352,7 @@
         <v>34.99999999999987</v>
       </c>
       <c r="K316" t="n">
-        <v>-8.108108108108263</v>
+        <v>-17.64705882352971</v>
       </c>
       <c r="L316" t="n">
         <v>36.69</v>
@@ -16395,7 +16403,7 @@
         <v>35.19999999999987</v>
       </c>
       <c r="K317" t="n">
-        <v>-15.78947368421045</v>
+        <v>-50</v>
       </c>
       <c r="L317" t="n">
         <v>36.64</v>
@@ -16446,7 +16454,7 @@
         <v>35.49999999999986</v>
       </c>
       <c r="K318" t="n">
-        <v>-5.000000000000089</v>
+        <v>-12.50000000000022</v>
       </c>
       <c r="L318" t="n">
         <v>36.59</v>
@@ -16497,7 +16505,7 @@
         <v>35.59999999999987</v>
       </c>
       <c r="K319" t="n">
-        <v>-7.317073170731835</v>
+        <v>-17.64705882352971</v>
       </c>
       <c r="L319" t="n">
         <v>36.56</v>
@@ -16548,7 +16556,7 @@
         <v>35.79999999999986</v>
       </c>
       <c r="K320" t="n">
-        <v>-17.07317073170726</v>
+        <v>-41.17647058823515</v>
       </c>
       <c r="L320" t="n">
         <v>36.51000000000001</v>
@@ -16599,7 +16607,7 @@
         <v>35.99999999999986</v>
       </c>
       <c r="K321" t="n">
-        <v>-2.564102564102611</v>
+        <v>-17.64705882352971</v>
       </c>
       <c r="L321" t="n">
         <v>36.46</v>
@@ -16650,7 +16658,7 @@
         <v>35.99999999999986</v>
       </c>
       <c r="K322" t="n">
-        <v>-5.26315789473694</v>
+        <v>-6.666666666666793</v>
       </c>
       <c r="L322" t="n">
         <v>36.43</v>
@@ -16701,7 +16709,7 @@
         <v>35.99999999999986</v>
       </c>
       <c r="K323" t="n">
-        <v>-17.64705882352953</v>
+        <v>-23.07692307692358</v>
       </c>
       <c r="L323" t="n">
         <v>36.42</v>
@@ -16752,7 +16760,7 @@
         <v>35.99999999999986</v>
       </c>
       <c r="K324" t="n">
-        <v>-15.15151515151523</v>
+        <v>-16.66666666666706</v>
       </c>
       <c r="L324" t="n">
         <v>36.39</v>
@@ -16803,7 +16811,7 @@
         <v>36.09999999999986</v>
       </c>
       <c r="K325" t="n">
-        <v>-9.090909090909053</v>
+        <v>9.090909090909326</v>
       </c>
       <c r="L325" t="n">
         <v>36.38</v>
@@ -16854,7 +16862,7 @@
         <v>36.29999999999986</v>
       </c>
       <c r="K326" t="n">
-        <v>-9.090909090909053</v>
+        <v>45.45454545454569</v>
       </c>
       <c r="L326" t="n">
         <v>36.41</v>
@@ -16905,7 +16913,7 @@
         <v>36.69999999999987</v>
       </c>
       <c r="K327" t="n">
-        <v>-11.76470588235314</v>
+        <v>-16.66666666666686</v>
       </c>
       <c r="L327" t="n">
         <v>36.42</v>
@@ -16956,7 +16964,7 @@
         <v>37.19999999999987</v>
       </c>
       <c r="K328" t="n">
-        <v>-5.555555555555643</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L328" t="n">
         <v>36.45</v>
@@ -17007,7 +17015,7 @@
         <v>37.19999999999987</v>
       </c>
       <c r="K329" t="n">
-        <v>3.030303030302861</v>
+        <v>42.85714285714228</v>
       </c>
       <c r="L329" t="n">
         <v>36.49</v>
@@ -17058,7 +17066,7 @@
         <v>37.49999999999986</v>
       </c>
       <c r="K330" t="n">
-        <v>-5.555555555555643</v>
+        <v>6.66666666666673</v>
       </c>
       <c r="L330" t="n">
         <v>36.52</v>
@@ -17109,7 +17117,7 @@
         <v>37.69999999999987</v>
       </c>
       <c r="K331" t="n">
-        <v>-5.555555555555435</v>
+        <v>17.64705882352956</v>
       </c>
       <c r="L331" t="n">
         <v>36.55</v>
@@ -17160,7 +17168,7 @@
         <v>37.69999999999987</v>
       </c>
       <c r="K332" t="n">
-        <v>0</v>
+        <v>17.64705882352956</v>
       </c>
       <c r="L332" t="n">
         <v>36.58000000000001</v>
@@ -17211,7 +17219,7 @@
         <v>37.69999999999987</v>
       </c>
       <c r="K333" t="n">
-        <v>6.250000000000083</v>
+        <v>17.64705882352956</v>
       </c>
       <c r="L333" t="n">
         <v>36.61000000000001</v>
@@ -17262,7 +17270,7 @@
         <v>37.99999999999987</v>
       </c>
       <c r="K334" t="n">
-        <v>-9.090909090909207</v>
+        <v>-5.263157894736882</v>
       </c>
       <c r="L334" t="n">
         <v>36.61000000000001</v>
@@ -17313,7 +17321,7 @@
         <v>38.29999999999988</v>
       </c>
       <c r="K335" t="n">
-        <v>2.857142857142892</v>
+        <v>0</v>
       </c>
       <c r="L335" t="n">
         <v>36.63000000000001</v>
@@ -17364,7 +17372,7 @@
         <v>38.59999999999988</v>
       </c>
       <c r="K336" t="n">
-        <v>0</v>
+        <v>5.263157894736882</v>
       </c>
       <c r="L336" t="n">
         <v>36.60000000000001</v>
@@ -17415,7 +17423,7 @@
         <v>38.59999999999988</v>
       </c>
       <c r="K337" t="n">
-        <v>5.882352941176324</v>
+        <v>-28.57142857142821</v>
       </c>
       <c r="L337" t="n">
         <v>36.61</v>
@@ -17466,7 +17474,7 @@
         <v>38.69999999999988</v>
       </c>
       <c r="K338" t="n">
-        <v>-6.250000000000055</v>
+        <v>-33.33333333333302</v>
       </c>
       <c r="L338" t="n">
         <v>36.56</v>
@@ -17517,7 +17525,7 @@
         <v>38.79999999999988</v>
       </c>
       <c r="K339" t="n">
-        <v>-6.249999999999847</v>
+        <v>-23.07692307692266</v>
       </c>
       <c r="L339" t="n">
         <v>36.5</v>

--- a/BackTest/2019-11-12 BackTest HDAC.xlsx
+++ b/BackTest/2019-11-12 BackTest HDAC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M318"/>
+  <dimension ref="A1:M319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>34.4</v>
       </c>
       <c r="F2" t="n">
-        <v>84025.69899999999</v>
+        <v>52.6648</v>
       </c>
       <c r="G2" t="n">
-        <v>34.35333333333338</v>
+        <v>34.35166666666672</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>34.4</v>
       </c>
       <c r="F3" t="n">
-        <v>144.999</v>
+        <v>84025.69899999999</v>
       </c>
       <c r="G3" t="n">
-        <v>34.35500000000005</v>
+        <v>34.35333333333338</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>34.4</v>
       </c>
       <c r="F4" t="n">
-        <v>56.655</v>
+        <v>144.999</v>
       </c>
       <c r="G4" t="n">
-        <v>34.35666666666671</v>
+        <v>34.35500000000005</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>34.4</v>
       </c>
       <c r="F5" t="n">
-        <v>172.0655</v>
+        <v>56.655</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36500000000004</v>
+        <v>34.35666666666671</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>34.4</v>
       </c>
       <c r="F6" t="n">
-        <v>144.1538</v>
+        <v>172.0655</v>
       </c>
       <c r="G6" t="n">
-        <v>34.36666666666671</v>
+        <v>34.36500000000004</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -611,19 +611,19 @@
         <v>34.4</v>
       </c>
       <c r="C7" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="D7" t="n">
-        <v>34.6</v>
+        <v>34.4</v>
       </c>
       <c r="E7" t="n">
         <v>34.4</v>
       </c>
       <c r="F7" t="n">
-        <v>13243.5876</v>
+        <v>144.1538</v>
       </c>
       <c r="G7" t="n">
-        <v>34.37500000000004</v>
+        <v>34.36666666666671</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,7 +643,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="C8" t="n">
         <v>34.5</v>
@@ -652,13 +652,13 @@
         <v>34.6</v>
       </c>
       <c r="E8" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="F8" t="n">
-        <v>11907.3625</v>
+        <v>13243.5876</v>
       </c>
       <c r="G8" t="n">
-        <v>34.37833333333337</v>
+        <v>34.37500000000004</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -681,7 +681,7 @@
         <v>34.5</v>
       </c>
       <c r="C9" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="D9" t="n">
         <v>34.6</v>
@@ -690,10 +690,10 @@
         <v>34.5</v>
       </c>
       <c r="F9" t="n">
-        <v>5380.952</v>
+        <v>11907.3625</v>
       </c>
       <c r="G9" t="n">
-        <v>34.38666666666671</v>
+        <v>34.37833333333337</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>34.5</v>
       </c>
       <c r="C10" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="D10" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="E10" t="n">
         <v>34.5</v>
       </c>
       <c r="F10" t="n">
-        <v>19.996</v>
+        <v>5380.952</v>
       </c>
       <c r="G10" t="n">
-        <v>34.39333333333338</v>
+        <v>34.38666666666671</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>34.5</v>
       </c>
       <c r="F11" t="n">
-        <v>113.3017</v>
+        <v>19.996</v>
       </c>
       <c r="G11" t="n">
-        <v>34.39666666666671</v>
+        <v>34.39333333333338</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>34.5</v>
       </c>
       <c r="F12" t="n">
-        <v>36.6358</v>
+        <v>113.3017</v>
       </c>
       <c r="G12" t="n">
-        <v>34.40333333333338</v>
+        <v>34.39666666666671</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,19 +830,23 @@
         <v>34.5</v>
       </c>
       <c r="F13" t="n">
-        <v>36.9845</v>
+        <v>36.6358</v>
       </c>
       <c r="G13" t="n">
-        <v>34.41166666666671</v>
+        <v>34.40333333333338</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>34.5</v>
+      </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
@@ -865,20 +869,28 @@
         <v>34.5</v>
       </c>
       <c r="F14" t="n">
-        <v>19.969</v>
+        <v>36.9845</v>
       </c>
       <c r="G14" t="n">
-        <v>34.41666666666671</v>
+        <v>34.41166666666671</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -900,20 +912,28 @@
         <v>34.5</v>
       </c>
       <c r="F15" t="n">
-        <v>19.699</v>
+        <v>19.969</v>
       </c>
       <c r="G15" t="n">
-        <v>34.42500000000005</v>
+        <v>34.41666666666671</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -926,19 +946,19 @@
         <v>34.5</v>
       </c>
       <c r="C16" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="D16" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="E16" t="n">
         <v>34.5</v>
       </c>
       <c r="F16" t="n">
-        <v>6908.2281</v>
+        <v>19.699</v>
       </c>
       <c r="G16" t="n">
-        <v>34.43500000000004</v>
+        <v>34.42500000000005</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -961,29 +981,35 @@
         <v>34.5</v>
       </c>
       <c r="C17" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="D17" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="E17" t="n">
         <v>34.5</v>
       </c>
       <c r="F17" t="n">
-        <v>55.6635</v>
+        <v>6908.2281</v>
       </c>
       <c r="G17" t="n">
-        <v>34.44000000000005</v>
+        <v>34.43500000000004</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>34.5</v>
+      </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -996,19 +1022,19 @@
         <v>34.5</v>
       </c>
       <c r="C18" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="D18" t="n">
         <v>34.5</v>
       </c>
       <c r="E18" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="F18" t="n">
-        <v>30893.0598</v>
+        <v>55.6635</v>
       </c>
       <c r="G18" t="n">
-        <v>34.44666666666672</v>
+        <v>34.44000000000005</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1018,7 +1044,11 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1028,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="C19" t="n">
         <v>34.4</v>
       </c>
       <c r="D19" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="E19" t="n">
         <v>34.4</v>
       </c>
       <c r="F19" t="n">
-        <v>1231.9253</v>
+        <v>30893.0598</v>
       </c>
       <c r="G19" t="n">
-        <v>34.45000000000005</v>
+        <v>34.44666666666672</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1053,7 +1083,11 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1075,10 +1109,10 @@
         <v>34.4</v>
       </c>
       <c r="F20" t="n">
-        <v>1676.0316</v>
+        <v>1231.9253</v>
       </c>
       <c r="G20" t="n">
-        <v>34.45666666666672</v>
+        <v>34.45000000000005</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1088,7 +1122,11 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1110,10 +1148,10 @@
         <v>34.4</v>
       </c>
       <c r="F21" t="n">
-        <v>412.5871</v>
+        <v>1676.0316</v>
       </c>
       <c r="G21" t="n">
-        <v>34.46000000000006</v>
+        <v>34.45666666666672</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1123,7 +1161,11 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1145,7 +1187,7 @@
         <v>34.4</v>
       </c>
       <c r="F22" t="n">
-        <v>37.9936</v>
+        <v>412.5871</v>
       </c>
       <c r="G22" t="n">
         <v>34.46000000000006</v>
@@ -1158,7 +1200,11 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1180,10 +1226,10 @@
         <v>34.4</v>
       </c>
       <c r="F23" t="n">
-        <v>76.051</v>
+        <v>37.9936</v>
       </c>
       <c r="G23" t="n">
-        <v>34.45666666666673</v>
+        <v>34.46000000000006</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1193,7 +1239,11 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1215,10 +1265,10 @@
         <v>34.4</v>
       </c>
       <c r="F24" t="n">
-        <v>283.7224</v>
+        <v>76.051</v>
       </c>
       <c r="G24" t="n">
-        <v>34.45166666666673</v>
+        <v>34.45666666666673</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1228,7 +1278,11 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1250,10 +1304,10 @@
         <v>34.4</v>
       </c>
       <c r="F25" t="n">
-        <v>1253.2829</v>
+        <v>283.7224</v>
       </c>
       <c r="G25" t="n">
-        <v>34.4483333333334</v>
+        <v>34.45166666666673</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1263,7 +1317,11 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1285,10 +1343,10 @@
         <v>34.4</v>
       </c>
       <c r="F26" t="n">
-        <v>733.9957000000001</v>
+        <v>1253.2829</v>
       </c>
       <c r="G26" t="n">
-        <v>34.44500000000007</v>
+        <v>34.4483333333334</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1298,7 +1356,11 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1311,19 +1373,19 @@
         <v>34.4</v>
       </c>
       <c r="C27" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="D27" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="E27" t="n">
         <v>34.4</v>
       </c>
       <c r="F27" t="n">
-        <v>2276.5395</v>
+        <v>733.9957000000001</v>
       </c>
       <c r="G27" t="n">
-        <v>34.44333333333341</v>
+        <v>34.44500000000007</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1333,7 +1395,11 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1343,22 +1409,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>34.6</v>
+        <v>34.4</v>
       </c>
       <c r="C28" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="D28" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="E28" t="n">
-        <v>34.6</v>
+        <v>34.4</v>
       </c>
       <c r="F28" t="n">
-        <v>6862.16</v>
+        <v>2276.5395</v>
       </c>
       <c r="G28" t="n">
-        <v>34.44166666666674</v>
+        <v>34.44333333333341</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1368,7 +1434,11 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1381,19 +1451,19 @@
         <v>34.6</v>
       </c>
       <c r="C29" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="D29" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="E29" t="n">
         <v>34.6</v>
       </c>
       <c r="F29" t="n">
-        <v>1206.9</v>
+        <v>6862.16</v>
       </c>
       <c r="G29" t="n">
-        <v>34.44500000000007</v>
+        <v>34.44166666666674</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1403,7 +1473,11 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1425,10 +1499,10 @@
         <v>34.6</v>
       </c>
       <c r="F30" t="n">
-        <v>33.999</v>
+        <v>1206.9</v>
       </c>
       <c r="G30" t="n">
-        <v>34.4483333333334</v>
+        <v>34.44500000000007</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1438,7 +1512,11 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1460,10 +1538,10 @@
         <v>34.6</v>
       </c>
       <c r="F31" t="n">
-        <v>40.6985</v>
+        <v>33.999</v>
       </c>
       <c r="G31" t="n">
-        <v>34.45166666666673</v>
+        <v>34.4483333333334</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1473,7 +1551,11 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1486,19 +1568,19 @@
         <v>34.6</v>
       </c>
       <c r="C32" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="D32" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="E32" t="n">
         <v>34.6</v>
       </c>
       <c r="F32" t="n">
-        <v>38.6654</v>
+        <v>40.6985</v>
       </c>
       <c r="G32" t="n">
-        <v>34.4533333333334</v>
+        <v>34.45166666666673</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1508,7 +1590,11 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1518,22 +1604,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="C33" t="n">
-        <v>34.4</v>
+        <v>34.6</v>
       </c>
       <c r="D33" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="E33" t="n">
-        <v>34.4</v>
+        <v>34.6</v>
       </c>
       <c r="F33" t="n">
-        <v>1015</v>
+        <v>38.6654</v>
       </c>
       <c r="G33" t="n">
-        <v>34.45500000000006</v>
+        <v>34.4533333333334</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1543,7 +1629,11 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1553,22 +1643,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="C34" t="n">
         <v>34.4</v>
       </c>
-      <c r="C34" t="n">
-        <v>34.5</v>
-      </c>
       <c r="D34" t="n">
-        <v>34.5</v>
+        <v>34.7</v>
       </c>
       <c r="E34" t="n">
         <v>34.4</v>
       </c>
       <c r="F34" t="n">
-        <v>1443.999</v>
+        <v>1015</v>
       </c>
       <c r="G34" t="n">
-        <v>34.45666666666673</v>
+        <v>34.45500000000006</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1578,7 +1668,11 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1591,7 +1685,7 @@
         <v>34.4</v>
       </c>
       <c r="C35" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="D35" t="n">
         <v>34.5</v>
@@ -1600,7 +1694,7 @@
         <v>34.4</v>
       </c>
       <c r="F35" t="n">
-        <v>2757.9996</v>
+        <v>1443.999</v>
       </c>
       <c r="G35" t="n">
         <v>34.45666666666673</v>
@@ -1613,7 +1707,11 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1623,22 +1721,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>34.6</v>
+        <v>34.4</v>
       </c>
       <c r="C36" t="n">
-        <v>34.7</v>
+        <v>34.4</v>
       </c>
       <c r="D36" t="n">
-        <v>34.7</v>
+        <v>34.5</v>
       </c>
       <c r="E36" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="F36" t="n">
-        <v>53.996</v>
+        <v>2757.9996</v>
       </c>
       <c r="G36" t="n">
-        <v>34.46000000000006</v>
+        <v>34.45666666666673</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1648,7 +1746,11 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1661,19 +1763,19 @@
         <v>34.6</v>
       </c>
       <c r="C37" t="n">
-        <v>34.4</v>
+        <v>34.7</v>
       </c>
       <c r="D37" t="n">
         <v>34.7</v>
       </c>
       <c r="E37" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="F37" t="n">
-        <v>3158</v>
+        <v>53.996</v>
       </c>
       <c r="G37" t="n">
-        <v>34.45666666666673</v>
+        <v>34.46000000000006</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1683,7 +1785,11 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1693,19 +1799,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="C38" t="n">
-        <v>34.6</v>
+        <v>34.4</v>
       </c>
       <c r="D38" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="E38" t="n">
         <v>34.4</v>
       </c>
       <c r="F38" t="n">
-        <v>2431</v>
+        <v>3158</v>
       </c>
       <c r="G38" t="n">
         <v>34.45666666666673</v>
@@ -1718,7 +1824,11 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1728,10 +1838,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>34.4</v>
+        <v>34.5</v>
       </c>
       <c r="C39" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="D39" t="n">
         <v>34.6</v>
@@ -1740,10 +1850,10 @@
         <v>34.4</v>
       </c>
       <c r="F39" t="n">
-        <v>2648.699</v>
+        <v>2431</v>
       </c>
       <c r="G39" t="n">
-        <v>34.45833333333339</v>
+        <v>34.45666666666673</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1753,7 +1863,11 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1763,22 +1877,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>34.6</v>
+        <v>34.4</v>
       </c>
       <c r="C40" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="D40" t="n">
         <v>34.6</v>
       </c>
       <c r="E40" t="n">
-        <v>34.6</v>
+        <v>34.4</v>
       </c>
       <c r="F40" t="n">
-        <v>15</v>
+        <v>2648.699</v>
       </c>
       <c r="G40" t="n">
-        <v>34.46166666666672</v>
+        <v>34.45833333333339</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1788,7 +1902,11 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1798,22 +1916,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="C41" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="D41" t="n">
         <v>34.6</v>
       </c>
       <c r="E41" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="F41" t="n">
-        <v>85.655</v>
+        <v>15</v>
       </c>
       <c r="G41" t="n">
-        <v>34.46333333333339</v>
+        <v>34.46166666666672</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1823,7 +1941,11 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1845,10 +1967,10 @@
         <v>34.5</v>
       </c>
       <c r="F42" t="n">
-        <v>57.992</v>
+        <v>85.655</v>
       </c>
       <c r="G42" t="n">
-        <v>34.46500000000005</v>
+        <v>34.46333333333339</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1858,7 +1980,11 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1868,7 +1994,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="C43" t="n">
         <v>34.5</v>
@@ -1880,10 +2006,10 @@
         <v>34.5</v>
       </c>
       <c r="F43" t="n">
-        <v>89.3967</v>
+        <v>57.992</v>
       </c>
       <c r="G43" t="n">
-        <v>34.46666666666672</v>
+        <v>34.46500000000005</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1893,7 +2019,11 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1906,19 +2036,19 @@
         <v>34.6</v>
       </c>
       <c r="C44" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="D44" t="n">
         <v>34.6</v>
       </c>
       <c r="E44" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="F44" t="n">
-        <v>100</v>
+        <v>89.3967</v>
       </c>
       <c r="G44" t="n">
-        <v>34.47000000000005</v>
+        <v>34.46666666666672</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1928,7 +2058,11 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1944,16 +2078,16 @@
         <v>34.6</v>
       </c>
       <c r="D45" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="E45" t="n">
         <v>34.6</v>
       </c>
       <c r="F45" t="n">
-        <v>14362.6519</v>
+        <v>100</v>
       </c>
       <c r="G45" t="n">
-        <v>34.47333333333338</v>
+        <v>34.47000000000005</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1963,7 +2097,11 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1973,10 +2111,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="C46" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="D46" t="n">
         <v>34.7</v>
@@ -1985,10 +2123,10 @@
         <v>34.6</v>
       </c>
       <c r="F46" t="n">
-        <v>100959.2549</v>
+        <v>14362.6519</v>
       </c>
       <c r="G46" t="n">
-        <v>34.47833333333337</v>
+        <v>34.47333333333338</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -1998,7 +2136,11 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2008,22 +2150,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="C47" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="D47" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="E47" t="n">
-        <v>34.8</v>
+        <v>34.6</v>
       </c>
       <c r="F47" t="n">
-        <v>15</v>
+        <v>100959.2549</v>
       </c>
       <c r="G47" t="n">
-        <v>34.48500000000004</v>
+        <v>34.47833333333337</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2033,7 +2175,11 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2043,22 +2189,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="C48" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="D48" t="n">
         <v>34.8</v>
       </c>
       <c r="E48" t="n">
-        <v>34.6</v>
+        <v>34.8</v>
       </c>
       <c r="F48" t="n">
-        <v>343.698</v>
+        <v>15</v>
       </c>
       <c r="G48" t="n">
-        <v>34.49000000000004</v>
+        <v>34.48500000000004</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2068,7 +2214,11 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2078,10 +2228,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="C49" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="D49" t="n">
         <v>34.8</v>
@@ -2090,10 +2240,10 @@
         <v>34.6</v>
       </c>
       <c r="F49" t="n">
-        <v>217.783</v>
+        <v>343.698</v>
       </c>
       <c r="G49" t="n">
-        <v>34.49666666666671</v>
+        <v>34.49000000000004</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2103,7 +2253,11 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2113,10 +2267,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>34.6</v>
+        <v>34.8</v>
       </c>
       <c r="C50" t="n">
-        <v>34.6</v>
+        <v>34.8</v>
       </c>
       <c r="D50" t="n">
         <v>34.8</v>
@@ -2125,10 +2279,10 @@
         <v>34.6</v>
       </c>
       <c r="F50" t="n">
-        <v>200.6497</v>
+        <v>217.783</v>
       </c>
       <c r="G50" t="n">
-        <v>34.50000000000004</v>
+        <v>34.49666666666671</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2138,7 +2292,11 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2148,10 +2306,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>34.8</v>
+        <v>34.6</v>
       </c>
       <c r="C51" t="n">
-        <v>34.8</v>
+        <v>34.6</v>
       </c>
       <c r="D51" t="n">
         <v>34.8</v>
@@ -2160,10 +2318,10 @@
         <v>34.6</v>
       </c>
       <c r="F51" t="n">
-        <v>726.6985</v>
+        <v>200.6497</v>
       </c>
       <c r="G51" t="n">
-        <v>34.5066666666667</v>
+        <v>34.50000000000004</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2173,7 +2331,11 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2183,7 +2345,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>34.6</v>
+        <v>34.8</v>
       </c>
       <c r="C52" t="n">
         <v>34.8</v>
@@ -2195,10 +2357,10 @@
         <v>34.6</v>
       </c>
       <c r="F52" t="n">
-        <v>1892</v>
+        <v>726.6985</v>
       </c>
       <c r="G52" t="n">
-        <v>34.51333333333337</v>
+        <v>34.5066666666667</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2208,7 +2370,11 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2218,7 +2384,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>34.8</v>
+        <v>34.6</v>
       </c>
       <c r="C53" t="n">
         <v>34.8</v>
@@ -2230,10 +2396,10 @@
         <v>34.6</v>
       </c>
       <c r="F53" t="n">
-        <v>174</v>
+        <v>1892</v>
       </c>
       <c r="G53" t="n">
-        <v>34.52000000000005</v>
+        <v>34.51333333333337</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2243,7 +2409,11 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2253,7 +2423,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>34.6</v>
+        <v>34.8</v>
       </c>
       <c r="C54" t="n">
         <v>34.8</v>
@@ -2265,10 +2435,10 @@
         <v>34.6</v>
       </c>
       <c r="F54" t="n">
-        <v>1472</v>
+        <v>174</v>
       </c>
       <c r="G54" t="n">
-        <v>34.52666666666671</v>
+        <v>34.52000000000005</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2278,7 +2448,11 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2300,10 +2474,10 @@
         <v>34.6</v>
       </c>
       <c r="F55" t="n">
-        <v>70.69</v>
+        <v>1472</v>
       </c>
       <c r="G55" t="n">
-        <v>34.53166666666672</v>
+        <v>34.52666666666671</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2313,7 +2487,11 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2335,10 +2513,10 @@
         <v>34.6</v>
       </c>
       <c r="F56" t="n">
-        <v>115</v>
+        <v>70.69</v>
       </c>
       <c r="G56" t="n">
-        <v>34.53833333333338</v>
+        <v>34.53166666666672</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2348,7 +2526,11 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2370,10 +2552,10 @@
         <v>34.6</v>
       </c>
       <c r="F57" t="n">
-        <v>236.695</v>
+        <v>115</v>
       </c>
       <c r="G57" t="n">
-        <v>34.54500000000005</v>
+        <v>34.53833333333338</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2383,7 +2565,11 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2405,10 +2591,10 @@
         <v>34.6</v>
       </c>
       <c r="F58" t="n">
-        <v>41</v>
+        <v>236.695</v>
       </c>
       <c r="G58" t="n">
-        <v>34.55166666666672</v>
+        <v>34.54500000000005</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2418,7 +2604,11 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2440,10 +2630,10 @@
         <v>34.6</v>
       </c>
       <c r="F59" t="n">
-        <v>165</v>
+        <v>41</v>
       </c>
       <c r="G59" t="n">
-        <v>34.55833333333339</v>
+        <v>34.55166666666672</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2453,7 +2643,11 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2475,10 +2669,10 @@
         <v>34.6</v>
       </c>
       <c r="F60" t="n">
-        <v>173.699</v>
+        <v>165</v>
       </c>
       <c r="G60" t="n">
-        <v>34.56500000000005</v>
+        <v>34.55833333333339</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2488,7 +2682,11 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2498,7 +2696,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="C61" t="n">
         <v>34.8</v>
@@ -2507,13 +2705,13 @@
         <v>34.8</v>
       </c>
       <c r="E61" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="F61" t="n">
-        <v>5015</v>
+        <v>173.699</v>
       </c>
       <c r="G61" t="n">
-        <v>34.57166666666672</v>
+        <v>34.56500000000005</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2523,7 +2721,11 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2536,19 +2738,19 @@
         <v>34.7</v>
       </c>
       <c r="C62" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="D62" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="E62" t="n">
         <v>34.7</v>
       </c>
-      <c r="D62" t="n">
-        <v>34.7</v>
-      </c>
-      <c r="E62" t="n">
-        <v>34.5</v>
-      </c>
       <c r="F62" t="n">
-        <v>180770.3771</v>
+        <v>5015</v>
       </c>
       <c r="G62" t="n">
-        <v>34.57666666666672</v>
+        <v>34.57166666666672</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2558,7 +2760,11 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2568,22 +2774,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="C63" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="D63" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="E63" t="n">
         <v>34.5</v>
       </c>
       <c r="F63" t="n">
-        <v>1538</v>
+        <v>180770.3771</v>
       </c>
       <c r="G63" t="n">
-        <v>34.58000000000005</v>
+        <v>34.57666666666672</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2593,7 +2799,11 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2603,22 +2813,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="C64" t="n">
         <v>34.6</v>
       </c>
-      <c r="C64" t="n">
-        <v>34.7</v>
-      </c>
       <c r="D64" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="E64" t="n">
         <v>34.5</v>
       </c>
       <c r="F64" t="n">
-        <v>39</v>
+        <v>1538</v>
       </c>
       <c r="G64" t="n">
-        <v>34.58500000000004</v>
+        <v>34.58000000000005</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2628,7 +2838,11 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2638,7 +2852,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="C65" t="n">
         <v>34.7</v>
@@ -2650,10 +2864,10 @@
         <v>34.5</v>
       </c>
       <c r="F65" t="n">
-        <v>96.694</v>
+        <v>39</v>
       </c>
       <c r="G65" t="n">
-        <v>34.59000000000004</v>
+        <v>34.58500000000004</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2663,7 +2877,11 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2673,22 +2891,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="C66" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="D66" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="E66" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="F66" t="n">
-        <v>1940</v>
+        <v>96.694</v>
       </c>
       <c r="G66" t="n">
-        <v>34.59666666666671</v>
+        <v>34.59000000000004</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2698,7 +2916,11 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2708,22 +2930,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="C67" t="n">
-        <v>34.6</v>
+        <v>34.8</v>
       </c>
       <c r="D67" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="E67" t="n">
         <v>34.6</v>
       </c>
       <c r="F67" t="n">
-        <v>1539</v>
+        <v>1940</v>
       </c>
       <c r="G67" t="n">
-        <v>34.59833333333337</v>
+        <v>34.59666666666671</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2733,7 +2955,11 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2746,19 +2972,19 @@
         <v>34.7</v>
       </c>
       <c r="C68" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="D68" t="n">
         <v>34.7</v>
       </c>
       <c r="E68" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="F68" t="n">
-        <v>1439</v>
+        <v>1539</v>
       </c>
       <c r="G68" t="n">
-        <v>34.6016666666667</v>
+        <v>34.59833333333337</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2768,7 +2994,11 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2778,22 +3008,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="C69" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="D69" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="E69" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="F69" t="n">
-        <v>137328.7494</v>
+        <v>1439</v>
       </c>
       <c r="G69" t="n">
-        <v>34.60500000000004</v>
+        <v>34.6016666666667</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2803,7 +3033,11 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2813,7 +3047,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="C70" t="n">
         <v>34.8</v>
@@ -2822,13 +3056,13 @@
         <v>34.8</v>
       </c>
       <c r="E70" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="F70" t="n">
-        <v>1906.7</v>
+        <v>137328.7494</v>
       </c>
       <c r="G70" t="n">
-        <v>34.61000000000004</v>
+        <v>34.60500000000004</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2838,7 +3072,11 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2848,22 +3086,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="C71" t="n">
         <v>34.8</v>
       </c>
-      <c r="C71" t="n">
-        <v>34.9</v>
-      </c>
       <c r="D71" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="E71" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="F71" t="n">
-        <v>229937.8506</v>
+        <v>1906.7</v>
       </c>
       <c r="G71" t="n">
-        <v>34.61666666666671</v>
+        <v>34.61000000000004</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2873,7 +3111,11 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2886,19 +3128,19 @@
         <v>34.8</v>
       </c>
       <c r="C72" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="D72" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="E72" t="n">
         <v>34.8</v>
       </c>
       <c r="F72" t="n">
-        <v>6151.7</v>
+        <v>229937.8506</v>
       </c>
       <c r="G72" t="n">
-        <v>34.62166666666671</v>
+        <v>34.61666666666671</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2908,7 +3150,11 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2918,22 +3164,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="C73" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="D73" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="E73" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="F73" t="n">
-        <v>15</v>
+        <v>6151.7</v>
       </c>
       <c r="G73" t="n">
-        <v>34.62833333333338</v>
+        <v>34.62166666666671</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2943,7 +3189,11 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2965,10 +3215,10 @@
         <v>34.9</v>
       </c>
       <c r="F74" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G74" t="n">
-        <v>34.63500000000005</v>
+        <v>34.62833333333338</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2978,7 +3228,11 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3000,10 +3254,10 @@
         <v>34.9</v>
       </c>
       <c r="F75" t="n">
-        <v>20207.7338</v>
+        <v>20</v>
       </c>
       <c r="G75" t="n">
-        <v>34.64166666666672</v>
+        <v>34.63500000000005</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3013,7 +3267,11 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3035,10 +3293,10 @@
         <v>34.9</v>
       </c>
       <c r="F76" t="n">
-        <v>120</v>
+        <v>20207.7338</v>
       </c>
       <c r="G76" t="n">
-        <v>34.64666666666673</v>
+        <v>34.64166666666672</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3048,7 +3306,11 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3070,10 +3332,10 @@
         <v>34.9</v>
       </c>
       <c r="F77" t="n">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="G77" t="n">
-        <v>34.65333333333339</v>
+        <v>34.64666666666673</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3083,7 +3345,11 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3096,19 +3362,19 @@
         <v>34.9</v>
       </c>
       <c r="C78" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="D78" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="E78" t="n">
         <v>34.9</v>
       </c>
       <c r="F78" t="n">
-        <v>545000</v>
+        <v>15</v>
       </c>
       <c r="G78" t="n">
-        <v>34.66333333333339</v>
+        <v>34.65333333333339</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3118,7 +3384,11 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3128,7 +3398,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="C79" t="n">
         <v>35</v>
@@ -3137,13 +3407,13 @@
         <v>35</v>
       </c>
       <c r="E79" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="F79" t="n">
-        <v>55</v>
+        <v>545000</v>
       </c>
       <c r="G79" t="n">
-        <v>34.67333333333339</v>
+        <v>34.66333333333339</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3153,7 +3423,11 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3172,13 +3446,13 @@
         <v>35</v>
       </c>
       <c r="E80" t="n">
-        <v>35</v>
+        <v>34.8</v>
       </c>
       <c r="F80" t="n">
-        <v>368</v>
+        <v>55</v>
       </c>
       <c r="G80" t="n">
-        <v>34.68333333333339</v>
+        <v>34.67333333333339</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3188,7 +3462,11 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3210,10 +3488,10 @@
         <v>35</v>
       </c>
       <c r="F81" t="n">
-        <v>252.2896</v>
+        <v>368</v>
       </c>
       <c r="G81" t="n">
-        <v>34.69333333333338</v>
+        <v>34.68333333333339</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3223,7 +3501,11 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3233,22 +3515,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="C82" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="D82" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="E82" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="F82" t="n">
-        <v>23429.7786</v>
+        <v>252.2896</v>
       </c>
       <c r="G82" t="n">
-        <v>34.70500000000005</v>
+        <v>34.69333333333338</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3258,7 +3540,11 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3280,10 +3566,10 @@
         <v>35.1</v>
       </c>
       <c r="F83" t="n">
-        <v>17603.5014</v>
+        <v>23429.7786</v>
       </c>
       <c r="G83" t="n">
-        <v>34.71666666666671</v>
+        <v>34.70500000000005</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3293,7 +3579,11 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3303,22 +3593,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>35.2</v>
+        <v>35.1</v>
       </c>
       <c r="C84" t="n">
-        <v>35.2</v>
+        <v>35.1</v>
       </c>
       <c r="D84" t="n">
-        <v>35.2</v>
+        <v>35.1</v>
       </c>
       <c r="E84" t="n">
-        <v>35.2</v>
+        <v>35.1</v>
       </c>
       <c r="F84" t="n">
-        <v>15</v>
+        <v>17603.5014</v>
       </c>
       <c r="G84" t="n">
-        <v>34.73000000000004</v>
+        <v>34.71666666666671</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3328,7 +3618,11 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3341,19 +3635,19 @@
         <v>35.2</v>
       </c>
       <c r="C85" t="n">
-        <v>35.3</v>
+        <v>35.2</v>
       </c>
       <c r="D85" t="n">
-        <v>35.3</v>
+        <v>35.2</v>
       </c>
       <c r="E85" t="n">
         <v>35.2</v>
       </c>
       <c r="F85" t="n">
-        <v>200000</v>
+        <v>15</v>
       </c>
       <c r="G85" t="n">
-        <v>34.74500000000004</v>
+        <v>34.73000000000004</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3363,7 +3657,11 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3373,7 +3671,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>35.3</v>
+        <v>35.2</v>
       </c>
       <c r="C86" t="n">
         <v>35.3</v>
@@ -3382,13 +3680,13 @@
         <v>35.3</v>
       </c>
       <c r="E86" t="n">
-        <v>35.3</v>
+        <v>35.2</v>
       </c>
       <c r="F86" t="n">
-        <v>1110.2733</v>
+        <v>200000</v>
       </c>
       <c r="G86" t="n">
-        <v>34.76000000000004</v>
+        <v>34.74500000000004</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3398,7 +3696,11 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3420,10 +3722,10 @@
         <v>35.3</v>
       </c>
       <c r="F87" t="n">
-        <v>7624.739</v>
+        <v>1110.2733</v>
       </c>
       <c r="G87" t="n">
-        <v>34.77333333333338</v>
+        <v>34.76000000000004</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3433,7 +3735,11 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3455,10 +3761,10 @@
         <v>35.3</v>
       </c>
       <c r="F88" t="n">
-        <v>19.0142</v>
+        <v>7624.739</v>
       </c>
       <c r="G88" t="n">
-        <v>34.78500000000005</v>
+        <v>34.77333333333338</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3468,7 +3774,11 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3478,22 +3788,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>35.1</v>
+        <v>35.3</v>
       </c>
       <c r="C89" t="n">
-        <v>35.1</v>
+        <v>35.3</v>
       </c>
       <c r="D89" t="n">
-        <v>35.1</v>
+        <v>35.3</v>
       </c>
       <c r="E89" t="n">
-        <v>35.1</v>
+        <v>35.3</v>
       </c>
       <c r="F89" t="n">
-        <v>2646.7264</v>
+        <v>19.0142</v>
       </c>
       <c r="G89" t="n">
-        <v>34.79166666666672</v>
+        <v>34.78500000000005</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3503,7 +3813,11 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3513,22 +3827,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>35.3</v>
+        <v>35.1</v>
       </c>
       <c r="C90" t="n">
-        <v>35.4</v>
+        <v>35.1</v>
       </c>
       <c r="D90" t="n">
-        <v>35.4</v>
+        <v>35.1</v>
       </c>
       <c r="E90" t="n">
-        <v>35.3</v>
+        <v>35.1</v>
       </c>
       <c r="F90" t="n">
-        <v>12953.7343</v>
+        <v>2646.7264</v>
       </c>
       <c r="G90" t="n">
-        <v>34.80333333333339</v>
+        <v>34.79166666666672</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3538,7 +3852,11 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3548,22 +3866,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>35.1</v>
+        <v>35.3</v>
       </c>
       <c r="C91" t="n">
-        <v>35.1</v>
+        <v>35.4</v>
       </c>
       <c r="D91" t="n">
         <v>35.4</v>
       </c>
       <c r="E91" t="n">
-        <v>35.1</v>
+        <v>35.3</v>
       </c>
       <c r="F91" t="n">
-        <v>17648.8368</v>
+        <v>12953.7343</v>
       </c>
       <c r="G91" t="n">
-        <v>34.81000000000006</v>
+        <v>34.80333333333339</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3573,7 +3891,11 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3583,22 +3905,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>35.4</v>
+        <v>35.1</v>
       </c>
       <c r="C92" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D92" t="n">
         <v>35.4</v>
       </c>
       <c r="E92" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="F92" t="n">
-        <v>5187.4144</v>
+        <v>17648.8368</v>
       </c>
       <c r="G92" t="n">
-        <v>34.81666666666673</v>
+        <v>34.81000000000006</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3608,7 +3930,11 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3621,19 +3947,19 @@
         <v>35.4</v>
       </c>
       <c r="C93" t="n">
-        <v>35.4</v>
+        <v>35</v>
       </c>
       <c r="D93" t="n">
         <v>35.4</v>
       </c>
       <c r="E93" t="n">
-        <v>35.4</v>
+        <v>35</v>
       </c>
       <c r="F93" t="n">
-        <v>2804.1895</v>
+        <v>5187.4144</v>
       </c>
       <c r="G93" t="n">
-        <v>34.83333333333339</v>
+        <v>34.81666666666673</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3643,7 +3969,11 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3665,10 +3995,10 @@
         <v>35.4</v>
       </c>
       <c r="F94" t="n">
-        <v>565.3282</v>
+        <v>2804.1895</v>
       </c>
       <c r="G94" t="n">
-        <v>34.84833333333339</v>
+        <v>34.83333333333339</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3678,7 +4008,11 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3688,22 +4022,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="C95" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="D95" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="E95" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="F95" t="n">
-        <v>15</v>
+        <v>565.3282</v>
       </c>
       <c r="G95" t="n">
-        <v>34.86666666666672</v>
+        <v>34.84833333333339</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3713,7 +4047,11 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3735,10 +4073,10 @@
         <v>35.5</v>
       </c>
       <c r="F96" t="n">
-        <v>3770.3483</v>
+        <v>15</v>
       </c>
       <c r="G96" t="n">
-        <v>34.88000000000007</v>
+        <v>34.86666666666672</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3748,7 +4086,11 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3770,10 +4112,10 @@
         <v>35.5</v>
       </c>
       <c r="F97" t="n">
-        <v>15</v>
+        <v>3770.3483</v>
       </c>
       <c r="G97" t="n">
-        <v>34.8983333333334</v>
+        <v>34.88000000000007</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3783,7 +4125,11 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3805,10 +4151,10 @@
         <v>35.5</v>
       </c>
       <c r="F98" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G98" t="n">
-        <v>34.9133333333334</v>
+        <v>34.8983333333334</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3818,7 +4164,11 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3840,10 +4190,10 @@
         <v>35.5</v>
       </c>
       <c r="F99" t="n">
-        <v>3918.9979</v>
+        <v>20</v>
       </c>
       <c r="G99" t="n">
-        <v>34.93000000000006</v>
+        <v>34.9133333333334</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3853,7 +4203,11 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3875,10 +4229,10 @@
         <v>35.5</v>
       </c>
       <c r="F100" t="n">
-        <v>100</v>
+        <v>3918.9979</v>
       </c>
       <c r="G100" t="n">
-        <v>34.94500000000006</v>
+        <v>34.93000000000006</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3888,7 +4242,11 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3901,19 +4259,19 @@
         <v>35.5</v>
       </c>
       <c r="C101" t="n">
-        <v>35.2</v>
+        <v>35.5</v>
       </c>
       <c r="D101" t="n">
         <v>35.5</v>
       </c>
       <c r="E101" t="n">
-        <v>35.2</v>
+        <v>35.5</v>
       </c>
       <c r="F101" t="n">
-        <v>492.8546</v>
+        <v>100</v>
       </c>
       <c r="G101" t="n">
-        <v>34.95666666666673</v>
+        <v>34.94500000000006</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3923,7 +4281,11 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3933,22 +4295,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>35.4</v>
+        <v>35.5</v>
       </c>
       <c r="C102" t="n">
-        <v>35.4</v>
+        <v>35.2</v>
       </c>
       <c r="D102" t="n">
-        <v>35.4</v>
+        <v>35.5</v>
       </c>
       <c r="E102" t="n">
-        <v>35.4</v>
+        <v>35.2</v>
       </c>
       <c r="F102" t="n">
-        <v>15</v>
+        <v>492.8546</v>
       </c>
       <c r="G102" t="n">
-        <v>34.97166666666673</v>
+        <v>34.95666666666673</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3958,7 +4320,11 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -3971,19 +4337,19 @@
         <v>35.4</v>
       </c>
       <c r="C103" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="D103" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="E103" t="n">
         <v>35.4</v>
       </c>
       <c r="F103" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="G103" t="n">
-        <v>34.98833333333339</v>
+        <v>34.97166666666673</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3993,7 +4359,11 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4006,19 +4376,19 @@
         <v>35.4</v>
       </c>
       <c r="C104" t="n">
-        <v>35.4</v>
+        <v>35.5</v>
       </c>
       <c r="D104" t="n">
-        <v>35.4</v>
+        <v>35.5</v>
       </c>
       <c r="E104" t="n">
         <v>35.4</v>
       </c>
       <c r="F104" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G104" t="n">
-        <v>35.00166666666674</v>
+        <v>34.98833333333339</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4028,7 +4398,11 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4050,10 +4424,10 @@
         <v>35.4</v>
       </c>
       <c r="F105" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G105" t="n">
-        <v>35.01500000000007</v>
+        <v>35.00166666666674</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4063,7 +4437,11 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4085,10 +4463,10 @@
         <v>35.4</v>
       </c>
       <c r="F106" t="n">
-        <v>1773.4436</v>
+        <v>15</v>
       </c>
       <c r="G106" t="n">
-        <v>35.02666666666674</v>
+        <v>35.01500000000007</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4098,7 +4476,11 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4120,10 +4502,10 @@
         <v>35.4</v>
       </c>
       <c r="F107" t="n">
-        <v>888.9331</v>
+        <v>1773.4436</v>
       </c>
       <c r="G107" t="n">
-        <v>35.03666666666674</v>
+        <v>35.02666666666674</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4133,7 +4515,11 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4155,10 +4541,10 @@
         <v>35.4</v>
       </c>
       <c r="F108" t="n">
-        <v>2975.1739</v>
+        <v>888.9331</v>
       </c>
       <c r="G108" t="n">
-        <v>35.04833333333341</v>
+        <v>35.03666666666674</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4168,7 +4554,11 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4190,10 +4580,10 @@
         <v>35.4</v>
       </c>
       <c r="F109" t="n">
-        <v>15</v>
+        <v>2975.1739</v>
       </c>
       <c r="G109" t="n">
-        <v>35.05833333333341</v>
+        <v>35.04833333333341</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4203,7 +4593,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4228,7 +4622,7 @@
         <v>15</v>
       </c>
       <c r="G110" t="n">
-        <v>35.07166666666674</v>
+        <v>35.05833333333341</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4238,7 +4632,11 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4260,10 +4658,10 @@
         <v>35.4</v>
       </c>
       <c r="F111" t="n">
-        <v>28.27683615</v>
+        <v>15</v>
       </c>
       <c r="G111" t="n">
-        <v>35.08166666666674</v>
+        <v>35.07166666666674</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4273,7 +4671,11 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4295,10 +4697,10 @@
         <v>35.4</v>
       </c>
       <c r="F112" t="n">
-        <v>18838.8035</v>
+        <v>28.27683615</v>
       </c>
       <c r="G112" t="n">
-        <v>35.09166666666674</v>
+        <v>35.08166666666674</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4308,7 +4710,11 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4330,10 +4736,10 @@
         <v>35.4</v>
       </c>
       <c r="F113" t="n">
-        <v>445.575</v>
+        <v>18838.8035</v>
       </c>
       <c r="G113" t="n">
-        <v>35.10166666666674</v>
+        <v>35.09166666666674</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4343,7 +4749,11 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4365,10 +4775,10 @@
         <v>35.4</v>
       </c>
       <c r="F114" t="n">
-        <v>15</v>
+        <v>445.575</v>
       </c>
       <c r="G114" t="n">
-        <v>35.11166666666674</v>
+        <v>35.10166666666674</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4378,7 +4788,11 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4400,10 +4814,10 @@
         <v>35.4</v>
       </c>
       <c r="F115" t="n">
-        <v>111.6574</v>
+        <v>15</v>
       </c>
       <c r="G115" t="n">
-        <v>35.12166666666674</v>
+        <v>35.11166666666674</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4413,7 +4827,11 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4435,10 +4853,10 @@
         <v>35.4</v>
       </c>
       <c r="F116" t="n">
-        <v>14175.6867</v>
+        <v>111.6574</v>
       </c>
       <c r="G116" t="n">
-        <v>35.13166666666674</v>
+        <v>35.12166666666674</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4448,7 +4866,11 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4470,10 +4892,10 @@
         <v>35.4</v>
       </c>
       <c r="F117" t="n">
-        <v>83.81270000000001</v>
+        <v>14175.6867</v>
       </c>
       <c r="G117" t="n">
-        <v>35.14166666666674</v>
+        <v>35.13166666666674</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4483,7 +4905,11 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4496,19 +4922,19 @@
         <v>35.4</v>
       </c>
       <c r="C118" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="D118" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="E118" t="n">
         <v>35.4</v>
       </c>
       <c r="F118" t="n">
-        <v>56229.2898</v>
+        <v>83.81270000000001</v>
       </c>
       <c r="G118" t="n">
-        <v>35.1533333333334</v>
+        <v>35.14166666666674</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4518,7 +4944,11 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4528,7 +4958,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="C119" t="n">
         <v>35.5</v>
@@ -4537,13 +4967,13 @@
         <v>35.5</v>
       </c>
       <c r="E119" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="F119" t="n">
-        <v>47740.8529</v>
+        <v>56229.2898</v>
       </c>
       <c r="G119" t="n">
-        <v>35.16500000000006</v>
+        <v>35.1533333333334</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4553,7 +4983,11 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4563,22 +4997,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>35.3</v>
+        <v>35.5</v>
       </c>
       <c r="C120" t="n">
-        <v>35.3</v>
+        <v>35.5</v>
       </c>
       <c r="D120" t="n">
-        <v>35.3</v>
+        <v>35.5</v>
       </c>
       <c r="E120" t="n">
-        <v>35.3</v>
+        <v>35.5</v>
       </c>
       <c r="F120" t="n">
-        <v>32354.73087818</v>
+        <v>47740.8529</v>
       </c>
       <c r="G120" t="n">
-        <v>35.1733333333334</v>
+        <v>35.16500000000006</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4588,7 +5022,11 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4598,22 +5036,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="C121" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="D121" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="E121" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="F121" t="n">
-        <v>24059.2233</v>
+        <v>32354.73087818</v>
       </c>
       <c r="G121" t="n">
-        <v>35.18000000000006</v>
+        <v>35.1733333333334</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4623,7 +5061,11 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4645,10 +5087,10 @@
         <v>35.2</v>
       </c>
       <c r="F122" t="n">
-        <v>22901.3049</v>
+        <v>24059.2233</v>
       </c>
       <c r="G122" t="n">
-        <v>35.18833333333339</v>
+        <v>35.18000000000006</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4658,7 +5100,11 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4680,10 +5126,10 @@
         <v>35.2</v>
       </c>
       <c r="F123" t="n">
-        <v>21447.29</v>
+        <v>22901.3049</v>
       </c>
       <c r="G123" t="n">
-        <v>35.19833333333339</v>
+        <v>35.18833333333339</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4693,7 +5139,11 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4703,22 +5153,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>35.1</v>
+        <v>35.2</v>
       </c>
       <c r="C124" t="n">
-        <v>35.1</v>
+        <v>35.2</v>
       </c>
       <c r="D124" t="n">
-        <v>35.1</v>
+        <v>35.2</v>
       </c>
       <c r="E124" t="n">
-        <v>35.1</v>
+        <v>35.2</v>
       </c>
       <c r="F124" t="n">
-        <v>70429.7521</v>
+        <v>21447.29</v>
       </c>
       <c r="G124" t="n">
-        <v>35.20500000000006</v>
+        <v>35.19833333333339</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4728,7 +5178,11 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4738,22 +5192,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="C125" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="D125" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="E125" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="F125" t="n">
-        <v>54319.2227</v>
+        <v>70429.7521</v>
       </c>
       <c r="G125" t="n">
-        <v>35.21000000000006</v>
+        <v>35.20500000000006</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4763,7 +5217,11 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4785,10 +5243,10 @@
         <v>35</v>
       </c>
       <c r="F126" t="n">
-        <v>1438.3678</v>
+        <v>54319.2227</v>
       </c>
       <c r="G126" t="n">
-        <v>35.21333333333339</v>
+        <v>35.21000000000006</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4798,7 +5256,11 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4808,22 +5270,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>35.4</v>
+        <v>35</v>
       </c>
       <c r="C127" t="n">
-        <v>35.4</v>
+        <v>35</v>
       </c>
       <c r="D127" t="n">
-        <v>35.4</v>
+        <v>35</v>
       </c>
       <c r="E127" t="n">
-        <v>35.4</v>
+        <v>35</v>
       </c>
       <c r="F127" t="n">
-        <v>15</v>
+        <v>1438.3678</v>
       </c>
       <c r="G127" t="n">
-        <v>35.22666666666672</v>
+        <v>35.21333333333339</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4833,7 +5295,11 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4855,10 +5321,10 @@
         <v>35.4</v>
       </c>
       <c r="F128" t="n">
-        <v>2800</v>
+        <v>15</v>
       </c>
       <c r="G128" t="n">
-        <v>35.23833333333339</v>
+        <v>35.22666666666672</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4868,7 +5334,11 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -4881,19 +5351,19 @@
         <v>35.4</v>
       </c>
       <c r="C129" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="D129" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="E129" t="n">
         <v>35.4</v>
       </c>
       <c r="F129" t="n">
-        <v>4304.9401</v>
+        <v>2800</v>
       </c>
       <c r="G129" t="n">
-        <v>35.25000000000006</v>
+        <v>35.23833333333339</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4903,7 +5373,11 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -4913,7 +5387,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="C130" t="n">
         <v>35.5</v>
@@ -4922,13 +5396,13 @@
         <v>35.5</v>
       </c>
       <c r="E130" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="F130" t="n">
-        <v>4546.6019</v>
+        <v>4304.9401</v>
       </c>
       <c r="G130" t="n">
-        <v>35.26166666666673</v>
+        <v>35.25000000000006</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4938,7 +5412,11 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -4960,10 +5438,10 @@
         <v>35.5</v>
       </c>
       <c r="F131" t="n">
-        <v>1601.2158</v>
+        <v>4546.6019</v>
       </c>
       <c r="G131" t="n">
-        <v>35.27166666666673</v>
+        <v>35.26166666666673</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4973,7 +5451,11 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -4995,10 +5477,10 @@
         <v>35.5</v>
       </c>
       <c r="F132" t="n">
-        <v>4546.6303</v>
+        <v>1601.2158</v>
       </c>
       <c r="G132" t="n">
-        <v>35.28333333333339</v>
+        <v>35.27166666666673</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5008,7 +5490,11 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5018,22 +5504,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>35</v>
+        <v>35.5</v>
       </c>
       <c r="C133" t="n">
-        <v>34.8</v>
+        <v>35.5</v>
       </c>
       <c r="D133" t="n">
-        <v>35</v>
+        <v>35.5</v>
       </c>
       <c r="E133" t="n">
-        <v>34.8</v>
+        <v>35.5</v>
       </c>
       <c r="F133" t="n">
-        <v>56229.2898</v>
+        <v>4546.6303</v>
       </c>
       <c r="G133" t="n">
-        <v>35.28166666666672</v>
+        <v>35.28333333333339</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5043,7 +5529,11 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5053,22 +5543,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>35.5</v>
+        <v>35</v>
       </c>
       <c r="C134" t="n">
-        <v>35.5</v>
+        <v>34.8</v>
       </c>
       <c r="D134" t="n">
-        <v>35.5</v>
+        <v>35</v>
       </c>
       <c r="E134" t="n">
-        <v>35.5</v>
+        <v>34.8</v>
       </c>
       <c r="F134" t="n">
-        <v>18</v>
+        <v>56229.2898</v>
       </c>
       <c r="G134" t="n">
-        <v>35.29166666666672</v>
+        <v>35.28166666666672</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5078,7 +5568,11 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5088,19 +5582,19 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>34.9</v>
+        <v>35.5</v>
       </c>
       <c r="C135" t="n">
-        <v>34.9</v>
+        <v>35.5</v>
       </c>
       <c r="D135" t="n">
-        <v>34.9</v>
+        <v>35.5</v>
       </c>
       <c r="E135" t="n">
-        <v>34.9</v>
+        <v>35.5</v>
       </c>
       <c r="F135" t="n">
-        <v>18838.8035</v>
+        <v>18</v>
       </c>
       <c r="G135" t="n">
         <v>35.29166666666672</v>
@@ -5113,7 +5607,11 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5135,7 +5633,7 @@
         <v>34.9</v>
       </c>
       <c r="F136" t="n">
-        <v>3019.6185</v>
+        <v>18838.8035</v>
       </c>
       <c r="G136" t="n">
         <v>35.29166666666672</v>
@@ -5148,7 +5646,11 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5158,19 +5660,19 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="C137" t="n">
         <v>34.9</v>
       </c>
       <c r="D137" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="E137" t="n">
         <v>34.9</v>
       </c>
       <c r="F137" t="n">
-        <v>16975.1739</v>
+        <v>3019.6185</v>
       </c>
       <c r="G137" t="n">
         <v>35.29166666666672</v>
@@ -5183,7 +5685,11 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5196,16 +5702,16 @@
         <v>35</v>
       </c>
       <c r="C138" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="D138" t="n">
         <v>35</v>
       </c>
       <c r="E138" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="F138" t="n">
-        <v>1509.2447</v>
+        <v>16975.1739</v>
       </c>
       <c r="G138" t="n">
         <v>35.29166666666672</v>
@@ -5218,7 +5724,11 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5240,7 +5750,7 @@
         <v>35</v>
       </c>
       <c r="F139" t="n">
-        <v>4039.3177</v>
+        <v>1509.2447</v>
       </c>
       <c r="G139" t="n">
         <v>35.29166666666672</v>
@@ -5253,7 +5763,11 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5263,22 +5777,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="C140" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="D140" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="E140" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="F140" t="n">
-        <v>28735.6321</v>
+        <v>4039.3177</v>
       </c>
       <c r="G140" t="n">
-        <v>35.29000000000006</v>
+        <v>35.29166666666672</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5288,7 +5802,11 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5310,10 +5828,10 @@
         <v>34.9</v>
       </c>
       <c r="F141" t="n">
-        <v>1199.6426</v>
+        <v>28735.6321</v>
       </c>
       <c r="G141" t="n">
-        <v>35.28833333333339</v>
+        <v>35.29000000000006</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5323,7 +5841,11 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5345,10 +5867,10 @@
         <v>34.9</v>
       </c>
       <c r="F142" t="n">
-        <v>30122.5179</v>
+        <v>1199.6426</v>
       </c>
       <c r="G142" t="n">
-        <v>35.28500000000006</v>
+        <v>35.28833333333339</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5358,7 +5880,11 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5368,22 +5894,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="C143" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="D143" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="E143" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="F143" t="n">
-        <v>35</v>
+        <v>30122.5179</v>
       </c>
       <c r="G143" t="n">
-        <v>35.2833333333334</v>
+        <v>35.28500000000006</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5393,7 +5919,11 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5403,22 +5933,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="C144" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="D144" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="E144" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="F144" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G144" t="n">
-        <v>35.2783333333334</v>
+        <v>35.2833333333334</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5428,7 +5958,11 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5450,10 +5984,10 @@
         <v>34.9</v>
       </c>
       <c r="F145" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="G145" t="n">
-        <v>35.27166666666673</v>
+        <v>35.2783333333334</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5463,7 +5997,11 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5485,10 +6023,10 @@
         <v>34.9</v>
       </c>
       <c r="F146" t="n">
-        <v>11854</v>
+        <v>1000</v>
       </c>
       <c r="G146" t="n">
-        <v>35.26500000000006</v>
+        <v>35.27166666666673</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5498,7 +6036,11 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5520,10 +6062,10 @@
         <v>34.9</v>
       </c>
       <c r="F147" t="n">
-        <v>1000</v>
+        <v>11854</v>
       </c>
       <c r="G147" t="n">
-        <v>35.2583333333334</v>
+        <v>35.26500000000006</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5533,7 +6075,11 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5555,10 +6101,10 @@
         <v>34.9</v>
       </c>
       <c r="F148" t="n">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="G148" t="n">
-        <v>35.25166666666673</v>
+        <v>35.2583333333334</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5568,7 +6114,11 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5590,10 +6140,10 @@
         <v>34.9</v>
       </c>
       <c r="F149" t="n">
-        <v>30</v>
+        <v>4000</v>
       </c>
       <c r="G149" t="n">
-        <v>35.2483333333334</v>
+        <v>35.25166666666673</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5603,7 +6153,11 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5613,22 +6167,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="C150" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="D150" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="E150" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="F150" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G150" t="n">
-        <v>35.24166666666672</v>
+        <v>35.2483333333334</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5638,7 +6192,11 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5648,22 +6206,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="C151" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="D151" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="E151" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="F151" t="n">
-        <v>26951.5904</v>
+        <v>15</v>
       </c>
       <c r="G151" t="n">
-        <v>35.23833333333339</v>
+        <v>35.24166666666672</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5673,7 +6231,11 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5683,22 +6245,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="C152" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="D152" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="E152" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="F152" t="n">
-        <v>8116</v>
+        <v>26951.5904</v>
       </c>
       <c r="G152" t="n">
-        <v>35.23500000000006</v>
+        <v>35.23833333333339</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5708,7 +6270,11 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5730,10 +6296,10 @@
         <v>34.8</v>
       </c>
       <c r="F153" t="n">
-        <v>3000</v>
+        <v>8116</v>
       </c>
       <c r="G153" t="n">
-        <v>35.22500000000007</v>
+        <v>35.23500000000006</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5743,7 +6309,11 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5765,10 +6335,10 @@
         <v>34.8</v>
       </c>
       <c r="F154" t="n">
-        <v>3605.6617</v>
+        <v>3000</v>
       </c>
       <c r="G154" t="n">
-        <v>35.21500000000007</v>
+        <v>35.22500000000007</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5778,7 +6348,11 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5788,22 +6362,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="C155" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="D155" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="E155" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="F155" t="n">
-        <v>505003</v>
+        <v>3605.6617</v>
       </c>
       <c r="G155" t="n">
-        <v>35.20166666666673</v>
+        <v>35.21500000000007</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5813,7 +6387,11 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5835,10 +6413,10 @@
         <v>34.7</v>
       </c>
       <c r="F156" t="n">
-        <v>1601.2158</v>
+        <v>505003</v>
       </c>
       <c r="G156" t="n">
-        <v>35.1883333333334</v>
+        <v>35.20166666666673</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5848,7 +6426,11 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -5870,10 +6452,10 @@
         <v>34.7</v>
       </c>
       <c r="F157" t="n">
-        <v>33063.7468</v>
+        <v>1601.2158</v>
       </c>
       <c r="G157" t="n">
-        <v>35.17500000000006</v>
+        <v>35.1883333333334</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5883,7 +6465,11 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -5893,22 +6479,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>34.9</v>
+        <v>34.7</v>
       </c>
       <c r="C158" t="n">
-        <v>34.9</v>
+        <v>34.7</v>
       </c>
       <c r="D158" t="n">
-        <v>34.9</v>
+        <v>34.7</v>
       </c>
       <c r="E158" t="n">
-        <v>34.9</v>
+        <v>34.7</v>
       </c>
       <c r="F158" t="n">
-        <v>15</v>
+        <v>33063.7468</v>
       </c>
       <c r="G158" t="n">
-        <v>35.16500000000006</v>
+        <v>35.17500000000006</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5918,7 +6504,11 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -5928,22 +6518,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>34.7</v>
+        <v>34.9</v>
       </c>
       <c r="C159" t="n">
-        <v>34.7</v>
+        <v>34.9</v>
       </c>
       <c r="D159" t="n">
-        <v>34.7</v>
+        <v>34.9</v>
       </c>
       <c r="E159" t="n">
-        <v>34.7</v>
+        <v>34.9</v>
       </c>
       <c r="F159" t="n">
-        <v>21477.8908</v>
+        <v>15</v>
       </c>
       <c r="G159" t="n">
-        <v>35.15166666666673</v>
+        <v>35.16500000000006</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5953,7 +6543,11 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -5975,10 +6569,10 @@
         <v>34.7</v>
       </c>
       <c r="F160" t="n">
-        <v>3131.2615</v>
+        <v>21477.8908</v>
       </c>
       <c r="G160" t="n">
-        <v>35.13833333333339</v>
+        <v>35.15166666666673</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -5988,7 +6582,11 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6010,10 +6608,10 @@
         <v>34.7</v>
       </c>
       <c r="F161" t="n">
-        <v>45555.0106</v>
+        <v>3131.2615</v>
       </c>
       <c r="G161" t="n">
-        <v>35.13000000000006</v>
+        <v>35.13833333333339</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6023,7 +6621,11 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6045,10 +6647,10 @@
         <v>34.7</v>
       </c>
       <c r="F162" t="n">
-        <v>3000.2025</v>
+        <v>45555.0106</v>
       </c>
       <c r="G162" t="n">
-        <v>35.11833333333338</v>
+        <v>35.13000000000006</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6058,7 +6660,11 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6080,24 +6686,24 @@
         <v>34.7</v>
       </c>
       <c r="F163" t="n">
-        <v>264</v>
+        <v>3000.2025</v>
       </c>
       <c r="G163" t="n">
-        <v>35.10500000000005</v>
+        <v>35.11833333333338</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>34.7</v>
-      </c>
-      <c r="K163" t="n">
-        <v>34.7</v>
-      </c>
-      <c r="L163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6107,38 +6713,34 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>34.9</v>
+        <v>34.7</v>
       </c>
       <c r="C164" t="n">
-        <v>34.9</v>
+        <v>34.7</v>
       </c>
       <c r="D164" t="n">
-        <v>34.9</v>
+        <v>34.7</v>
       </c>
       <c r="E164" t="n">
-        <v>34.9</v>
+        <v>34.7</v>
       </c>
       <c r="F164" t="n">
-        <v>851.7247</v>
+        <v>264</v>
       </c>
       <c r="G164" t="n">
-        <v>35.09666666666671</v>
+        <v>35.10500000000005</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>34.7</v>
-      </c>
-      <c r="K164" t="n">
-        <v>34.7</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M164" t="n">
@@ -6150,38 +6752,34 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="C165" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="D165" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="E165" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="F165" t="n">
-        <v>1560</v>
+        <v>851.7247</v>
       </c>
       <c r="G165" t="n">
-        <v>35.08666666666672</v>
+        <v>35.09666666666671</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="K165" t="n">
-        <v>34.7</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M165" t="n">
@@ -6205,24 +6803,24 @@
         <v>34.8</v>
       </c>
       <c r="F166" t="n">
-        <v>31444.3549</v>
+        <v>1560</v>
       </c>
       <c r="G166" t="n">
-        <v>35.07666666666672</v>
+        <v>35.08666666666672</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="K166" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="L166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6232,38 +6830,34 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="C167" t="n">
-        <v>35</v>
+        <v>34.8</v>
       </c>
       <c r="D167" t="n">
-        <v>35</v>
+        <v>34.8</v>
       </c>
       <c r="E167" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="F167" t="n">
-        <v>28621.0409</v>
+        <v>31444.3549</v>
       </c>
       <c r="G167" t="n">
-        <v>35.07000000000005</v>
+        <v>35.07666666666672</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="K167" t="n">
-        <v>34.8</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M167" t="n">
@@ -6275,38 +6869,34 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="C168" t="n">
         <v>35</v>
       </c>
-      <c r="C168" t="n">
-        <v>35.3</v>
-      </c>
       <c r="D168" t="n">
-        <v>35.3</v>
+        <v>35</v>
       </c>
       <c r="E168" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="F168" t="n">
-        <v>107290.1685</v>
+        <v>28621.0409</v>
       </c>
       <c r="G168" t="n">
-        <v>35.06833333333338</v>
+        <v>35.07000000000005</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>35</v>
-      </c>
-      <c r="K168" t="n">
-        <v>34.8</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M168" t="n">
@@ -6318,22 +6908,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>35.5</v>
+        <v>35</v>
       </c>
       <c r="C169" t="n">
-        <v>35.5</v>
+        <v>35.3</v>
       </c>
       <c r="D169" t="n">
-        <v>35.5</v>
+        <v>35.3</v>
       </c>
       <c r="E169" t="n">
-        <v>35.5</v>
+        <v>35</v>
       </c>
       <c r="F169" t="n">
-        <v>29863.2963</v>
+        <v>107290.1685</v>
       </c>
       <c r="G169" t="n">
-        <v>35.07000000000005</v>
+        <v>35.06833333333338</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6343,7 +6933,11 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6356,19 +6950,19 @@
         <v>35.5</v>
       </c>
       <c r="C170" t="n">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="D170" t="n">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="E170" t="n">
         <v>35.5</v>
       </c>
       <c r="F170" t="n">
-        <v>501</v>
+        <v>29863.2963</v>
       </c>
       <c r="G170" t="n">
-        <v>35.07333333333338</v>
+        <v>35.07000000000005</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6378,7 +6972,11 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6388,22 +6986,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="C171" t="n">
         <v>35.6</v>
       </c>
-      <c r="C171" t="n">
-        <v>35.7</v>
-      </c>
       <c r="D171" t="n">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
       <c r="E171" t="n">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="F171" t="n">
-        <v>57665.68618207</v>
+        <v>501</v>
       </c>
       <c r="G171" t="n">
-        <v>35.07833333333338</v>
+        <v>35.07333333333338</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6413,7 +7011,11 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6423,7 +7025,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
       <c r="C172" t="n">
         <v>35.7</v>
@@ -6432,13 +7034,13 @@
         <v>35.7</v>
       </c>
       <c r="E172" t="n">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
       <c r="F172" t="n">
-        <v>209856.0955</v>
+        <v>57665.68618207</v>
       </c>
       <c r="G172" t="n">
-        <v>35.08333333333337</v>
+        <v>35.07833333333338</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6448,7 +7050,11 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6461,19 +7067,19 @@
         <v>35.7</v>
       </c>
       <c r="C173" t="n">
-        <v>35.8</v>
+        <v>35.7</v>
       </c>
       <c r="D173" t="n">
-        <v>35.8</v>
+        <v>35.7</v>
       </c>
       <c r="E173" t="n">
         <v>35.7</v>
       </c>
       <c r="F173" t="n">
-        <v>44312.79771793</v>
+        <v>209856.0955</v>
       </c>
       <c r="G173" t="n">
-        <v>35.09000000000004</v>
+        <v>35.08333333333337</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6483,7 +7089,11 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6505,10 +7115,10 @@
         <v>35.7</v>
       </c>
       <c r="F174" t="n">
-        <v>28529.5364</v>
+        <v>44312.79771793</v>
       </c>
       <c r="G174" t="n">
-        <v>35.09666666666671</v>
+        <v>35.09000000000004</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6518,7 +7128,11 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6528,7 +7142,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>35.8</v>
+        <v>35.7</v>
       </c>
       <c r="C175" t="n">
         <v>35.8</v>
@@ -6537,13 +7151,13 @@
         <v>35.8</v>
       </c>
       <c r="E175" t="n">
-        <v>35.8</v>
+        <v>35.7</v>
       </c>
       <c r="F175" t="n">
-        <v>18705.5084</v>
+        <v>28529.5364</v>
       </c>
       <c r="G175" t="n">
-        <v>35.10333333333337</v>
+        <v>35.09666666666671</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6553,7 +7167,11 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6566,19 +7184,19 @@
         <v>35.8</v>
       </c>
       <c r="C176" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="D176" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="E176" t="n">
         <v>35.8</v>
       </c>
       <c r="F176" t="n">
-        <v>69647.3884</v>
+        <v>18705.5084</v>
       </c>
       <c r="G176" t="n">
-        <v>35.11166666666671</v>
+        <v>35.10333333333337</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6588,7 +7206,11 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6598,7 +7220,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="C177" t="n">
         <v>35.9</v>
@@ -6607,13 +7229,13 @@
         <v>35.9</v>
       </c>
       <c r="E177" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="F177" t="n">
-        <v>225331.86479637</v>
+        <v>69647.3884</v>
       </c>
       <c r="G177" t="n">
-        <v>35.12000000000004</v>
+        <v>35.11166666666671</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6623,7 +7245,11 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6636,19 +7262,19 @@
         <v>35.9</v>
       </c>
       <c r="C178" t="n">
-        <v>36.1</v>
+        <v>35.9</v>
       </c>
       <c r="D178" t="n">
-        <v>36.1</v>
+        <v>35.9</v>
       </c>
       <c r="E178" t="n">
         <v>35.9</v>
       </c>
       <c r="F178" t="n">
-        <v>355203.609</v>
+        <v>225331.86479637</v>
       </c>
       <c r="G178" t="n">
-        <v>35.13000000000004</v>
+        <v>35.12000000000004</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6658,7 +7284,11 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6668,22 +7298,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="C179" t="n">
         <v>36.1</v>
       </c>
-      <c r="C179" t="n">
-        <v>36.2</v>
-      </c>
       <c r="D179" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="E179" t="n">
-        <v>36.1</v>
+        <v>35.9</v>
       </c>
       <c r="F179" t="n">
-        <v>233939.86431657</v>
+        <v>355203.609</v>
       </c>
       <c r="G179" t="n">
-        <v>35.1416666666667</v>
+        <v>35.13000000000004</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6693,7 +7323,11 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6703,22 +7337,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="C180" t="n">
         <v>36.2</v>
       </c>
       <c r="D180" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="E180" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="F180" t="n">
-        <v>97086.93318343</v>
+        <v>233939.86431657</v>
       </c>
       <c r="G180" t="n">
-        <v>35.1566666666667</v>
+        <v>35.1416666666667</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6728,7 +7362,11 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6738,22 +7376,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="C181" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="D181" t="n">
         <v>36.3</v>
       </c>
-      <c r="C181" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="D181" t="n">
-        <v>36.4</v>
-      </c>
       <c r="E181" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="F181" t="n">
-        <v>137680.4032</v>
+        <v>97086.93318343</v>
       </c>
       <c r="G181" t="n">
-        <v>35.1766666666667</v>
+        <v>35.1566666666667</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6763,7 +7401,11 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6773,22 +7415,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="C182" t="n">
         <v>36.4</v>
       </c>
-      <c r="C182" t="n">
-        <v>36.7</v>
-      </c>
       <c r="D182" t="n">
-        <v>36.7</v>
+        <v>36.4</v>
       </c>
       <c r="E182" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="F182" t="n">
-        <v>670609.746</v>
+        <v>137680.4032</v>
       </c>
       <c r="G182" t="n">
-        <v>35.2016666666667</v>
+        <v>35.1766666666667</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6798,7 +7440,11 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6808,22 +7454,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>36.8</v>
+        <v>36.4</v>
       </c>
       <c r="C183" t="n">
         <v>36.7</v>
       </c>
       <c r="D183" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="E183" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="F183" t="n">
-        <v>35387.3733</v>
+        <v>670609.746</v>
       </c>
       <c r="G183" t="n">
-        <v>35.2266666666667</v>
+        <v>35.2016666666667</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6833,7 +7479,11 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -6843,22 +7493,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="C184" t="n">
         <v>36.7</v>
       </c>
-      <c r="C184" t="n">
-        <v>36.4</v>
-      </c>
       <c r="D184" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="E184" t="n">
-        <v>36.2</v>
+        <v>36.5</v>
       </c>
       <c r="F184" t="n">
-        <v>88109.9797</v>
+        <v>35387.3733</v>
       </c>
       <c r="G184" t="n">
-        <v>35.24833333333337</v>
+        <v>35.2266666666667</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6868,32 +7518,34 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="C185" t="n">
         <v>36.4</v>
       </c>
-      <c r="C185" t="n">
-        <v>36.2</v>
-      </c>
       <c r="D185" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="E185" t="n">
         <v>36.2</v>
       </c>
       <c r="F185" t="n">
-        <v>52264.8947</v>
+        <v>88109.9797</v>
       </c>
       <c r="G185" t="n">
-        <v>35.26833333333337</v>
+        <v>35.24833333333337</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6913,22 +7565,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="C186" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="D186" t="n">
         <v>36.6</v>
-      </c>
-      <c r="D186" t="n">
-        <v>36.7</v>
       </c>
       <c r="E186" t="n">
         <v>36.2</v>
       </c>
       <c r="F186" t="n">
-        <v>88475.61688854999</v>
+        <v>52264.8947</v>
       </c>
       <c r="G186" t="n">
-        <v>35.29500000000004</v>
+        <v>35.26833333333337</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6948,22 +7600,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="C187" t="n">
         <v>36.6</v>
       </c>
-      <c r="C187" t="n">
-        <v>36.8</v>
-      </c>
       <c r="D187" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="E187" t="n">
-        <v>36.6</v>
+        <v>36.2</v>
       </c>
       <c r="F187" t="n">
-        <v>233484.2941</v>
+        <v>88475.61688854999</v>
       </c>
       <c r="G187" t="n">
-        <v>35.31833333333337</v>
+        <v>35.29500000000004</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6983,22 +7635,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="C188" t="n">
         <v>36.8</v>
       </c>
-      <c r="C188" t="n">
-        <v>37.1</v>
-      </c>
       <c r="D188" t="n">
-        <v>37.1</v>
+        <v>36.8</v>
       </c>
       <c r="E188" t="n">
         <v>36.6</v>
       </c>
       <c r="F188" t="n">
-        <v>207102.19341158</v>
+        <v>233484.2941</v>
       </c>
       <c r="G188" t="n">
-        <v>35.3466666666667</v>
+        <v>35.31833333333337</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7018,22 +7670,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>37</v>
+        <v>36.8</v>
       </c>
       <c r="C189" t="n">
-        <v>36.9</v>
+        <v>37.1</v>
       </c>
       <c r="D189" t="n">
-        <v>37</v>
+        <v>37.1</v>
       </c>
       <c r="E189" t="n">
-        <v>36.9</v>
+        <v>36.6</v>
       </c>
       <c r="F189" t="n">
-        <v>71423.2509</v>
+        <v>207102.19341158</v>
       </c>
       <c r="G189" t="n">
-        <v>35.37000000000003</v>
+        <v>35.3466666666667</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7053,7 +7705,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="C190" t="n">
         <v>36.9</v>
@@ -7065,10 +7717,10 @@
         <v>36.9</v>
       </c>
       <c r="F190" t="n">
-        <v>160174.4009</v>
+        <v>71423.2509</v>
       </c>
       <c r="G190" t="n">
-        <v>35.39333333333337</v>
+        <v>35.37000000000003</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7091,19 +7743,19 @@
         <v>36.9</v>
       </c>
       <c r="C191" t="n">
-        <v>36.7</v>
+        <v>36.9</v>
       </c>
       <c r="D191" t="n">
         <v>37</v>
       </c>
       <c r="E191" t="n">
-        <v>36.7</v>
+        <v>36.9</v>
       </c>
       <c r="F191" t="n">
-        <v>146084.3951181</v>
+        <v>160174.4009</v>
       </c>
       <c r="G191" t="n">
-        <v>35.41333333333337</v>
+        <v>35.39333333333337</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7123,22 +7775,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="C192" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="D192" t="n">
         <v>37</v>
       </c>
       <c r="E192" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="F192" t="n">
-        <v>44582.7384</v>
+        <v>146084.3951181</v>
       </c>
       <c r="G192" t="n">
-        <v>35.4366666666667</v>
+        <v>35.41333333333337</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7158,10 +7810,10 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
+        <v>37</v>
+      </c>
+      <c r="C193" t="n">
         <v>36.9</v>
-      </c>
-      <c r="C193" t="n">
-        <v>36.8</v>
       </c>
       <c r="D193" t="n">
         <v>37</v>
@@ -7170,10 +7822,10 @@
         <v>36.8</v>
       </c>
       <c r="F193" t="n">
-        <v>117330.1557</v>
+        <v>44582.7384</v>
       </c>
       <c r="G193" t="n">
-        <v>35.47000000000003</v>
+        <v>35.4366666666667</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7193,22 +7845,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="C194" t="n">
-        <v>37</v>
+        <v>36.8</v>
       </c>
       <c r="D194" t="n">
         <v>37</v>
       </c>
       <c r="E194" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="F194" t="n">
-        <v>107130.3853</v>
+        <v>117330.1557</v>
       </c>
       <c r="G194" t="n">
-        <v>35.49500000000003</v>
+        <v>35.47000000000003</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7228,22 +7880,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
+        <v>37</v>
+      </c>
+      <c r="C195" t="n">
+        <v>37</v>
+      </c>
+      <c r="D195" t="n">
+        <v>37</v>
+      </c>
+      <c r="E195" t="n">
         <v>36.9</v>
       </c>
-      <c r="C195" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="D195" t="n">
-        <v>37.4</v>
-      </c>
-      <c r="E195" t="n">
-        <v>36.7</v>
-      </c>
       <c r="F195" t="n">
-        <v>737068.82288842</v>
+        <v>107130.3853</v>
       </c>
       <c r="G195" t="n">
-        <v>35.5366666666667</v>
+        <v>35.49500000000003</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7263,22 +7915,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="C196" t="n">
         <v>37.4</v>
       </c>
-      <c r="C196" t="n">
-        <v>37.7</v>
-      </c>
       <c r="D196" t="n">
-        <v>37.7</v>
+        <v>37.4</v>
       </c>
       <c r="E196" t="n">
-        <v>37.2</v>
+        <v>36.7</v>
       </c>
       <c r="F196" t="n">
-        <v>1272899.659</v>
+        <v>737068.82288842</v>
       </c>
       <c r="G196" t="n">
-        <v>35.58333333333336</v>
+        <v>35.5366666666667</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7298,22 +7950,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="C197" t="n">
-        <v>37.8</v>
+        <v>37.7</v>
       </c>
       <c r="D197" t="n">
-        <v>37.8</v>
+        <v>37.7</v>
       </c>
       <c r="E197" t="n">
-        <v>37.5</v>
+        <v>37.2</v>
       </c>
       <c r="F197" t="n">
-        <v>844870.03665014</v>
+        <v>1272899.659</v>
       </c>
       <c r="G197" t="n">
-        <v>35.6316666666667</v>
+        <v>35.58333333333336</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7333,22 +7985,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="C198" t="n">
         <v>37.8</v>
-      </c>
-      <c r="C198" t="n">
-        <v>37.3</v>
       </c>
       <c r="D198" t="n">
         <v>37.8</v>
       </c>
       <c r="E198" t="n">
-        <v>37.3</v>
+        <v>37.5</v>
       </c>
       <c r="F198" t="n">
-        <v>603135.67114986</v>
+        <v>844870.03665014</v>
       </c>
       <c r="G198" t="n">
-        <v>35.67000000000004</v>
+        <v>35.6316666666667</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7368,22 +8020,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>37.7</v>
+        <v>37.8</v>
       </c>
       <c r="C199" t="n">
         <v>37.3</v>
       </c>
       <c r="D199" t="n">
-        <v>37.7</v>
+        <v>37.8</v>
       </c>
       <c r="E199" t="n">
         <v>37.3</v>
       </c>
       <c r="F199" t="n">
-        <v>34624.1614</v>
+        <v>603135.67114986</v>
       </c>
       <c r="G199" t="n">
-        <v>35.70833333333337</v>
+        <v>35.67000000000004</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7403,22 +8055,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>37.5</v>
+        <v>37.7</v>
       </c>
       <c r="C200" t="n">
-        <v>37.5</v>
+        <v>37.3</v>
       </c>
       <c r="D200" t="n">
-        <v>37.5</v>
+        <v>37.7</v>
       </c>
       <c r="E200" t="n">
-        <v>37.5</v>
+        <v>37.3</v>
       </c>
       <c r="F200" t="n">
-        <v>48421.487</v>
+        <v>34624.1614</v>
       </c>
       <c r="G200" t="n">
-        <v>35.7516666666667</v>
+        <v>35.70833333333337</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7438,22 +8090,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="C201" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="D201" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="E201" t="n">
-        <v>37.4</v>
+        <v>37.5</v>
       </c>
       <c r="F201" t="n">
-        <v>16401.9601</v>
+        <v>48421.487</v>
       </c>
       <c r="G201" t="n">
-        <v>35.7966666666667</v>
+        <v>35.7516666666667</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7476,19 +8128,19 @@
         <v>37.6</v>
       </c>
       <c r="C202" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="D202" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="E202" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="F202" t="n">
-        <v>22809.2651</v>
+        <v>16401.9601</v>
       </c>
       <c r="G202" t="n">
-        <v>35.84333333333336</v>
+        <v>35.7966666666667</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7511,19 +8163,19 @@
         <v>37.6</v>
       </c>
       <c r="C203" t="n">
-        <v>37.2</v>
+        <v>37.7</v>
       </c>
       <c r="D203" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="E203" t="n">
         <v>37.6</v>
       </c>
-      <c r="E203" t="n">
-        <v>37.2</v>
-      </c>
       <c r="F203" t="n">
-        <v>455156.0565</v>
+        <v>22809.2651</v>
       </c>
       <c r="G203" t="n">
-        <v>35.88000000000002</v>
+        <v>35.84333333333336</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7543,22 +8195,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="C204" t="n">
         <v>37.2</v>
-      </c>
-      <c r="C204" t="n">
-        <v>37.6</v>
       </c>
       <c r="D204" t="n">
         <v>37.6</v>
       </c>
       <c r="E204" t="n">
-        <v>37.1</v>
+        <v>37.2</v>
       </c>
       <c r="F204" t="n">
-        <v>50113.988</v>
+        <v>455156.0565</v>
       </c>
       <c r="G204" t="n">
-        <v>35.92500000000003</v>
+        <v>35.88000000000002</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7578,22 +8230,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>37.5</v>
+        <v>37.2</v>
       </c>
       <c r="C205" t="n">
-        <v>37.5</v>
+        <v>37.6</v>
       </c>
       <c r="D205" t="n">
-        <v>37.5</v>
+        <v>37.6</v>
       </c>
       <c r="E205" t="n">
-        <v>37.5</v>
+        <v>37.1</v>
       </c>
       <c r="F205" t="n">
-        <v>8223.7528</v>
+        <v>50113.988</v>
       </c>
       <c r="G205" t="n">
-        <v>35.96833333333336</v>
+        <v>35.92500000000003</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7613,22 +8265,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>37.3</v>
+        <v>37.5</v>
       </c>
       <c r="C206" t="n">
-        <v>36.6</v>
+        <v>37.5</v>
       </c>
       <c r="D206" t="n">
-        <v>37.3</v>
+        <v>37.5</v>
       </c>
       <c r="E206" t="n">
-        <v>36.6</v>
+        <v>37.5</v>
       </c>
       <c r="F206" t="n">
-        <v>478786.431</v>
+        <v>8223.7528</v>
       </c>
       <c r="G206" t="n">
-        <v>35.99666666666668</v>
+        <v>35.96833333333336</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7648,22 +8300,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="C207" t="n">
-        <v>37.1</v>
+        <v>36.6</v>
       </c>
       <c r="D207" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="E207" t="n">
-        <v>37</v>
+        <v>36.6</v>
       </c>
       <c r="F207" t="n">
-        <v>218.8329</v>
+        <v>478786.431</v>
       </c>
       <c r="G207" t="n">
-        <v>36.03333333333335</v>
+        <v>35.99666666666668</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7683,22 +8335,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="C208" t="n">
         <v>37.1</v>
       </c>
-      <c r="C208" t="n">
-        <v>36.6</v>
-      </c>
       <c r="D208" t="n">
-        <v>37.1</v>
+        <v>37.4</v>
       </c>
       <c r="E208" t="n">
-        <v>36.6</v>
+        <v>37</v>
       </c>
       <c r="F208" t="n">
-        <v>27870.4945</v>
+        <v>218.8329</v>
       </c>
       <c r="G208" t="n">
-        <v>36.06166666666668</v>
+        <v>36.03333333333335</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7718,22 +8370,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
+        <v>37.1</v>
+      </c>
+      <c r="C209" t="n">
         <v>36.6</v>
-      </c>
-      <c r="C209" t="n">
-        <v>36.9</v>
       </c>
       <c r="D209" t="n">
         <v>37.1</v>
       </c>
       <c r="E209" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="F209" t="n">
-        <v>107897.3905</v>
+        <v>27870.4945</v>
       </c>
       <c r="G209" t="n">
-        <v>36.09500000000001</v>
+        <v>36.06166666666668</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7753,22 +8405,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>36.8</v>
+        <v>36.6</v>
       </c>
       <c r="C210" t="n">
-        <v>36.8</v>
+        <v>36.9</v>
       </c>
       <c r="D210" t="n">
-        <v>36.8</v>
+        <v>37.1</v>
       </c>
       <c r="E210" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="F210" t="n">
-        <v>5289.5569</v>
+        <v>107897.3905</v>
       </c>
       <c r="G210" t="n">
-        <v>36.12500000000001</v>
+        <v>36.09500000000001</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7788,10 +8440,10 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>36.6</v>
+        <v>36.8</v>
       </c>
       <c r="C211" t="n">
-        <v>36.6</v>
+        <v>36.8</v>
       </c>
       <c r="D211" t="n">
         <v>36.8</v>
@@ -7800,10 +8452,10 @@
         <v>36.6</v>
       </c>
       <c r="F211" t="n">
-        <v>57269.7377</v>
+        <v>5289.5569</v>
       </c>
       <c r="G211" t="n">
-        <v>36.15333333333334</v>
+        <v>36.12500000000001</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7829,16 +8481,16 @@
         <v>36.6</v>
       </c>
       <c r="D212" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="E212" t="n">
         <v>36.6</v>
       </c>
-      <c r="E212" t="n">
-        <v>36.4</v>
-      </c>
       <c r="F212" t="n">
-        <v>139727.7013</v>
+        <v>57269.7377</v>
       </c>
       <c r="G212" t="n">
-        <v>36.18333333333334</v>
+        <v>36.15333333333334</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7867,13 +8519,13 @@
         <v>36.6</v>
       </c>
       <c r="E213" t="n">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
       <c r="F213" t="n">
-        <v>129.6428</v>
+        <v>139727.7013</v>
       </c>
       <c r="G213" t="n">
-        <v>36.21333333333334</v>
+        <v>36.18333333333334</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7893,22 +8545,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="C214" t="n">
-        <v>36.8</v>
+        <v>36.6</v>
       </c>
       <c r="D214" t="n">
-        <v>36.8</v>
+        <v>36.6</v>
       </c>
       <c r="E214" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="F214" t="n">
-        <v>81644.7022</v>
+        <v>129.6428</v>
       </c>
       <c r="G214" t="n">
-        <v>36.24666666666667</v>
+        <v>36.21333333333334</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -7928,7 +8580,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="C215" t="n">
         <v>36.8</v>
@@ -7937,13 +8589,13 @@
         <v>36.8</v>
       </c>
       <c r="E215" t="n">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
       <c r="F215" t="n">
-        <v>40763.52896657</v>
+        <v>81644.7022</v>
       </c>
       <c r="G215" t="n">
-        <v>36.28166666666667</v>
+        <v>36.24666666666667</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -7963,22 +8615,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="C216" t="n">
-        <v>36.1</v>
+        <v>36.8</v>
       </c>
       <c r="D216" t="n">
-        <v>36.5</v>
+        <v>36.8</v>
       </c>
       <c r="E216" t="n">
-        <v>36.1</v>
+        <v>36.6</v>
       </c>
       <c r="F216" t="n">
-        <v>229542.4237</v>
+        <v>40763.52896657</v>
       </c>
       <c r="G216" t="n">
-        <v>36.30500000000001</v>
+        <v>36.28166666666667</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -7998,22 +8650,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>36.2</v>
+        <v>36.5</v>
       </c>
       <c r="C217" t="n">
         <v>36.1</v>
       </c>
       <c r="D217" t="n">
-        <v>36.2</v>
+        <v>36.5</v>
       </c>
       <c r="E217" t="n">
         <v>36.1</v>
       </c>
       <c r="F217" t="n">
-        <v>10000</v>
+        <v>229542.4237</v>
       </c>
       <c r="G217" t="n">
-        <v>36.32833333333335</v>
+        <v>36.30500000000001</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8033,22 +8685,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="C218" t="n">
         <v>36.1</v>
       </c>
-      <c r="C218" t="n">
-        <v>36</v>
-      </c>
       <c r="D218" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="E218" t="n">
         <v>36.1</v>
       </c>
-      <c r="E218" t="n">
-        <v>35.9</v>
-      </c>
       <c r="F218" t="n">
-        <v>129000</v>
+        <v>10000</v>
       </c>
       <c r="G218" t="n">
-        <v>36.34666666666668</v>
+        <v>36.32833333333335</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8068,22 +8720,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
+        <v>36.1</v>
+      </c>
+      <c r="C219" t="n">
         <v>36</v>
       </c>
-      <c r="C219" t="n">
-        <v>36.5</v>
-      </c>
       <c r="D219" t="n">
-        <v>36.5</v>
+        <v>36.1</v>
       </c>
       <c r="E219" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="F219" t="n">
-        <v>29357.8027</v>
+        <v>129000</v>
       </c>
       <c r="G219" t="n">
-        <v>36.37666666666668</v>
+        <v>36.34666666666668</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8103,7 +8755,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>36.5</v>
+        <v>36</v>
       </c>
       <c r="C220" t="n">
         <v>36.5</v>
@@ -8112,13 +8764,13 @@
         <v>36.5</v>
       </c>
       <c r="E220" t="n">
-        <v>36.5</v>
+        <v>36</v>
       </c>
       <c r="F220" t="n">
-        <v>71.1728</v>
+        <v>29357.8027</v>
       </c>
       <c r="G220" t="n">
-        <v>36.40666666666668</v>
+        <v>36.37666666666668</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8150,10 +8802,10 @@
         <v>36.5</v>
       </c>
       <c r="F221" t="n">
-        <v>388.9784</v>
+        <v>71.1728</v>
       </c>
       <c r="G221" t="n">
-        <v>36.43666666666669</v>
+        <v>36.40666666666668</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8173,7 +8825,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>36.3</v>
+        <v>36.5</v>
       </c>
       <c r="C222" t="n">
         <v>36.5</v>
@@ -8182,13 +8834,13 @@
         <v>36.5</v>
       </c>
       <c r="E222" t="n">
-        <v>36.3</v>
+        <v>36.5</v>
       </c>
       <c r="F222" t="n">
-        <v>5091.9982</v>
+        <v>388.9784</v>
       </c>
       <c r="G222" t="n">
-        <v>36.46666666666669</v>
+        <v>36.43666666666669</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8208,22 +8860,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="C223" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="D223" t="n">
         <v>36.5</v>
       </c>
       <c r="E223" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="F223" t="n">
-        <v>65763.6382</v>
+        <v>5091.9982</v>
       </c>
       <c r="G223" t="n">
-        <v>36.49500000000003</v>
+        <v>36.46666666666669</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8243,22 +8895,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="C224" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="D224" t="n">
         <v>36.5</v>
       </c>
       <c r="E224" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="F224" t="n">
-        <v>37258.2747</v>
+        <v>65763.6382</v>
       </c>
       <c r="G224" t="n">
-        <v>36.52166666666669</v>
+        <v>36.49500000000003</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8278,22 +8930,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>36.3</v>
+        <v>36.5</v>
       </c>
       <c r="C225" t="n">
-        <v>36.3</v>
+        <v>36.5</v>
       </c>
       <c r="D225" t="n">
-        <v>36.3</v>
+        <v>36.5</v>
       </c>
       <c r="E225" t="n">
         <v>36.3</v>
       </c>
       <c r="F225" t="n">
-        <v>95809.64350000001</v>
+        <v>37258.2747</v>
       </c>
       <c r="G225" t="n">
-        <v>36.5466666666667</v>
+        <v>36.52166666666669</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8316,19 +8968,19 @@
         <v>36.3</v>
       </c>
       <c r="C226" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="D226" t="n">
         <v>36.3</v>
       </c>
       <c r="E226" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="F226" t="n">
-        <v>18019.9087</v>
+        <v>95809.64350000001</v>
       </c>
       <c r="G226" t="n">
-        <v>36.57000000000002</v>
+        <v>36.5466666666667</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8348,22 +9000,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="C227" t="n">
         <v>36.2</v>
       </c>
       <c r="D227" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="E227" t="n">
         <v>36.2</v>
       </c>
-      <c r="E227" t="n">
-        <v>36.1</v>
-      </c>
       <c r="F227" t="n">
-        <v>50423.8027</v>
+        <v>18019.9087</v>
       </c>
       <c r="G227" t="n">
-        <v>36.59000000000002</v>
+        <v>36.57000000000002</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8383,22 +9035,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="C228" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="D228" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="E228" t="n">
-        <v>36.4</v>
+        <v>36.1</v>
       </c>
       <c r="F228" t="n">
-        <v>19.8619</v>
+        <v>50423.8027</v>
       </c>
       <c r="G228" t="n">
-        <v>36.60833333333335</v>
+        <v>36.59000000000002</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8421,19 +9073,19 @@
         <v>36.4</v>
       </c>
       <c r="C229" t="n">
-        <v>36.1</v>
+        <v>36.4</v>
       </c>
       <c r="D229" t="n">
         <v>36.4</v>
       </c>
       <c r="E229" t="n">
-        <v>36.1</v>
+        <v>36.4</v>
       </c>
       <c r="F229" t="n">
-        <v>1776.8418</v>
+        <v>19.8619</v>
       </c>
       <c r="G229" t="n">
-        <v>36.61833333333335</v>
+        <v>36.60833333333335</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8453,22 +9105,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>36.1</v>
+        <v>36.4</v>
       </c>
       <c r="C230" t="n">
         <v>36.1</v>
       </c>
       <c r="D230" t="n">
-        <v>36.1</v>
+        <v>36.4</v>
       </c>
       <c r="E230" t="n">
         <v>36.1</v>
       </c>
       <c r="F230" t="n">
-        <v>20213.8587</v>
+        <v>1776.8418</v>
       </c>
       <c r="G230" t="n">
-        <v>36.62666666666668</v>
+        <v>36.61833333333335</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8488,22 +9140,22 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>36.4</v>
+        <v>36.1</v>
       </c>
       <c r="C231" t="n">
-        <v>36.4</v>
+        <v>36.1</v>
       </c>
       <c r="D231" t="n">
-        <v>36.4</v>
+        <v>36.1</v>
       </c>
       <c r="E231" t="n">
-        <v>36.4</v>
+        <v>36.1</v>
       </c>
       <c r="F231" t="n">
-        <v>22.048</v>
+        <v>20213.8587</v>
       </c>
       <c r="G231" t="n">
-        <v>36.63833333333335</v>
+        <v>36.62666666666668</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8535,10 +9187,10 @@
         <v>36.4</v>
       </c>
       <c r="F232" t="n">
-        <v>62181.0635</v>
+        <v>22.048</v>
       </c>
       <c r="G232" t="n">
-        <v>36.65000000000002</v>
+        <v>36.63833333333335</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8570,10 +9222,10 @@
         <v>36.4</v>
       </c>
       <c r="F233" t="n">
-        <v>16941.9434</v>
+        <v>62181.0635</v>
       </c>
       <c r="G233" t="n">
-        <v>36.66000000000002</v>
+        <v>36.65000000000002</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8593,22 +9245,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>36.2</v>
+        <v>36.4</v>
       </c>
       <c r="C234" t="n">
-        <v>36</v>
+        <v>36.4</v>
       </c>
       <c r="D234" t="n">
-        <v>36.2</v>
+        <v>36.4</v>
       </c>
       <c r="E234" t="n">
-        <v>36</v>
+        <v>36.4</v>
       </c>
       <c r="F234" t="n">
-        <v>191537.4432</v>
+        <v>16941.9434</v>
       </c>
       <c r="G234" t="n">
-        <v>36.66333333333335</v>
+        <v>36.66000000000002</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8631,19 +9283,19 @@
         <v>36.2</v>
       </c>
       <c r="C235" t="n">
-        <v>36.2</v>
+        <v>36</v>
       </c>
       <c r="D235" t="n">
         <v>36.2</v>
       </c>
       <c r="E235" t="n">
-        <v>36.2</v>
+        <v>36</v>
       </c>
       <c r="F235" t="n">
-        <v>1498.9962</v>
+        <v>191537.4432</v>
       </c>
       <c r="G235" t="n">
-        <v>36.67000000000001</v>
+        <v>36.66333333333335</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8663,22 +9315,22 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="C236" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="D236" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="E236" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="F236" t="n">
-        <v>69.408</v>
+        <v>1498.9962</v>
       </c>
       <c r="G236" t="n">
-        <v>36.67666666666668</v>
+        <v>36.67000000000001</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8701,19 +9353,19 @@
         <v>36.3</v>
       </c>
       <c r="C237" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="D237" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="E237" t="n">
         <v>36.3</v>
       </c>
       <c r="F237" t="n">
-        <v>9175.886</v>
+        <v>69.408</v>
       </c>
       <c r="G237" t="n">
-        <v>36.68500000000002</v>
+        <v>36.67666666666668</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8733,10 +9385,10 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="C238" t="n">
         <v>36.4</v>
-      </c>
-      <c r="C238" t="n">
-        <v>36.3</v>
       </c>
       <c r="D238" t="n">
         <v>36.4</v>
@@ -8745,10 +9397,10 @@
         <v>36.3</v>
       </c>
       <c r="F238" t="n">
-        <v>6310.40745384</v>
+        <v>9175.886</v>
       </c>
       <c r="G238" t="n">
-        <v>36.68833333333335</v>
+        <v>36.68500000000002</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -8768,19 +9420,19 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="C239" t="n">
         <v>36.3</v>
       </c>
-      <c r="C239" t="n">
-        <v>36.2</v>
-      </c>
       <c r="D239" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="E239" t="n">
         <v>36.3</v>
       </c>
-      <c r="E239" t="n">
-        <v>36.2</v>
-      </c>
       <c r="F239" t="n">
-        <v>56573.2941</v>
+        <v>6310.40745384</v>
       </c>
       <c r="G239" t="n">
         <v>36.68833333333335</v>
@@ -8803,22 +9455,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="C240" t="n">
         <v>36.2</v>
       </c>
-      <c r="C240" t="n">
-        <v>36.4</v>
-      </c>
       <c r="D240" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="E240" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="F240" t="n">
-        <v>96092.9914</v>
+        <v>56573.2941</v>
       </c>
       <c r="G240" t="n">
-        <v>36.69166666666669</v>
+        <v>36.68833333333335</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -8841,19 +9493,19 @@
         <v>36.2</v>
       </c>
       <c r="C241" t="n">
-        <v>36.2</v>
+        <v>36.4</v>
       </c>
       <c r="D241" t="n">
-        <v>36.2</v>
+        <v>36.4</v>
       </c>
       <c r="E241" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="F241" t="n">
-        <v>20</v>
+        <v>96092.9914</v>
       </c>
       <c r="G241" t="n">
-        <v>36.68833333333335</v>
+        <v>36.69166666666669</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -8873,19 +9525,19 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="C242" t="n">
-        <v>36.7</v>
+        <v>36.2</v>
       </c>
       <c r="D242" t="n">
-        <v>36.7</v>
+        <v>36.2</v>
       </c>
       <c r="E242" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="F242" t="n">
-        <v>7000</v>
+        <v>20</v>
       </c>
       <c r="G242" t="n">
         <v>36.68833333333335</v>
@@ -8908,22 +9560,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="C243" t="n">
-        <v>36.3</v>
+        <v>36.7</v>
       </c>
       <c r="D243" t="n">
-        <v>36.3</v>
+        <v>36.7</v>
       </c>
       <c r="E243" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="F243" t="n">
-        <v>192.5681</v>
+        <v>7000</v>
       </c>
       <c r="G243" t="n">
-        <v>36.68166666666669</v>
+        <v>36.68833333333335</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -8946,19 +9598,19 @@
         <v>36.3</v>
       </c>
       <c r="C244" t="n">
-        <v>36.6</v>
+        <v>36.3</v>
       </c>
       <c r="D244" t="n">
-        <v>36.6</v>
+        <v>36.3</v>
       </c>
       <c r="E244" t="n">
         <v>36.3</v>
       </c>
       <c r="F244" t="n">
-        <v>1065</v>
+        <v>192.5681</v>
       </c>
       <c r="G244" t="n">
-        <v>36.68500000000002</v>
+        <v>36.68166666666669</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -8978,22 +9630,22 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="C245" t="n">
         <v>36.6</v>
       </c>
-      <c r="C245" t="n">
-        <v>36.8</v>
-      </c>
       <c r="D245" t="n">
-        <v>36.8</v>
+        <v>36.6</v>
       </c>
       <c r="E245" t="n">
-        <v>36.6</v>
+        <v>36.3</v>
       </c>
       <c r="F245" t="n">
-        <v>37833.80564616</v>
+        <v>1065</v>
       </c>
       <c r="G245" t="n">
-        <v>36.69500000000003</v>
+        <v>36.68500000000002</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9013,22 +9665,22 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="C246" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="D246" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="E246" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="F246" t="n">
-        <v>20</v>
+        <v>37833.80564616</v>
       </c>
       <c r="G246" t="n">
-        <v>36.69666666666669</v>
+        <v>36.69500000000003</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9063,7 +9715,7 @@
         <v>20</v>
       </c>
       <c r="G247" t="n">
-        <v>36.69500000000002</v>
+        <v>36.69666666666669</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9092,13 +9744,13 @@
         <v>36.7</v>
       </c>
       <c r="E248" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="F248" t="n">
-        <v>103483.2677</v>
+        <v>20</v>
       </c>
       <c r="G248" t="n">
-        <v>36.68833333333335</v>
+        <v>36.69500000000002</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9118,22 +9770,22 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="C249" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="D249" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="E249" t="n">
-        <v>36.8</v>
+        <v>36.5</v>
       </c>
       <c r="F249" t="n">
-        <v>14</v>
+        <v>103483.2677</v>
       </c>
       <c r="G249" t="n">
-        <v>36.68666666666669</v>
+        <v>36.68833333333335</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9153,7 +9805,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="C250" t="n">
         <v>36.8</v>
@@ -9162,13 +9814,13 @@
         <v>36.8</v>
       </c>
       <c r="E250" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="F250" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="G250" t="n">
-        <v>36.68500000000002</v>
+        <v>36.68666666666669</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9191,16 +9843,16 @@
         <v>36.7</v>
       </c>
       <c r="C251" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="D251" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="E251" t="n">
         <v>36.7</v>
       </c>
       <c r="F251" t="n">
-        <v>59646.58175384</v>
+        <v>34</v>
       </c>
       <c r="G251" t="n">
         <v>36.68500000000002</v>
@@ -9223,22 +9875,22 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="C252" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="D252" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="E252" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="F252" t="n">
-        <v>20</v>
+        <v>59646.58175384</v>
       </c>
       <c r="G252" t="n">
-        <v>36.67833333333336</v>
+        <v>36.68500000000002</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9261,19 +9913,19 @@
         <v>36.5</v>
       </c>
       <c r="C253" t="n">
-        <v>36.3</v>
+        <v>36.5</v>
       </c>
       <c r="D253" t="n">
         <v>36.5</v>
       </c>
       <c r="E253" t="n">
-        <v>36.3</v>
+        <v>36.5</v>
       </c>
       <c r="F253" t="n">
-        <v>54724.1633</v>
+        <v>20</v>
       </c>
       <c r="G253" t="n">
-        <v>36.67000000000002</v>
+        <v>36.67833333333336</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9293,22 +9945,22 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>36.3</v>
+        <v>36.5</v>
       </c>
       <c r="C254" t="n">
         <v>36.3</v>
       </c>
       <c r="D254" t="n">
-        <v>36.3</v>
+        <v>36.5</v>
       </c>
       <c r="E254" t="n">
         <v>36.3</v>
       </c>
       <c r="F254" t="n">
-        <v>30</v>
+        <v>54724.1633</v>
       </c>
       <c r="G254" t="n">
-        <v>36.65833333333335</v>
+        <v>36.67000000000002</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9328,22 +9980,22 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>36.5</v>
+        <v>36.3</v>
       </c>
       <c r="C255" t="n">
         <v>36.3</v>
       </c>
       <c r="D255" t="n">
-        <v>36.5</v>
+        <v>36.3</v>
       </c>
       <c r="E255" t="n">
         <v>36.3</v>
       </c>
       <c r="F255" t="n">
-        <v>136061.0855</v>
+        <v>30</v>
       </c>
       <c r="G255" t="n">
-        <v>36.64000000000002</v>
+        <v>36.65833333333335</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9375,10 +10027,10 @@
         <v>36.3</v>
       </c>
       <c r="F256" t="n">
-        <v>16139.6026</v>
+        <v>136061.0855</v>
       </c>
       <c r="G256" t="n">
-        <v>36.6166666666667</v>
+        <v>36.64000000000002</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9398,22 +10050,22 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>36.3</v>
+        <v>36.5</v>
       </c>
       <c r="C257" t="n">
         <v>36.3</v>
       </c>
       <c r="D257" t="n">
-        <v>36.3</v>
+        <v>36.5</v>
       </c>
       <c r="E257" t="n">
         <v>36.3</v>
       </c>
       <c r="F257" t="n">
-        <v>5520.3686</v>
+        <v>16139.6026</v>
       </c>
       <c r="G257" t="n">
-        <v>36.5916666666667</v>
+        <v>36.6166666666667</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9445,10 +10097,10 @@
         <v>36.3</v>
       </c>
       <c r="F258" t="n">
-        <v>10000</v>
+        <v>5520.3686</v>
       </c>
       <c r="G258" t="n">
-        <v>36.57500000000003</v>
+        <v>36.5916666666667</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -9468,22 +10120,22 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="C259" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="D259" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="E259" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="F259" t="n">
-        <v>33261.8963</v>
+        <v>10000</v>
       </c>
       <c r="G259" t="n">
-        <v>36.55666666666669</v>
+        <v>36.57500000000003</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -9503,22 +10155,22 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="C260" t="n">
         <v>36.2</v>
       </c>
       <c r="D260" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="E260" t="n">
         <v>36.2</v>
       </c>
       <c r="F260" t="n">
-        <v>78006.47100000001</v>
+        <v>33261.8963</v>
       </c>
       <c r="G260" t="n">
-        <v>36.53500000000002</v>
+        <v>36.55666666666669</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -9538,22 +10190,22 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="C261" t="n">
         <v>36.2</v>
       </c>
       <c r="D261" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="E261" t="n">
         <v>36.2</v>
       </c>
       <c r="F261" t="n">
-        <v>19889.7396</v>
+        <v>78006.47100000001</v>
       </c>
       <c r="G261" t="n">
-        <v>36.51166666666668</v>
+        <v>36.53500000000002</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -9585,10 +10237,10 @@
         <v>36.2</v>
       </c>
       <c r="F262" t="n">
-        <v>108280.4955</v>
+        <v>19889.7396</v>
       </c>
       <c r="G262" t="n">
-        <v>36.48666666666669</v>
+        <v>36.51166666666668</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -9608,22 +10260,22 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="C263" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="D263" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="E263" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="F263" t="n">
-        <v>8467.4586</v>
+        <v>108280.4955</v>
       </c>
       <c r="G263" t="n">
-        <v>36.47166666666669</v>
+        <v>36.48666666666669</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -9646,19 +10298,19 @@
         <v>36.3</v>
       </c>
       <c r="C264" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="D264" t="n">
         <v>36.3</v>
       </c>
       <c r="E264" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="F264" t="n">
-        <v>12533.7686</v>
+        <v>8467.4586</v>
       </c>
       <c r="G264" t="n">
-        <v>36.44833333333336</v>
+        <v>36.47166666666669</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -9678,22 +10330,22 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="C265" t="n">
         <v>36.2</v>
       </c>
       <c r="D265" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="E265" t="n">
         <v>36.2</v>
       </c>
       <c r="F265" t="n">
-        <v>593.6573</v>
+        <v>12533.7686</v>
       </c>
       <c r="G265" t="n">
-        <v>36.42666666666669</v>
+        <v>36.44833333333336</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -9713,19 +10365,19 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>36.5</v>
+        <v>36.2</v>
       </c>
       <c r="C266" t="n">
-        <v>36.6</v>
+        <v>36.2</v>
       </c>
       <c r="D266" t="n">
-        <v>36.6</v>
+        <v>36.2</v>
       </c>
       <c r="E266" t="n">
-        <v>36.5</v>
+        <v>36.2</v>
       </c>
       <c r="F266" t="n">
-        <v>55642.3025</v>
+        <v>593.6573</v>
       </c>
       <c r="G266" t="n">
         <v>36.42666666666669</v>
@@ -9748,22 +10400,22 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="C267" t="n">
-        <v>36.3</v>
+        <v>36.6</v>
       </c>
       <c r="D267" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="E267" t="n">
-        <v>36.3</v>
+        <v>36.5</v>
       </c>
       <c r="F267" t="n">
-        <v>30793.16</v>
+        <v>55642.3025</v>
       </c>
       <c r="G267" t="n">
-        <v>36.41333333333336</v>
+        <v>36.42666666666669</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -9786,19 +10438,19 @@
         <v>36.7</v>
       </c>
       <c r="C268" t="n">
-        <v>36.7</v>
+        <v>36.3</v>
       </c>
       <c r="D268" t="n">
         <v>36.7</v>
       </c>
       <c r="E268" t="n">
-        <v>36.7</v>
+        <v>36.3</v>
       </c>
       <c r="F268" t="n">
-        <v>15</v>
+        <v>30793.16</v>
       </c>
       <c r="G268" t="n">
-        <v>36.41500000000003</v>
+        <v>36.41333333333336</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -9830,10 +10482,10 @@
         <v>36.7</v>
       </c>
       <c r="F269" t="n">
-        <v>172843.6768</v>
+        <v>15</v>
       </c>
       <c r="G269" t="n">
-        <v>36.41166666666668</v>
+        <v>36.41500000000003</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -9853,19 +10505,19 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="C270" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="D270" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="E270" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="F270" t="n">
-        <v>59670.0894</v>
+        <v>172843.6768</v>
       </c>
       <c r="G270" t="n">
         <v>36.41166666666668</v>
@@ -9891,19 +10543,19 @@
         <v>36.8</v>
       </c>
       <c r="C271" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="D271" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="E271" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="F271" t="n">
-        <v>101414.6324</v>
+        <v>59670.0894</v>
       </c>
       <c r="G271" t="n">
-        <v>36.41333333333335</v>
+        <v>36.41166666666668</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -9923,10 +10575,10 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="C272" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="D272" t="n">
         <v>36.9</v>
@@ -9935,10 +10587,10 @@
         <v>36.7</v>
       </c>
       <c r="F272" t="n">
-        <v>465860.2396</v>
+        <v>101414.6324</v>
       </c>
       <c r="G272" t="n">
-        <v>36.41833333333336</v>
+        <v>36.41333333333335</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -9964,16 +10616,16 @@
         <v>36.9</v>
       </c>
       <c r="D273" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="E273" t="n">
         <v>36.7</v>
       </c>
       <c r="F273" t="n">
-        <v>12705.2698</v>
+        <v>465860.2396</v>
       </c>
       <c r="G273" t="n">
-        <v>36.42333333333336</v>
+        <v>36.41833333333336</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -9993,19 +10645,19 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>36.8</v>
+        <v>36.9</v>
       </c>
       <c r="C274" t="n">
-        <v>36.8</v>
+        <v>36.9</v>
       </c>
       <c r="D274" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="E274" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="F274" t="n">
-        <v>5523.1873</v>
+        <v>12705.2698</v>
       </c>
       <c r="G274" t="n">
         <v>36.42333333333336</v>
@@ -10031,19 +10683,19 @@
         <v>36.8</v>
       </c>
       <c r="C275" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="D275" t="n">
         <v>36.9</v>
       </c>
       <c r="E275" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="F275" t="n">
-        <v>84911.5445</v>
+        <v>5523.1873</v>
       </c>
       <c r="G275" t="n">
-        <v>36.42500000000003</v>
+        <v>36.42333333333336</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -10063,22 +10715,22 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="C276" t="n">
-        <v>36.7</v>
+        <v>36.9</v>
       </c>
       <c r="D276" t="n">
-        <v>36.7</v>
+        <v>36.9</v>
       </c>
       <c r="E276" t="n">
         <v>36.7</v>
       </c>
       <c r="F276" t="n">
-        <v>20</v>
+        <v>84911.5445</v>
       </c>
       <c r="G276" t="n">
-        <v>36.43500000000002</v>
+        <v>36.42500000000003</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -10110,10 +10762,10 @@
         <v>36.7</v>
       </c>
       <c r="F277" t="n">
-        <v>150000</v>
+        <v>20</v>
       </c>
       <c r="G277" t="n">
-        <v>36.44500000000002</v>
+        <v>36.43500000000002</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -10145,10 +10797,10 @@
         <v>36.7</v>
       </c>
       <c r="F278" t="n">
-        <v>55064.259</v>
+        <v>150000</v>
       </c>
       <c r="G278" t="n">
-        <v>36.45666666666668</v>
+        <v>36.44500000000002</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -10180,10 +10832,10 @@
         <v>36.7</v>
       </c>
       <c r="F279" t="n">
-        <v>1573.9218</v>
+        <v>55064.259</v>
       </c>
       <c r="G279" t="n">
-        <v>36.46000000000002</v>
+        <v>36.45666666666668</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -10203,22 +10855,22 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="C280" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="D280" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="E280" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="F280" t="n">
-        <v>104037.5616</v>
+        <v>1573.9218</v>
       </c>
       <c r="G280" t="n">
-        <v>36.46666666666668</v>
+        <v>36.46000000000002</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -10238,22 +10890,22 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>36.7</v>
+        <v>36.9</v>
       </c>
       <c r="C281" t="n">
-        <v>36.7</v>
+        <v>36.9</v>
       </c>
       <c r="D281" t="n">
-        <v>36.7</v>
+        <v>36.9</v>
       </c>
       <c r="E281" t="n">
-        <v>36.7</v>
+        <v>36.9</v>
       </c>
       <c r="F281" t="n">
-        <v>74180.0968</v>
+        <v>104037.5616</v>
       </c>
       <c r="G281" t="n">
-        <v>36.47000000000001</v>
+        <v>36.46666666666668</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -10285,10 +10937,10 @@
         <v>36.7</v>
       </c>
       <c r="F282" t="n">
-        <v>500</v>
+        <v>74180.0968</v>
       </c>
       <c r="G282" t="n">
-        <v>36.47333333333334</v>
+        <v>36.47000000000001</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -10308,22 +10960,22 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="C283" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="D283" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="E283" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="F283" t="n">
-        <v>3768.9701897</v>
+        <v>500</v>
       </c>
       <c r="G283" t="n">
-        <v>36.48166666666668</v>
+        <v>36.47333333333334</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -10355,10 +11007,10 @@
         <v>36.9</v>
       </c>
       <c r="F284" t="n">
-        <v>725.7699</v>
+        <v>3768.9701897</v>
       </c>
       <c r="G284" t="n">
-        <v>36.48833333333334</v>
+        <v>36.48166666666668</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -10378,22 +11030,22 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>36.7</v>
+        <v>36.9</v>
       </c>
       <c r="C285" t="n">
-        <v>36.7</v>
+        <v>36.9</v>
       </c>
       <c r="D285" t="n">
-        <v>36.7</v>
+        <v>36.9</v>
       </c>
       <c r="E285" t="n">
-        <v>36.7</v>
+        <v>36.9</v>
       </c>
       <c r="F285" t="n">
-        <v>26665</v>
+        <v>725.7699</v>
       </c>
       <c r="G285" t="n">
-        <v>36.495</v>
+        <v>36.48833333333334</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -10413,22 +11065,22 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="C286" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="D286" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="E286" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="F286" t="n">
-        <v>15</v>
+        <v>26665</v>
       </c>
       <c r="G286" t="n">
-        <v>36.50500000000001</v>
+        <v>36.495</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -10460,10 +11112,10 @@
         <v>36.8</v>
       </c>
       <c r="F287" t="n">
-        <v>985</v>
+        <v>15</v>
       </c>
       <c r="G287" t="n">
-        <v>36.51500000000001</v>
+        <v>36.50500000000001</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -10483,22 +11135,22 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="C288" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="D288" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="E288" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="F288" t="n">
-        <v>6690.5665</v>
+        <v>985</v>
       </c>
       <c r="G288" t="n">
-        <v>36.52333333333335</v>
+        <v>36.51500000000001</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -10518,22 +11170,22 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="C289" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="D289" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="E289" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="F289" t="n">
-        <v>23041.6965</v>
+        <v>6690.5665</v>
       </c>
       <c r="G289" t="n">
-        <v>36.53833333333335</v>
+        <v>36.52333333333335</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -10565,10 +11217,10 @@
         <v>37</v>
       </c>
       <c r="F290" t="n">
-        <v>50818.8833</v>
+        <v>23041.6965</v>
       </c>
       <c r="G290" t="n">
-        <v>36.55333333333336</v>
+        <v>36.53833333333335</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -10588,22 +11240,22 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>36.8</v>
+        <v>37</v>
       </c>
       <c r="C291" t="n">
-        <v>36.8</v>
+        <v>37</v>
       </c>
       <c r="D291" t="n">
-        <v>36.8</v>
+        <v>37</v>
       </c>
       <c r="E291" t="n">
-        <v>36.8</v>
+        <v>37</v>
       </c>
       <c r="F291" t="n">
-        <v>100</v>
+        <v>50818.8833</v>
       </c>
       <c r="G291" t="n">
-        <v>36.56000000000002</v>
+        <v>36.55333333333336</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -10635,10 +11287,10 @@
         <v>36.8</v>
       </c>
       <c r="F292" t="n">
-        <v>38870.1608</v>
+        <v>100</v>
       </c>
       <c r="G292" t="n">
-        <v>36.56666666666669</v>
+        <v>36.56000000000002</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -10661,19 +11313,19 @@
         <v>36.8</v>
       </c>
       <c r="C293" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="D293" t="n">
         <v>36.8</v>
       </c>
       <c r="E293" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="F293" t="n">
-        <v>12000</v>
+        <v>38870.1608</v>
       </c>
       <c r="G293" t="n">
-        <v>36.57166666666669</v>
+        <v>36.56666666666669</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -10693,22 +11345,22 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="C294" t="n">
         <v>36.7</v>
       </c>
       <c r="D294" t="n">
-        <v>37</v>
+        <v>36.8</v>
       </c>
       <c r="E294" t="n">
         <v>36.7</v>
       </c>
       <c r="F294" t="n">
-        <v>97020.9667</v>
+        <v>12000</v>
       </c>
       <c r="G294" t="n">
-        <v>36.58333333333335</v>
+        <v>36.57166666666669</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -10731,19 +11383,19 @@
         <v>36.9</v>
       </c>
       <c r="C295" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="D295" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="E295" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="F295" t="n">
-        <v>65.05840000000001</v>
+        <v>97020.9667</v>
       </c>
       <c r="G295" t="n">
-        <v>36.59500000000002</v>
+        <v>36.58333333333335</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -10763,22 +11415,22 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>36.7</v>
+        <v>36.9</v>
       </c>
       <c r="C296" t="n">
-        <v>36.7</v>
+        <v>36.9</v>
       </c>
       <c r="D296" t="n">
-        <v>36.7</v>
+        <v>36.9</v>
       </c>
       <c r="E296" t="n">
-        <v>36.7</v>
+        <v>36.9</v>
       </c>
       <c r="F296" t="n">
-        <v>20000</v>
+        <v>65.05840000000001</v>
       </c>
       <c r="G296" t="n">
-        <v>36.60166666666668</v>
+        <v>36.59500000000002</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -10801,19 +11453,19 @@
         <v>36.7</v>
       </c>
       <c r="C297" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="D297" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="E297" t="n">
         <v>36.7</v>
       </c>
       <c r="F297" t="n">
-        <v>52247.9564</v>
+        <v>20000</v>
       </c>
       <c r="G297" t="n">
-        <v>36.60833333333335</v>
+        <v>36.60166666666668</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -10836,19 +11488,19 @@
         <v>36.7</v>
       </c>
       <c r="C298" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="D298" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="E298" t="n">
         <v>36.7</v>
       </c>
       <c r="F298" t="n">
-        <v>3491.4987</v>
+        <v>52247.9564</v>
       </c>
       <c r="G298" t="n">
-        <v>36.61500000000001</v>
+        <v>36.60833333333335</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -10880,10 +11532,10 @@
         <v>36.7</v>
       </c>
       <c r="F299" t="n">
-        <v>69134</v>
+        <v>3491.4987</v>
       </c>
       <c r="G299" t="n">
-        <v>36.62333333333334</v>
+        <v>36.61500000000001</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -10903,22 +11555,22 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="C300" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="D300" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="E300" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="F300" t="n">
-        <v>15</v>
+        <v>69134</v>
       </c>
       <c r="G300" t="n">
-        <v>36.63166666666667</v>
+        <v>36.62333333333334</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -10938,22 +11590,22 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>36.6</v>
+        <v>36.9</v>
       </c>
       <c r="C301" t="n">
-        <v>36.5</v>
+        <v>36.9</v>
       </c>
       <c r="D301" t="n">
-        <v>36.6</v>
+        <v>36.9</v>
       </c>
       <c r="E301" t="n">
-        <v>36.5</v>
+        <v>36.9</v>
       </c>
       <c r="F301" t="n">
-        <v>1500</v>
+        <v>15</v>
       </c>
       <c r="G301" t="n">
-        <v>36.63666666666668</v>
+        <v>36.63166666666667</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -10976,19 +11628,19 @@
         <v>36.6</v>
       </c>
       <c r="C302" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="D302" t="n">
         <v>36.6</v>
       </c>
       <c r="E302" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="F302" t="n">
-        <v>27397</v>
+        <v>1500</v>
       </c>
       <c r="G302" t="n">
-        <v>36.63500000000001</v>
+        <v>36.63666666666668</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -11008,22 +11660,22 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>36.8</v>
+        <v>36.6</v>
       </c>
       <c r="C303" t="n">
-        <v>37</v>
+        <v>36.6</v>
       </c>
       <c r="D303" t="n">
-        <v>37</v>
+        <v>36.6</v>
       </c>
       <c r="E303" t="n">
-        <v>36.8</v>
+        <v>36.6</v>
       </c>
       <c r="F303" t="n">
-        <v>80606.75791135</v>
+        <v>27397</v>
       </c>
       <c r="G303" t="n">
-        <v>36.64666666666668</v>
+        <v>36.63500000000001</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -11043,22 +11695,22 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="C304" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="D304" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="E304" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="F304" t="n">
-        <v>9185.1633</v>
+        <v>80606.75791135</v>
       </c>
       <c r="G304" t="n">
-        <v>36.65166666666668</v>
+        <v>36.64666666666668</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -11078,19 +11730,19 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>36.8</v>
+        <v>36.9</v>
       </c>
       <c r="C305" t="n">
-        <v>36.8</v>
+        <v>36.9</v>
       </c>
       <c r="D305" t="n">
-        <v>36.8</v>
+        <v>36.9</v>
       </c>
       <c r="E305" t="n">
-        <v>36.8</v>
+        <v>36.9</v>
       </c>
       <c r="F305" t="n">
-        <v>18963.1364</v>
+        <v>9185.1633</v>
       </c>
       <c r="G305" t="n">
         <v>36.65166666666668</v>
@@ -11116,19 +11768,19 @@
         <v>36.8</v>
       </c>
       <c r="C306" t="n">
-        <v>37</v>
+        <v>36.8</v>
       </c>
       <c r="D306" t="n">
-        <v>37</v>
+        <v>36.8</v>
       </c>
       <c r="E306" t="n">
         <v>36.8</v>
       </c>
       <c r="F306" t="n">
-        <v>5715.45253386</v>
+        <v>18963.1364</v>
       </c>
       <c r="G306" t="n">
-        <v>36.65666666666668</v>
+        <v>36.65166666666668</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -11148,19 +11800,19 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="C307" t="n">
         <v>37</v>
-      </c>
-      <c r="C307" t="n">
-        <v>36.7</v>
       </c>
       <c r="D307" t="n">
         <v>37</v>
       </c>
       <c r="E307" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="F307" t="n">
-        <v>5084</v>
+        <v>5715.45253386</v>
       </c>
       <c r="G307" t="n">
         <v>36.65666666666668</v>
@@ -11186,19 +11838,19 @@
         <v>37</v>
       </c>
       <c r="C308" t="n">
-        <v>37</v>
+        <v>36.7</v>
       </c>
       <c r="D308" t="n">
         <v>37</v>
       </c>
       <c r="E308" t="n">
-        <v>37</v>
+        <v>36.7</v>
       </c>
       <c r="F308" t="n">
-        <v>5243</v>
+        <v>5084</v>
       </c>
       <c r="G308" t="n">
-        <v>36.66166666666668</v>
+        <v>36.65666666666668</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -11218,22 +11870,22 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>36.7</v>
+        <v>37</v>
       </c>
       <c r="C309" t="n">
-        <v>36.7</v>
+        <v>37</v>
       </c>
       <c r="D309" t="n">
-        <v>36.7</v>
+        <v>37</v>
       </c>
       <c r="E309" t="n">
-        <v>36.7</v>
+        <v>37</v>
       </c>
       <c r="F309" t="n">
-        <v>16119.6026</v>
+        <v>5243</v>
       </c>
       <c r="G309" t="n">
-        <v>36.66000000000001</v>
+        <v>36.66166666666668</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -11265,10 +11917,10 @@
         <v>36.7</v>
       </c>
       <c r="F310" t="n">
-        <v>896</v>
+        <v>16119.6026</v>
       </c>
       <c r="G310" t="n">
-        <v>36.65833333333334</v>
+        <v>36.66000000000001</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -11288,22 +11940,22 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="C311" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="D311" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="E311" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="F311" t="n">
-        <v>15</v>
+        <v>896</v>
       </c>
       <c r="G311" t="n">
-        <v>36.66166666666668</v>
+        <v>36.65833333333334</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -11323,22 +11975,22 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>36.8</v>
+        <v>36.9</v>
       </c>
       <c r="C312" t="n">
-        <v>36.7</v>
+        <v>36.9</v>
       </c>
       <c r="D312" t="n">
-        <v>36.8</v>
+        <v>36.9</v>
       </c>
       <c r="E312" t="n">
-        <v>36.7</v>
+        <v>36.9</v>
       </c>
       <c r="F312" t="n">
-        <v>116857.0654</v>
+        <v>15</v>
       </c>
       <c r="G312" t="n">
-        <v>36.66500000000001</v>
+        <v>36.66166666666668</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -11358,22 +12010,22 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>36.6</v>
+        <v>36.8</v>
       </c>
       <c r="C313" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="D313" t="n">
-        <v>36.6</v>
+        <v>36.8</v>
       </c>
       <c r="E313" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="F313" t="n">
-        <v>85802.5662</v>
+        <v>116857.0654</v>
       </c>
       <c r="G313" t="n">
-        <v>36.66833333333334</v>
+        <v>36.66500000000001</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -11393,22 +12045,22 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="C314" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="D314" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="E314" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="F314" t="n">
-        <v>15</v>
+        <v>85802.5662</v>
       </c>
       <c r="G314" t="n">
-        <v>36.675</v>
+        <v>36.66833333333334</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -11428,22 +12080,22 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="C315" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="D315" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="E315" t="n">
-        <v>36.2</v>
+        <v>36.7</v>
       </c>
       <c r="F315" t="n">
-        <v>314191.1566</v>
+        <v>15</v>
       </c>
       <c r="G315" t="n">
-        <v>36.67999999999999</v>
+        <v>36.675</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -11463,22 +12115,22 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="C316" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="D316" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="E316" t="n">
-        <v>36.4</v>
+        <v>36.2</v>
       </c>
       <c r="F316" t="n">
-        <v>549.45</v>
+        <v>314191.1566</v>
       </c>
       <c r="G316" t="n">
-        <v>36.68166666666666</v>
+        <v>36.67999999999999</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -11498,22 +12150,22 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>36.2</v>
+        <v>36.4</v>
       </c>
       <c r="C317" t="n">
-        <v>36.2</v>
+        <v>36.4</v>
       </c>
       <c r="D317" t="n">
-        <v>36.2</v>
+        <v>36.4</v>
       </c>
       <c r="E317" t="n">
-        <v>36.2</v>
+        <v>36.4</v>
       </c>
       <c r="F317" t="n">
-        <v>20</v>
+        <v>549.45</v>
       </c>
       <c r="G317" t="n">
-        <v>36.67999999999999</v>
+        <v>36.68166666666666</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -11536,19 +12188,19 @@
         <v>36.2</v>
       </c>
       <c r="C318" t="n">
-        <v>36.5</v>
+        <v>36.2</v>
       </c>
       <c r="D318" t="n">
-        <v>36.5</v>
+        <v>36.2</v>
       </c>
       <c r="E318" t="n">
         <v>36.2</v>
       </c>
       <c r="F318" t="n">
-        <v>489</v>
+        <v>20</v>
       </c>
       <c r="G318" t="n">
-        <v>36.68333333333332</v>
+        <v>36.67999999999999</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -11563,6 +12215,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="C319" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="D319" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="E319" t="n">
+        <v>36.2</v>
+      </c>
+      <c r="F319" t="n">
+        <v>489</v>
+      </c>
+      <c r="G319" t="n">
+        <v>36.68333333333332</v>
+      </c>
+      <c r="H319" t="n">
+        <v>0</v>
+      </c>
+      <c r="I319" t="n">
+        <v>0</v>
+      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
+      <c r="L319" t="inlineStr"/>
+      <c r="M319" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-11-12 BackTest HDAC.xlsx
+++ b/BackTest/2019-11-12 BackTest HDAC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-466750.6829999999</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-466750.6829999999</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>34.3</v>
@@ -521,7 +521,7 @@
         <v>-633450.683</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>34.3</v>
@@ -562,7 +562,7 @@
         <v>-633435.683</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>33.9</v>
@@ -603,7 +603,7 @@
         <v>-658890.6091999999</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>34.3</v>
@@ -644,7 +644,7 @@
         <v>-658875.6091999999</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>34</v>
@@ -685,7 +685,7 @@
         <v>-670987.0462</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>34.3</v>
@@ -726,7 +726,7 @@
         <v>-670987.0462</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>34.1</v>
@@ -767,7 +767,7 @@
         <v>-670972.0462</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>34.1</v>
@@ -808,7 +808,7 @@
         <v>-671093.2461999999</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>34.3</v>
@@ -849,7 +849,7 @@
         <v>-671118.2461999999</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>34.1</v>
@@ -890,7 +890,7 @@
         <v>-671103.2461999999</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>34</v>
@@ -931,7 +931,7 @@
         <v>-674663.1895</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>34.2</v>
@@ -972,7 +972,7 @@
         <v>-674663.1895</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>34</v>
@@ -1013,7 +1013,7 @@
         <v>-674648.1895</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>34</v>
@@ -1054,7 +1054,7 @@
         <v>-674663.1884999999</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>34.2</v>
@@ -1095,7 +1095,7 @@
         <v>-654765.4369999999</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>34</v>
@@ -1136,7 +1136,7 @@
         <v>-704765.4369999999</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>34.2</v>
@@ -1177,7 +1177,7 @@
         <v>-704750.4369999999</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>34</v>
@@ -1218,7 +1218,7 @@
         <v>-91014.31449999986</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>34.2</v>
@@ -1259,7 +1259,7 @@
         <v>477296.1985000002</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>34.4</v>
@@ -1300,11 +1300,9 @@
         <v>512903.6979000001</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>34.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
         <v>34.3</v>
       </c>
@@ -1341,11 +1339,9 @@
         <v>462403.6979000001</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>34.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
         <v>34.3</v>
       </c>
@@ -1382,11 +1378,9 @@
         <v>462403.6979000001</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>34.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
         <v>34.3</v>
       </c>
@@ -1423,7 +1417,7 @@
         <v>462403.6979000001</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>34.6</v>
@@ -1464,7 +1458,7 @@
         <v>462418.6979000001</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>34.6</v>
@@ -1505,7 +1499,7 @@
         <v>462218.6979000001</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>34.7</v>
@@ -1546,7 +1540,7 @@
         <v>462218.6979000001</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>34.5</v>
@@ -1587,7 +1581,7 @@
         <v>462218.6979000001</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>34.5</v>
@@ -1628,7 +1622,7 @@
         <v>462218.6979000001</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>34.5</v>
@@ -1669,7 +1663,7 @@
         <v>409239.6426000001</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>34.5</v>
@@ -1710,7 +1704,7 @@
         <v>538723.2826000002</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>34.3</v>
@@ -1751,9 +1745,11 @@
         <v>538723.2826000002</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>34.4</v>
+      </c>
       <c r="J34" t="n">
         <v>34.3</v>
       </c>
@@ -1790,9 +1786,11 @@
         <v>539060.0776000002</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>34.4</v>
+      </c>
       <c r="J35" t="n">
         <v>34.3</v>
       </c>
@@ -1829,9 +1827,11 @@
         <v>540949.2161000002</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>34.5</v>
+      </c>
       <c r="J36" t="n">
         <v>34.3</v>
       </c>
@@ -1868,9 +1868,11 @@
         <v>540949.2161000002</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>34.6</v>
+      </c>
       <c r="J37" t="n">
         <v>34.3</v>
       </c>
@@ -1907,9 +1909,11 @@
         <v>511477.7018000002</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>34.6</v>
+      </c>
       <c r="J38" t="n">
         <v>34.3</v>
       </c>
@@ -1946,9 +1950,11 @@
         <v>511477.7018000002</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>34.4</v>
+      </c>
       <c r="J39" t="n">
         <v>34.3</v>
       </c>
@@ -1985,9 +1991,11 @@
         <v>511477.7018000002</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>34.4</v>
+      </c>
       <c r="J40" t="n">
         <v>34.3</v>
       </c>
@@ -2024,9 +2032,11 @@
         <v>511477.7018000002</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>34.4</v>
+      </c>
       <c r="J41" t="n">
         <v>34.3</v>
       </c>
@@ -2063,9 +2073,11 @@
         <v>511477.7018000002</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>34.4</v>
+      </c>
       <c r="J42" t="n">
         <v>34.3</v>
       </c>
@@ -2102,9 +2114,11 @@
         <v>511477.7018000002</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>34.4</v>
+      </c>
       <c r="J43" t="n">
         <v>34.3</v>
       </c>
@@ -2141,9 +2155,11 @@
         <v>511477.7018000002</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>34.4</v>
+      </c>
       <c r="J44" t="n">
         <v>34.3</v>
       </c>
@@ -2180,9 +2196,11 @@
         <v>511477.7018000002</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>34.4</v>
+      </c>
       <c r="J45" t="n">
         <v>34.3</v>
       </c>
@@ -2219,9 +2237,11 @@
         <v>511477.7018000002</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>34.4</v>
+      </c>
       <c r="J46" t="n">
         <v>34.3</v>
       </c>
@@ -2414,9 +2434,11 @@
         <v>511477.7018000002</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>34.4</v>
+      </c>
       <c r="J51" t="n">
         <v>34.3</v>
       </c>
@@ -2453,9 +2475,11 @@
         <v>511477.7018000002</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>34.4</v>
+      </c>
       <c r="J52" t="n">
         <v>34.3</v>
       </c>
@@ -2492,9 +2516,11 @@
         <v>511477.7018000002</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>34.4</v>
+      </c>
       <c r="J53" t="n">
         <v>34.3</v>
       </c>
@@ -2531,9 +2557,11 @@
         <v>516360.3998000002</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>34.4</v>
+      </c>
       <c r="J54" t="n">
         <v>34.3</v>
       </c>
@@ -2648,9 +2676,11 @@
         <v>514989.7521000002</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>34.4</v>
+      </c>
       <c r="J57" t="n">
         <v>34.3</v>
       </c>
@@ -2687,9 +2717,11 @@
         <v>514989.7521000002</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>34.4</v>
+      </c>
       <c r="J58" t="n">
         <v>34.3</v>
       </c>
@@ -2726,9 +2758,11 @@
         <v>514989.7521000002</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>34.4</v>
+      </c>
       <c r="J59" t="n">
         <v>34.3</v>
       </c>
@@ -2765,9 +2799,11 @@
         <v>514989.7521000002</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>34.4</v>
+      </c>
       <c r="J60" t="n">
         <v>34.3</v>
       </c>
@@ -2804,9 +2840,11 @@
         <v>514989.7521000002</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>34.4</v>
+      </c>
       <c r="J61" t="n">
         <v>34.3</v>
       </c>
@@ -2843,9 +2881,11 @@
         <v>514989.7521000002</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>34.4</v>
+      </c>
       <c r="J62" t="n">
         <v>34.3</v>
       </c>
@@ -2921,9 +2961,11 @@
         <v>514989.7521000002</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>34.4</v>
+      </c>
       <c r="J64" t="n">
         <v>34.3</v>
       </c>
@@ -2960,9 +3002,11 @@
         <v>514989.7521000002</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>34.4</v>
+      </c>
       <c r="J65" t="n">
         <v>34.3</v>
       </c>
@@ -2999,9 +3043,11 @@
         <v>528233.3397000002</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>34.4</v>
+      </c>
       <c r="J66" t="n">
         <v>34.3</v>
       </c>
@@ -3506,9 +3552,11 @@
         <v>509553.8005000002</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>34.4</v>
+      </c>
       <c r="J79" t="n">
         <v>34.3</v>
       </c>
@@ -3545,9 +3593,11 @@
         <v>509553.8005000002</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>34.4</v>
+      </c>
       <c r="J80" t="n">
         <v>34.3</v>
       </c>
@@ -3584,9 +3634,11 @@
         <v>509553.8005000002</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>34.4</v>
+      </c>
       <c r="J81" t="n">
         <v>34.3</v>
       </c>
@@ -3623,9 +3675,11 @@
         <v>509553.8005000002</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>34.4</v>
+      </c>
       <c r="J82" t="n">
         <v>34.3</v>
       </c>
@@ -3662,9 +3716,11 @@
         <v>509553.8005000002</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>34.4</v>
+      </c>
       <c r="J83" t="n">
         <v>34.3</v>
       </c>
@@ -3701,9 +3757,11 @@
         <v>509553.8005000002</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>34.4</v>
+      </c>
       <c r="J84" t="n">
         <v>34.3</v>
       </c>
@@ -3740,9 +3798,11 @@
         <v>509553.8005000002</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>34.4</v>
+      </c>
       <c r="J85" t="n">
         <v>34.3</v>
       </c>
@@ -3779,9 +3839,11 @@
         <v>511830.3400000002</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>34.4</v>
+      </c>
       <c r="J86" t="n">
         <v>34.3</v>
       </c>
@@ -3818,9 +3880,11 @@
         <v>518692.5000000002</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>34.5</v>
+      </c>
       <c r="J87" t="n">
         <v>34.3</v>
       </c>
@@ -3857,9 +3921,11 @@
         <v>519899.4000000002</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>34.6</v>
+      </c>
       <c r="J88" t="n">
         <v>34.3</v>
       </c>
@@ -4052,9 +4118,11 @@
         <v>520289.7336000002</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>34.4</v>
+      </c>
       <c r="J93" t="n">
         <v>34.3</v>
       </c>
@@ -4091,9 +4159,11 @@
         <v>517531.7340000002</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>34.5</v>
+      </c>
       <c r="J94" t="n">
         <v>34.3</v>
       </c>
@@ -4130,9 +4200,11 @@
         <v>517585.7300000002</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>34.4</v>
+      </c>
       <c r="J95" t="n">
         <v>34.3</v>
       </c>
@@ -4169,9 +4241,11 @@
         <v>514427.7300000002</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>34.7</v>
+      </c>
       <c r="J96" t="n">
         <v>34.3</v>
       </c>
@@ -4208,9 +4282,11 @@
         <v>516858.7300000002</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>34.4</v>
+      </c>
       <c r="J97" t="n">
         <v>34.3</v>
       </c>
@@ -4247,9 +4323,11 @@
         <v>514210.0310000002</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>34.6</v>
+      </c>
       <c r="J98" t="n">
         <v>34.3</v>
       </c>
@@ -4286,9 +4364,11 @@
         <v>514225.0310000002</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>34.5</v>
+      </c>
       <c r="J99" t="n">
         <v>34.3</v>
       </c>
@@ -4325,9 +4405,11 @@
         <v>514139.3760000002</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>34.6</v>
+      </c>
       <c r="J100" t="n">
         <v>34.3</v>
       </c>
@@ -4364,9 +4446,11 @@
         <v>514139.3760000002</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>34.5</v>
+      </c>
       <c r="J101" t="n">
         <v>34.3</v>
       </c>
@@ -4403,9 +4487,11 @@
         <v>514139.3760000002</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>34.5</v>
+      </c>
       <c r="J102" t="n">
         <v>34.3</v>
       </c>
@@ -4442,9 +4528,11 @@
         <v>514239.3760000002</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>34.5</v>
+      </c>
       <c r="J103" t="n">
         <v>34.3</v>
       </c>
@@ -4481,9 +4569,11 @@
         <v>514239.3760000002</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>34.6</v>
+      </c>
       <c r="J104" t="n">
         <v>34.3</v>
       </c>
@@ -4520,9 +4610,11 @@
         <v>615198.6309000002</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>34.6</v>
+      </c>
       <c r="J105" t="n">
         <v>34.3</v>
       </c>
@@ -5066,9 +5158,11 @@
         <v>615613.7647000004</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>34.8</v>
+      </c>
       <c r="J119" t="n">
         <v>34.3</v>
       </c>
@@ -10058,7 +10152,7 @@
         <v>2893576.452038521</v>
       </c>
       <c r="H247" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
@@ -10066,15 +10160,13 @@
       </c>
       <c r="K247" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L247" t="n">
-        <v>1.076632653061225</v>
-      </c>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -10102,8 +10194,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -10135,8 +10233,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10168,8 +10272,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10201,8 +10311,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10234,8 +10350,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10267,8 +10389,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10300,8 +10428,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10333,8 +10467,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10363,11 +10503,17 @@
         <v>5565290.292558981</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10396,11 +10542,17 @@
         <v>4962154.621409121</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10432,8 +10584,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10465,8 +10623,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10498,8 +10662,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10531,8 +10701,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10564,8 +10740,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10594,15 +10776,23 @@
         <v>4644745.265109121</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+        <v>1.091209912536443</v>
+      </c>
+      <c r="M263" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10627,7 +10817,7 @@
         <v>4636521.512309121</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10660,7 +10850,7 @@
         <v>4157735.081309121</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10693,7 +10883,7 @@
         <v>4157953.914209121</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10726,7 +10916,7 @@
         <v>4130083.419709121</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10759,7 +10949,7 @@
         <v>4237980.810209121</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10792,7 +10982,7 @@
         <v>4232691.25330912</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10825,7 +11015,7 @@
         <v>4175421.51560912</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10858,7 +11048,7 @@
         <v>4175421.51560912</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10891,7 +11081,7 @@
         <v>4175421.51560912</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10924,7 +11114,7 @@
         <v>4257066.21780912</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10957,7 +11147,7 @@
         <v>4257066.21780912</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10990,7 +11180,7 @@
         <v>4027523.79410912</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -11023,7 +11213,7 @@
         <v>4027523.79410912</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -11056,7 +11246,7 @@
         <v>3898523.79410912</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -11089,7 +11279,7 @@
         <v>3927881.59680912</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -11122,7 +11312,7 @@
         <v>3927881.59680912</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -11155,7 +11345,7 @@
         <v>3927881.59680912</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -11188,7 +11378,7 @@
         <v>3927881.59680912</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -11221,7 +11411,7 @@
         <v>3862117.95860912</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -11254,7 +11444,7 @@
         <v>3899376.23330912</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -11287,7 +11477,7 @@
         <v>3803566.58980912</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -11320,7 +11510,7 @@
         <v>3785546.68110912</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -11353,7 +11543,7 @@
         <v>3785546.68110912</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -11386,7 +11576,7 @@
         <v>3785566.54300912</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -11419,7 +11609,7 @@
         <v>3783789.70120912</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -11452,7 +11642,7 @@
         <v>3783789.70120912</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -11485,7 +11675,7 @@
         <v>3783811.749209119</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11518,7 +11708,7 @@
         <v>3783811.749209119</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -11782,7 +11972,7 @@
         <v>3636227.886055279</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11815,7 +12005,7 @@
         <v>3636207.886055279</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11848,7 +12038,7 @@
         <v>3643207.886055279</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11881,7 +12071,7 @@
         <v>3643015.317955279</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11914,7 +12104,7 @@
         <v>3644080.317955279</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11947,7 +12137,7 @@
         <v>3681914.123601439</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11980,7 +12170,7 @@
         <v>3681894.123601439</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -12013,7 +12203,7 @@
         <v>3681894.123601439</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -12046,7 +12236,7 @@
         <v>3681894.123601439</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -12079,7 +12269,7 @@
         <v>3681908.123601439</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -12112,7 +12302,7 @@
         <v>3681908.123601439</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -12145,7 +12335,7 @@
         <v>3622261.541847599</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -12178,7 +12368,7 @@
         <v>3622241.541847599</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -12211,7 +12401,7 @@
         <v>3567517.378547599</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -12277,7 +12467,7 @@
         <v>3567517.378547599</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -12310,7 +12500,7 @@
         <v>3567517.378547599</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -12343,7 +12533,7 @@
         <v>3567517.378547599</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -12376,7 +12566,7 @@
         <v>3567517.378547599</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -12409,7 +12599,7 @@
         <v>3534255.482247599</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -12442,7 +12632,7 @@
         <v>3534255.482247599</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12475,7 +12665,7 @@
         <v>3534255.482247599</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -12508,7 +12698,7 @@
         <v>3534255.482247599</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12541,7 +12731,7 @@
         <v>3542722.940847599</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12574,7 +12764,7 @@
         <v>3530189.172247599</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12607,7 +12797,7 @@
         <v>3530189.172247599</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12640,7 +12830,7 @@
         <v>3585831.474747599</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12673,7 +12863,7 @@
         <v>3555038.314747599</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12706,7 +12896,7 @@
         <v>3555053.314747599</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12739,7 +12929,7 @@
         <v>3555053.314747599</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12772,7 +12962,7 @@
         <v>3614723.404147599</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12805,7 +12995,7 @@
         <v>3513308.771747599</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12838,7 +13028,7 @@
         <v>3979169.011347599</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12871,7 +13061,7 @@
         <v>3979169.011347599</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12904,7 +13094,7 @@
         <v>3973645.824047599</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12937,7 +13127,7 @@
         <v>4058557.368547599</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12970,7 +13160,7 @@
         <v>4058537.368547599</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -13003,7 +13193,7 @@
         <v>4058537.368547599</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -13036,7 +13226,7 @@
         <v>4058537.368547599</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -13069,7 +13259,7 @@
         <v>4058537.368547599</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -13102,7 +13292,7 @@
         <v>4162574.930147599</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -13135,7 +13325,7 @@
         <v>4088394.833347599</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -13168,7 +13358,7 @@
         <v>4088394.833347599</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -13201,7 +13391,7 @@
         <v>4092163.803537299</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -13234,7 +13424,7 @@
         <v>4092163.803537299</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -13267,7 +13457,7 @@
         <v>4065498.803537299</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -13300,7 +13490,7 @@
         <v>4065513.803537299</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -13333,7 +13523,7 @@
         <v>4065513.803537299</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -13366,7 +13556,7 @@
         <v>4072204.370037299</v>
       </c>
       <c r="H347" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -13399,7 +13589,7 @@
         <v>4095246.066537299</v>
       </c>
       <c r="H348" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -13432,7 +13622,7 @@
         <v>4095246.066537299</v>
       </c>
       <c r="H349" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13465,7 +13655,7 @@
         <v>4095146.066537299</v>
       </c>
       <c r="H350" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13498,7 +13688,7 @@
         <v>4095146.066537299</v>
       </c>
       <c r="H351" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13531,7 +13721,7 @@
         <v>4083146.066537299</v>
       </c>
       <c r="H352" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -13564,7 +13754,7 @@
         <v>4083146.066537299</v>
       </c>
       <c r="H353" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -13597,7 +13787,7 @@
         <v>4083211.124937299</v>
       </c>
       <c r="H354" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -13630,7 +13820,7 @@
         <v>4063211.124937299</v>
       </c>
       <c r="H355" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13663,7 +13853,7 @@
         <v>4115459.081337299</v>
       </c>
       <c r="H356" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -13696,7 +13886,7 @@
         <v>4111967.582637299</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13729,7 +13919,7 @@
         <v>4111967.582637299</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13762,7 +13952,7 @@
         <v>4111982.582637299</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13795,7 +13985,7 @@
         <v>4110482.582637299</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13828,7 +14018,7 @@
         <v>4137879.582637299</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13861,7 +14051,7 @@
         <v>4218486.340548649</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -13894,7 +14084,7 @@
         <v>4209301.177248649</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -13927,7 +14117,7 @@
         <v>4190338.040848649</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13960,7 +14150,7 @@
         <v>4196053.493382509</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13993,7 +14183,7 @@
         <v>4190969.493382509</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -14026,7 +14216,7 @@
         <v>4196212.493382509</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -14059,7 +14249,7 @@
         <v>4180092.890782509</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -14092,7 +14282,7 @@
         <v>4180092.890782509</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -14125,7 +14315,7 @@
         <v>4180107.890782509</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -14158,7 +14348,7 @@
         <v>4063250.825382509</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -14191,7 +14381,7 @@
         <v>3977448.259182509</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -14224,7 +14414,7 @@
         <v>3977463.259182509</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -14257,7 +14447,7 @@
         <v>3663272.102582509</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -14290,7 +14480,7 @@
         <v>3662722.652582509</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -14323,7 +14513,7 @@
         <v>3662702.652582509</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -14356,7 +14546,7 @@
         <v>3663191.652582509</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -14389,7 +14579,7 @@
         <v>3653612.967982509</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -14422,7 +14612,7 @@
         <v>3643613.067982509</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -14455,7 +14645,7 @@
         <v>3669454.252582509</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -14488,7 +14678,7 @@
         <v>3669454.252582509</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -14521,7 +14711,7 @@
         <v>3669454.252582509</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -14554,7 +14744,7 @@
         <v>3669454.252582509</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -14587,7 +14777,7 @@
         <v>3736880.096582509</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -14620,7 +14810,7 @@
         <v>3815631.600982509</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14653,7 +14843,7 @@
         <v>3755323.216782509</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -14686,7 +14876,7 @@
         <v>3826838.898182509</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -14697,6 +14887,6 @@
       <c r="M387" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-12 BackTest HDAC.xlsx
+++ b/BackTest/2019-11-12 BackTest HDAC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1259,11 +1259,9 @@
         <v>477296.1985000002</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>34.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
         <v>34.3</v>
       </c>
@@ -1417,11 +1415,9 @@
         <v>462403.6979000001</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>34.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
         <v>34.3</v>
       </c>
@@ -1458,11 +1454,9 @@
         <v>462418.6979000001</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>34.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
         <v>34.3</v>
       </c>
@@ -1499,11 +1493,9 @@
         <v>462218.6979000001</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>34.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
         <v>34.3</v>
       </c>
@@ -1540,11 +1532,9 @@
         <v>462218.6979000001</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>34.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
         <v>34.3</v>
       </c>
@@ -1581,11 +1571,9 @@
         <v>462218.6979000001</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>34.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
         <v>34.3</v>
       </c>
@@ -1622,11 +1610,9 @@
         <v>462218.6979000001</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>34.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
         <v>34.3</v>
       </c>
@@ -1663,11 +1649,9 @@
         <v>409239.6426000001</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>34.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
         <v>34.3</v>
       </c>
@@ -1704,11 +1688,9 @@
         <v>538723.2826000002</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>34.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
         <v>34.3</v>
       </c>
@@ -1745,11 +1727,9 @@
         <v>538723.2826000002</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>34.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
         <v>34.3</v>
       </c>
@@ -1786,11 +1766,9 @@
         <v>539060.0776000002</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>34.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
         <v>34.3</v>
       </c>
@@ -1827,11 +1805,9 @@
         <v>540949.2161000002</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>34.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
         <v>34.3</v>
       </c>
@@ -1868,11 +1844,9 @@
         <v>540949.2161000002</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>34.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
         <v>34.3</v>
       </c>
@@ -1909,11 +1883,9 @@
         <v>511477.7018000002</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>34.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
         <v>34.3</v>
       </c>
@@ -1950,11 +1922,9 @@
         <v>511477.7018000002</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>34.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
         <v>34.3</v>
       </c>
@@ -1991,11 +1961,9 @@
         <v>511477.7018000002</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>34.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
         <v>34.3</v>
       </c>
@@ -2032,11 +2000,9 @@
         <v>511477.7018000002</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>34.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
         <v>34.3</v>
       </c>
@@ -2073,11 +2039,9 @@
         <v>511477.7018000002</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>34.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
         <v>34.3</v>
       </c>
@@ -2114,11 +2078,9 @@
         <v>511477.7018000002</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>34.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
         <v>34.3</v>
       </c>
@@ -2155,11 +2117,9 @@
         <v>511477.7018000002</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>34.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
         <v>34.3</v>
       </c>
@@ -2196,11 +2156,9 @@
         <v>511477.7018000002</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>34.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
         <v>34.3</v>
       </c>
@@ -2237,11 +2195,9 @@
         <v>511477.7018000002</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>34.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
         <v>34.3</v>
       </c>
@@ -2434,11 +2390,9 @@
         <v>511477.7018000002</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>34.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
         <v>34.3</v>
       </c>
@@ -2475,11 +2429,9 @@
         <v>511477.7018000002</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>34.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
         <v>34.3</v>
       </c>
@@ -2516,11 +2468,9 @@
         <v>511477.7018000002</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>34.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
         <v>34.3</v>
       </c>
@@ -2557,11 +2507,9 @@
         <v>516360.3998000002</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>34.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
         <v>34.3</v>
       </c>
@@ -2676,11 +2624,9 @@
         <v>514989.7521000002</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>34.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
         <v>34.3</v>
       </c>
@@ -2717,11 +2663,9 @@
         <v>514989.7521000002</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>34.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
         <v>34.3</v>
       </c>
@@ -2758,11 +2702,9 @@
         <v>514989.7521000002</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>34.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
         <v>34.3</v>
       </c>
@@ -2799,11 +2741,9 @@
         <v>514989.7521000002</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>34.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
         <v>34.3</v>
       </c>
@@ -2840,11 +2780,9 @@
         <v>514989.7521000002</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>34.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
         <v>34.3</v>
       </c>
@@ -2881,11 +2819,9 @@
         <v>514989.7521000002</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>34.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
         <v>34.3</v>
       </c>
@@ -2961,11 +2897,9 @@
         <v>514989.7521000002</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>34.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
         <v>34.3</v>
       </c>
@@ -3002,11 +2936,9 @@
         <v>514989.7521000002</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>34.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
         <v>34.3</v>
       </c>
@@ -3043,11 +2975,9 @@
         <v>528233.3397000002</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>34.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
         <v>34.3</v>
       </c>
@@ -3552,11 +3482,9 @@
         <v>509553.8005000002</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>34.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
         <v>34.3</v>
       </c>
@@ -3593,11 +3521,9 @@
         <v>509553.8005000002</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>34.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
         <v>34.3</v>
       </c>
@@ -3634,11 +3560,9 @@
         <v>509553.8005000002</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>34.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
         <v>34.3</v>
       </c>
@@ -3675,11 +3599,9 @@
         <v>509553.8005000002</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>34.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
         <v>34.3</v>
       </c>
@@ -3716,11 +3638,9 @@
         <v>509553.8005000002</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>34.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
         <v>34.3</v>
       </c>
@@ -3757,11 +3677,9 @@
         <v>509553.8005000002</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>34.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
         <v>34.3</v>
       </c>
@@ -3798,11 +3716,9 @@
         <v>509553.8005000002</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>34.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
         <v>34.3</v>
       </c>
@@ -3880,11 +3796,9 @@
         <v>518692.5000000002</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>34.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
         <v>34.3</v>
       </c>
@@ -3921,11 +3835,9 @@
         <v>519899.4000000002</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>34.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
         <v>34.3</v>
       </c>
@@ -4118,11 +4030,9 @@
         <v>520289.7336000002</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>34.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
         <v>34.3</v>
       </c>
@@ -4159,11 +4069,9 @@
         <v>517531.7340000002</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>34.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
         <v>34.3</v>
       </c>
@@ -4200,11 +4108,9 @@
         <v>517585.7300000002</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>34.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
         <v>34.3</v>
       </c>
@@ -4241,11 +4147,9 @@
         <v>514427.7300000002</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>34.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
         <v>34.3</v>
       </c>
@@ -4282,11 +4186,9 @@
         <v>516858.7300000002</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>34.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
         <v>34.3</v>
       </c>
@@ -4323,11 +4225,9 @@
         <v>514210.0310000002</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>34.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
         <v>34.3</v>
       </c>
@@ -4364,11 +4264,9 @@
         <v>514225.0310000002</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>34.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
         <v>34.3</v>
       </c>
@@ -4405,11 +4303,9 @@
         <v>514139.3760000002</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>34.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
         <v>34.3</v>
       </c>
@@ -4446,11 +4342,9 @@
         <v>514139.3760000002</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>34.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
         <v>34.3</v>
       </c>
@@ -4487,11 +4381,9 @@
         <v>514139.3760000002</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>34.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
         <v>34.3</v>
       </c>
@@ -4528,11 +4420,9 @@
         <v>514239.3760000002</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>34.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
         <v>34.3</v>
       </c>
@@ -4569,11 +4459,9 @@
         <v>514239.3760000002</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>34.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
         <v>34.3</v>
       </c>
@@ -4610,11 +4498,9 @@
         <v>615198.6309000002</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>34.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
         <v>34.3</v>
       </c>
@@ -5158,11 +5044,9 @@
         <v>615613.7647000004</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>34.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
         <v>34.3</v>
       </c>
@@ -6213,7 +6097,7 @@
         <v>1564759.0662</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
@@ -6221,11 +6105,11 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L146" t="n">
-        <v>1</v>
+        <v>1.024154518950438</v>
       </c>
       <c r="M146" t="inlineStr"/>
     </row>
@@ -6255,14 +6139,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6291,17 +6169,11 @@
         <v>1562112.3398</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6333,14 +6205,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6369,17 +6235,11 @@
         <v>1557417.2373</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6411,14 +6271,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6450,14 +6304,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6489,14 +6337,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6528,14 +6370,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6567,14 +6403,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6606,14 +6436,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6642,17 +6466,11 @@
         <v>1555049.012400001</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6681,17 +6499,11 @@
         <v>1555049.012400001</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6720,17 +6532,11 @@
         <v>1555049.012400001</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6759,17 +6565,11 @@
         <v>1554556.157800001</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6798,17 +6598,11 @@
         <v>1554571.157800001</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6837,17 +6631,11 @@
         <v>1554671.157800001</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6876,17 +6664,11 @@
         <v>1554666.157800001</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6915,17 +6697,11 @@
         <v>1554666.157800001</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6954,17 +6730,11 @@
         <v>1554666.157800001</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6993,17 +6763,11 @@
         <v>1554666.157800001</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -7032,17 +6796,11 @@
         <v>1554666.157800001</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -7071,17 +6829,11 @@
         <v>1554666.157800001</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -7110,17 +6862,11 @@
         <v>1554666.157800001</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7149,17 +6895,11 @@
         <v>1554666.157800001</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7188,17 +6928,11 @@
         <v>1554666.157800001</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7227,17 +6961,11 @@
         <v>1554666.157800001</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7266,17 +6994,11 @@
         <v>1554666.157800001</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7305,17 +7027,11 @@
         <v>1554666.157800001</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7344,17 +7060,11 @@
         <v>1554666.157800001</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7383,17 +7093,11 @@
         <v>1554666.157800001</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7422,17 +7126,11 @@
         <v>1610895.447600001</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7461,17 +7159,11 @@
         <v>1610895.447600001</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7500,17 +7192,11 @@
         <v>1578540.716721821</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7539,17 +7225,11 @@
         <v>1554481.493421821</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7578,17 +7258,11 @@
         <v>1554481.493421821</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7617,17 +7291,11 @@
         <v>1554481.493421821</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7656,17 +7324,11 @@
         <v>1484051.741321821</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7698,14 +7360,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7737,14 +7393,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7776,14 +7426,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7815,14 +7459,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7851,17 +7489,11 @@
         <v>1434052.458721821</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7890,17 +7522,11 @@
         <v>1434052.458721821</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7929,17 +7555,11 @@
         <v>1434052.458721821</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7968,17 +7588,11 @@
         <v>1434052.458721821</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -8007,17 +7621,11 @@
         <v>1377823.168921821</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -8049,14 +7657,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -8088,14 +7690,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -8127,14 +7723,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8166,14 +7756,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8205,14 +7789,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8244,14 +7822,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8283,14 +7855,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8322,14 +7888,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8361,14 +7921,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8400,14 +7954,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8439,14 +7987,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8478,14 +8020,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8517,14 +8053,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8556,14 +8086,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8595,14 +8119,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8634,14 +8152,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8673,14 +8185,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8712,14 +8218,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8751,14 +8251,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8790,14 +8284,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8829,14 +8317,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8868,14 +8350,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8907,14 +8383,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8946,14 +8416,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8985,14 +8449,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -9024,14 +8482,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -9063,14 +8515,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -9102,14 +8548,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -9141,14 +8581,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9180,14 +8614,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9219,14 +8647,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9258,14 +8680,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9297,14 +8713,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9336,14 +8746,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9375,14 +8779,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9414,14 +8812,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9453,14 +8845,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9492,14 +8878,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9531,14 +8911,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9570,14 +8944,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9609,14 +8977,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9648,14 +9010,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9687,14 +9043,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9726,14 +9076,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9765,14 +9109,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9804,14 +9142,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9840,17 +9172,11 @@
         <v>1696599.072838391</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9879,17 +9205,11 @@
         <v>1834279.476038391</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9918,17 +9238,11 @@
         <v>2504889.222038391</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9957,17 +9271,11 @@
         <v>2504889.222038391</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9996,17 +9304,11 @@
         <v>2416779.242338391</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -10035,17 +9337,11 @@
         <v>2364514.347638391</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -10074,17 +9370,11 @@
         <v>2452989.964526941</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -10116,14 +9406,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -10155,14 +9439,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -10194,14 +9472,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -10233,14 +9505,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10272,14 +9538,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10311,14 +9571,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10350,14 +9604,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10389,14 +9637,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10428,14 +9670,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10467,14 +9703,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10506,14 +9736,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10545,14 +9769,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10584,14 +9802,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10623,14 +9835,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10662,14 +9868,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10701,14 +9901,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10740,14 +9934,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10776,23 +9964,15 @@
         <v>4644745.265109121</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
-        <v>1.091209912536443</v>
-      </c>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10817,7 +9997,7 @@
         <v>4636521.512309121</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10850,7 +10030,7 @@
         <v>4157735.081309121</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10883,7 +10063,7 @@
         <v>4157953.914209121</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10916,7 +10096,7 @@
         <v>4130083.419709121</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10949,7 +10129,7 @@
         <v>4237980.810209121</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10982,7 +10162,7 @@
         <v>4232691.25330912</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -11015,7 +10195,7 @@
         <v>4175421.51560912</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -11048,7 +10228,7 @@
         <v>4175421.51560912</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -11081,7 +10261,7 @@
         <v>4175421.51560912</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -11114,7 +10294,7 @@
         <v>4257066.21780912</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -11147,7 +10327,7 @@
         <v>4257066.21780912</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -11180,7 +10360,7 @@
         <v>4027523.79410912</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -11213,7 +10393,7 @@
         <v>4027523.79410912</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -11246,7 +10426,7 @@
         <v>3898523.79410912</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -11279,7 +10459,7 @@
         <v>3927881.59680912</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -11312,7 +10492,7 @@
         <v>3927881.59680912</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -11378,7 +10558,7 @@
         <v>3927881.59680912</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -11411,7 +10591,7 @@
         <v>3862117.95860912</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -11444,7 +10624,7 @@
         <v>3899376.23330912</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -11477,7 +10657,7 @@
         <v>3803566.58980912</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -11543,7 +10723,7 @@
         <v>3785546.68110912</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -11576,7 +10756,7 @@
         <v>3785566.54300912</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -11609,7 +10789,7 @@
         <v>3783789.70120912</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -11642,7 +10822,7 @@
         <v>3783789.70120912</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -11675,7 +10855,7 @@
         <v>3783811.749209119</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11708,7 +10888,7 @@
         <v>3783811.749209119</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -11972,7 +11152,7 @@
         <v>3636227.886055279</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -12005,7 +11185,7 @@
         <v>3636207.886055279</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -12038,7 +11218,7 @@
         <v>3643207.886055279</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -12071,7 +11251,7 @@
         <v>3643015.317955279</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -12104,7 +11284,7 @@
         <v>3644080.317955279</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -12137,7 +11317,7 @@
         <v>3681914.123601439</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -12170,7 +11350,7 @@
         <v>3681894.123601439</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -12203,7 +11383,7 @@
         <v>3681894.123601439</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -12236,7 +11416,7 @@
         <v>3681894.123601439</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -12269,7 +11449,7 @@
         <v>3681908.123601439</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -12302,7 +11482,7 @@
         <v>3681908.123601439</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -12335,7 +11515,7 @@
         <v>3622261.541847599</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -12368,7 +11548,7 @@
         <v>3622241.541847599</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -12401,7 +11581,7 @@
         <v>3567517.378547599</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -12467,7 +11647,7 @@
         <v>3567517.378547599</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -12500,7 +11680,7 @@
         <v>3567517.378547599</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -12533,7 +11713,7 @@
         <v>3567517.378547599</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -12566,7 +11746,7 @@
         <v>3567517.378547599</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -12599,7 +11779,7 @@
         <v>3534255.482247599</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -12632,7 +11812,7 @@
         <v>3534255.482247599</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12665,7 +11845,7 @@
         <v>3534255.482247599</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -12698,7 +11878,7 @@
         <v>3534255.482247599</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12731,7 +11911,7 @@
         <v>3542722.940847599</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12764,7 +11944,7 @@
         <v>3530189.172247599</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12797,7 +11977,7 @@
         <v>3530189.172247599</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12830,7 +12010,7 @@
         <v>3585831.474747599</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12863,7 +12043,7 @@
         <v>3555038.314747599</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12896,7 +12076,7 @@
         <v>3555053.314747599</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12929,7 +12109,7 @@
         <v>3555053.314747599</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12962,7 +12142,7 @@
         <v>3614723.404147599</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12995,7 +12175,7 @@
         <v>3513308.771747599</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -13028,7 +12208,7 @@
         <v>3979169.011347599</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -13061,7 +12241,7 @@
         <v>3979169.011347599</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -13094,7 +12274,7 @@
         <v>3973645.824047599</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -13127,7 +12307,7 @@
         <v>4058557.368547599</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -13160,7 +12340,7 @@
         <v>4058537.368547599</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -13193,7 +12373,7 @@
         <v>4058537.368547599</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -13226,7 +12406,7 @@
         <v>4058537.368547599</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -13259,7 +12439,7 @@
         <v>4058537.368547599</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -13292,7 +12472,7 @@
         <v>4162574.930147599</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -13325,7 +12505,7 @@
         <v>4088394.833347599</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -13358,7 +12538,7 @@
         <v>4088394.833347599</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -13391,7 +12571,7 @@
         <v>4092163.803537299</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -13424,7 +12604,7 @@
         <v>4092163.803537299</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -13457,7 +12637,7 @@
         <v>4065498.803537299</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -13490,7 +12670,7 @@
         <v>4065513.803537299</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -13523,7 +12703,7 @@
         <v>4065513.803537299</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -13556,7 +12736,7 @@
         <v>4072204.370037299</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -13589,7 +12769,7 @@
         <v>4095246.066537299</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -13622,7 +12802,7 @@
         <v>4095246.066537299</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13655,7 +12835,7 @@
         <v>4095146.066537299</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13688,7 +12868,7 @@
         <v>4095146.066537299</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13721,7 +12901,7 @@
         <v>4083146.066537299</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -13754,7 +12934,7 @@
         <v>4083146.066537299</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -13787,7 +12967,7 @@
         <v>4083211.124937299</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -13820,7 +13000,7 @@
         <v>4063211.124937299</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13853,7 +13033,7 @@
         <v>4115459.081337299</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -13886,7 +13066,7 @@
         <v>4111967.582637299</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13919,7 +13099,7 @@
         <v>4111967.582637299</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13952,7 +13132,7 @@
         <v>4111982.582637299</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13985,7 +13165,7 @@
         <v>4110482.582637299</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -14018,7 +13198,7 @@
         <v>4137879.582637299</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -14051,7 +13231,7 @@
         <v>4218486.340548649</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -14084,7 +13264,7 @@
         <v>4209301.177248649</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -14117,7 +13297,7 @@
         <v>4190338.040848649</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -14150,7 +13330,7 @@
         <v>4196053.493382509</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -14183,7 +13363,7 @@
         <v>4190969.493382509</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -14216,7 +13396,7 @@
         <v>4196212.493382509</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -14249,7 +13429,7 @@
         <v>4180092.890782509</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -14282,7 +13462,7 @@
         <v>4180092.890782509</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -14315,7 +13495,7 @@
         <v>4180107.890782509</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -14348,7 +13528,7 @@
         <v>4063250.825382509</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -14381,7 +13561,7 @@
         <v>3977448.259182509</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -14414,7 +13594,7 @@
         <v>3977463.259182509</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -14447,7 +13627,7 @@
         <v>3663272.102582509</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -14480,7 +13660,7 @@
         <v>3662722.652582509</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -14513,7 +13693,7 @@
         <v>3662702.652582509</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -14546,7 +13726,7 @@
         <v>3663191.652582509</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -14579,7 +13759,7 @@
         <v>3653612.967982509</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -14612,7 +13792,7 @@
         <v>3643613.067982509</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -14645,7 +13825,7 @@
         <v>3669454.252582509</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -14678,7 +13858,7 @@
         <v>3669454.252582509</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -14711,7 +13891,7 @@
         <v>3669454.252582509</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -14744,7 +13924,7 @@
         <v>3669454.252582509</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -14777,7 +13957,7 @@
         <v>3736880.096582509</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -14810,7 +13990,7 @@
         <v>3815631.600982509</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14843,7 +14023,7 @@
         <v>3755323.216782509</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -14876,7 +14056,7 @@
         <v>3826838.898182509</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -14887,6 +14067,6 @@
       <c r="M387" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-12 BackTest HDAC.xlsx
+++ b/BackTest/2019-11-12 BackTest HDAC.xlsx
@@ -1259,9 +1259,11 @@
         <v>477296.1985000002</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>34.4</v>
+      </c>
       <c r="J22" t="n">
         <v>34.3</v>
       </c>
@@ -3755,11 +3757,9 @@
         <v>511830.3400000002</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>34.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
         <v>34.3</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>1564759.0662</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
@@ -6105,11 +6105,11 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L146" t="n">
-        <v>1.024154518950438</v>
+        <v>1</v>
       </c>
       <c r="M146" t="inlineStr"/>
     </row>
@@ -6139,8 +6139,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6169,11 +6175,17 @@
         <v>1562112.3398</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6205,8 +6217,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6235,11 +6253,17 @@
         <v>1557417.2373</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6271,8 +6295,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6304,8 +6334,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6337,8 +6373,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6370,8 +6412,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6403,8 +6451,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6436,8 +6490,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6466,11 +6526,17 @@
         <v>1555049.012400001</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6499,11 +6565,17 @@
         <v>1555049.012400001</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6532,11 +6604,17 @@
         <v>1555049.012400001</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6565,11 +6643,17 @@
         <v>1554556.157800001</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6598,11 +6682,17 @@
         <v>1554571.157800001</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6631,11 +6721,17 @@
         <v>1554671.157800001</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6664,11 +6760,17 @@
         <v>1554666.157800001</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6697,11 +6799,17 @@
         <v>1554666.157800001</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6730,11 +6838,17 @@
         <v>1554666.157800001</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6763,11 +6877,17 @@
         <v>1554666.157800001</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6796,11 +6916,17 @@
         <v>1554666.157800001</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6829,11 +6955,17 @@
         <v>1554666.157800001</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6862,11 +6994,17 @@
         <v>1554666.157800001</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6895,11 +7033,17 @@
         <v>1554666.157800001</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6928,11 +7072,17 @@
         <v>1554666.157800001</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6961,11 +7111,17 @@
         <v>1554666.157800001</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6994,11 +7150,17 @@
         <v>1554666.157800001</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7027,11 +7189,17 @@
         <v>1554666.157800001</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7060,11 +7228,17 @@
         <v>1554666.157800001</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7093,11 +7267,17 @@
         <v>1554666.157800001</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7126,11 +7306,17 @@
         <v>1610895.447600001</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7159,11 +7345,17 @@
         <v>1610895.447600001</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7192,11 +7384,17 @@
         <v>1578540.716721821</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7225,11 +7423,17 @@
         <v>1554481.493421821</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7258,11 +7462,17 @@
         <v>1554481.493421821</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7291,11 +7501,17 @@
         <v>1554481.493421821</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7324,11 +7540,17 @@
         <v>1484051.741321821</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7360,8 +7582,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7393,8 +7621,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7426,8 +7660,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7459,8 +7699,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7489,11 +7735,17 @@
         <v>1434052.458721821</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7522,11 +7774,17 @@
         <v>1434052.458721821</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7555,11 +7813,17 @@
         <v>1434052.458721821</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7588,11 +7852,17 @@
         <v>1434052.458721821</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7621,11 +7891,17 @@
         <v>1377823.168921821</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7657,8 +7933,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7690,8 +7972,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7723,8 +8011,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7756,8 +8050,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7789,8 +8089,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7822,8 +8128,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7855,8 +8167,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7888,8 +8206,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7921,8 +8245,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7954,8 +8284,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7987,8 +8323,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8020,8 +8362,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8053,8 +8401,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8086,8 +8440,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8119,8 +8479,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8152,8 +8518,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8185,8 +8557,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8218,8 +8596,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8251,8 +8635,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8284,8 +8674,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8317,8 +8713,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8350,8 +8752,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8383,8 +8791,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8416,8 +8830,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8449,8 +8869,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8482,8 +8908,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8515,8 +8947,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8548,8 +8986,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8581,8 +9025,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8614,8 +9064,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8647,8 +9103,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8680,8 +9142,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8713,8 +9181,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8746,8 +9220,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8779,8 +9259,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8812,8 +9298,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8845,8 +9337,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8878,8 +9376,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8911,8 +9415,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8944,8 +9454,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8977,8 +9493,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9010,8 +9532,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9043,8 +9571,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9076,8 +9610,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9109,8 +9649,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9142,8 +9688,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9172,11 +9724,17 @@
         <v>1696599.072838391</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9205,11 +9763,17 @@
         <v>1834279.476038391</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9238,11 +9802,17 @@
         <v>2504889.222038391</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9271,11 +9841,17 @@
         <v>2504889.222038391</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9304,11 +9880,17 @@
         <v>2416779.242338391</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9337,11 +9919,17 @@
         <v>2364514.347638391</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9370,11 +9958,17 @@
         <v>2452989.964526941</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9406,8 +10000,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9439,8 +10039,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9472,8 +10078,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9505,8 +10117,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9538,8 +10156,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9571,8 +10195,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9604,8 +10234,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9637,8 +10273,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9670,8 +10312,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9703,8 +10351,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9733,15 +10387,23 @@
         <v>5565290.292558981</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+        <v>1.097040816326531</v>
+      </c>
+      <c r="M256" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9766,7 +10428,7 @@
         <v>4962154.621409121</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9799,7 +10461,7 @@
         <v>4962154.621409121</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9832,7 +10494,7 @@
         <v>5010576.108409121</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9865,7 +10527,7 @@
         <v>5026978.06850912</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9898,7 +10560,7 @@
         <v>5049787.333609121</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9931,7 +10593,7 @@
         <v>4594631.277109121</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9964,7 +10626,7 @@
         <v>4644745.265109121</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9997,7 +10659,7 @@
         <v>4636521.512309121</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10030,7 +10692,7 @@
         <v>4157735.081309121</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10063,7 +10725,7 @@
         <v>4157953.914209121</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10096,7 +10758,7 @@
         <v>4130083.419709121</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10129,7 +10791,7 @@
         <v>4237980.810209121</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10162,7 +10824,7 @@
         <v>4232691.25330912</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10195,7 +10857,7 @@
         <v>4175421.51560912</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10228,7 +10890,7 @@
         <v>4175421.51560912</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10525,7 +11187,7 @@
         <v>3927881.59680912</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10690,7 +11352,7 @@
         <v>3785546.68110912</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
